--- a/module7/rgi_main_results/ED010.xlsx
+++ b/module7/rgi_main_results/ED010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcarthur/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcarthur/Downloads/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F34726E5-557B-6444-80EC-468959A0BA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{39543933-8433-C34E-85BE-980B7BDDBCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23700"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920"/>
   </bookViews>
   <sheets>
     <sheet name="ED010" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="460">
+  <si>
+    <t>ORF_ID</t>
+  </si>
   <si>
     <t>Contig</t>
   </si>
@@ -34,9 +37,33 @@
     <t>Orientation</t>
   </si>
   <si>
+    <t>Cut_Off</t>
+  </si>
+  <si>
+    <t>Pass_Bitscore</t>
+  </si>
+  <si>
+    <t>Best_Hit_Bitscore</t>
+  </si>
+  <si>
+    <t>Best_Hit_ARO</t>
+  </si>
+  <si>
+    <t>Best_Identities</t>
+  </si>
+  <si>
     <t>ARO</t>
   </si>
   <si>
+    <t>Model_type</t>
+  </si>
+  <si>
+    <t>SNPs_in_Best_Hit_ARO</t>
+  </si>
+  <si>
+    <t>Other_SNPs</t>
+  </si>
+  <si>
     <t>Drug Class</t>
   </si>
   <si>
@@ -46,18 +73,39 @@
     <t>AMR Gene Family</t>
   </si>
   <si>
+    <t>Predicted_DNA</t>
+  </si>
+  <si>
+    <t>Predicted_Protein</t>
+  </si>
+  <si>
+    <t>CARD_Protein_Sequence</t>
+  </si>
+  <si>
     <t>Percentage Length of Reference Sequence</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Model_ID</t>
+  </si>
+  <si>
     <t>Nudged</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
+    <t>Hit_Start</t>
+  </si>
+  <si>
+    <t>Hit_End</t>
+  </si>
+  <si>
+    <t>Antibiotic</t>
+  </si>
+  <si>
     <t>contig00001_121 # 137106 # 138050 # -1 # ID=1_121;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.457</t>
   </si>
   <si>
@@ -97,7 +145,10 @@
     <t>MPEVQTDHPETAELSKPQLRMVDLNLLTVFDAVMQEQNITRAAHALGMSQPAVSNAVARLKVMFNDELFVRYGRGIQPTARAFQLFGSVRQALQLVQNELPGSGFEPASSERVFHLCVCSPLDSILTSQIYNHIEQIAPNIHVMFKSSLNQNTEHQLRYQETEFVISYEDFHRPEFTSVPLFKDEMVLVASKNHPTIKGPLLKHDVYNEQHAAVSLDRFASFSQTWYDTVDKQASIAYQGMAMMSVLSVVSQTHLVAIAPRWLAEEFAESLELQVLPLPLKQNSRTCYLSWHEAAGRDKGHQWMEEQLVSICKR</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|4929|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|4919|hsp_num:0</t>
+  </si>
+  <si>
+    <t>acriflavine; puromycin</t>
   </si>
   <si>
     <t>contig00001_262 # 293850 # 295082 # 1 # ID=1_262;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.545</t>
@@ -124,7 +175,10 @@
     <t>MPRFFTRHAATLFFPMALILYDFAAYLSTDLIQPGIINVVRDFNADVSLAPAAVSLYLAGGMALQWLLGPLSDRIGRRPVLITGALIFTLACAATMFTTSMTQFLIARAIQGTSICFIATVGYVTVQEAFGQTKGIKLMAIITSIVLIAPIIGPLSGAALMHFMHWKVLFAIIAVMGFISFVGLLLAMPETVKRGAVPFSAKSVLRDFRNVFCNRLFLFGAATISLSYIPMMSWVAVSPVILIDAGSLTTSQFAWTQVPVFGAVIVANAIVARFVKDPTEPRFIWRAVPIQLVGLSLLIVGNLLSPHVWLWSVLGTSLYAFGIGLIFPTLFRFTLFSNKLPKGTVSASLNMVILMVMSVSVEIGRWLWFNGGRLPFHLLAVVAGVIVVFTLAGLLNRVRQHQAAELVEEQ</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1099|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1098|hsp_num:0</t>
+  </si>
+  <si>
+    <t>acriflavine; lincomycin; puromycin; chloramphenicol; norfloxacin</t>
   </si>
   <si>
     <t>contig00002_10 # 11454 # 12611 # -1 # ID=2_10;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.522</t>
@@ -151,7 +205,10 @@
     <t>MTKHARFFLLPSFILISAALIAGCNDKGEEKAHVGEPQVTVHIVKTAPLEVKTELPGRTNAYRIAEVRPQVSGIVLNRNFTEGSDVQAGQSLYQIDPATYQANYDSAKGELAKSEAAAAIAHLTVKRYVPLVGTKYISQQEYDQAIADARQADAAVIAAKATVESARINLAYTKVTAPISGRIGKSTVTEGALVTNGQTTELATVQQLDPIYVDVTQSSNDFMRLKQSVEQGNLHKENATSNVELVMENGQTYPLKGTLQFSDVTVDESTGSITLRAVFPNPQHTLLPGMFVRARIDEGVQPDAILIPQQGVSRTPRGDATVLIVNDKSQVEARPVVASQAIGDKWLISEGLKSGDQVIVSGLQKARPGEQVKATTDTPADTASK</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1355|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1352|hsp_num:0</t>
+  </si>
+  <si>
+    <t>ciprofloxacin</t>
   </si>
   <si>
     <t>contig00002_11 # 13010 # 13672 # 1 # ID=2_11;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.442</t>
@@ -178,6 +235,9 @@
     <t>gnl|BL_ORD_ID|602|hsp_num:0</t>
   </si>
   <si>
+    <t>tigecycline; ciprofloxacin; tetracycline; rifampin; chloramphenicol; ampicillin; cefalotin; triclosan</t>
+  </si>
+  <si>
     <t>contig00002_206 # 216346 # 217167 # 1 # ID=2_206;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.526</t>
   </si>
   <si>
@@ -202,7 +262,10 @@
     <t>MSDMHSLLIAAILGVVEGLTEFLPVSSTGHMIIVGHLLGFEGDTAKTFEVVIQLGSILAVVVMFWRRLFGLIGIHFGRPLQHEGESKGRLTLIHILLGMIPAVVLGLLFHDTIKSLFNPINVMYALVVGGLLLIAAECLKPKEPRAPGLDDMTYRQAFMIGCFQCLALWPGFSRSGATISGGMLMGVSRYAASEFSFLLAVPMMMGATALDLYKSWGFLTSGDIPMFAVGFITAFVVALIAIKTFLQLIKRISFIPFAIYRFIVAAAVYVVFF</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1682|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1680|hsp_num:0</t>
+  </si>
+  <si>
+    <t>bacitracin; bacitracin A; bacitracin B; bacitracin F</t>
   </si>
   <si>
     <t>contig00002_222 # 234315 # 235796 # -1 # ID=2_222;partial=00;start_type=ATG;rbs_motif=AGGA;rbs_spacer=5-10bp;gc_cont=0.516</t>
@@ -229,7 +292,10 @@
     <t>MQMKKLLPILIGLSLSGFSSLSQAENLMQVYQQARLSNPELRKSAADRDAAFEKINEARSPLLPQLGLGADYTYSNGYRDANGINSNATSASLQLTQSIFDMSKWRALTLQEKAAGIQDVTYQTDQQTLILNTATAYFNVLNAIDVLSYTQAQKEAIYRQLDQTTQRFNVGLVAITDVQNARAQYDTVLANEVTARNNLDNAVEQLRQITGNYYPELAALNVENFKTDKPQPVNALLKEAEKRNLSLLQARLSQDLAREQIRQAQDGHLPTLDLTASTGISDTSYSGSKTRGAAGTQYDDSNMGQNKVGLSFSLPIYQGGMVNSQVKQAQYNFVGASEQLESAHRSVVQTVRSSFNNINASISSINAYKQAVVSAQSSLDAMEAGYSVGTRTIVDVLDATTTLYNAKQELANARYNYLINQLNIKSALGTLNEQDLLALNNALSKPVSTNPENVAPQTPEQNAIADGYAPDSPAPVVQQTSARTTTSNGHNPFRN</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|4679|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|4671|hsp_num:0</t>
+  </si>
+  <si>
+    <t>erythromycin; cloxacillin; gentamicin C; tigecycline; ciprofloxacin; spectinomycin; streptomycin; tetracycline; tobramycin; oxacillin; ceftazidime; ertapenem; piperacillin; novobiocin; azithromycin; rifampin; imipenem; chloramphenicol; polymyxin B; polymyxin B1; polymyxin B2; polymyxin B3; polymyxin B4; ampicillin; nalidixic acid; norfloxacin; cefalotin; triclosan; ticarcillin; gentamicin</t>
   </si>
   <si>
     <t>contig00003_2 # 493 # 1317 # 1 # ID=3_2;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.407</t>
@@ -256,6 +322,9 @@
     <t>gnl|BL_ORD_ID|79|hsp_num:0</t>
   </si>
   <si>
+    <t>erythromycin; cloxacillin; oxacillin; norfloxacin</t>
+  </si>
+  <si>
     <t>contig00003_5 # 2776 # 5889 # -1 # ID=3_5;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.529</t>
   </si>
   <si>
@@ -295,7 +364,7 @@
     <t>MNRRRKLLIPLLFCGAMLTACDDKSAENAAAMTPEVGVVTLSPGSVNVLSELPGRTVPYEVAEIRPQVGGIIIKRNFIEGDKVNQGDSLYQIDPAPLQAELNSAKGSLAKALSTASNARITFNRQASLLKTNYVSRQDYDTARTQLNEAEANVTVAKAAVEQATINLQYANVTSPITGVSGKSSVTVGALVTANQADSLVTVQRLDPIYVDLTQSVQDFLRMKEEVASGQIKQVQGSTPVQLNLENGKRYSQTGTLKFSDPTVDETTGSVTLRAIFPNPNGDLLPGMYVTALVDEGSRQNVLLVPQEGVTHNAQGKATALILDKDDVVQLREIEASKAIGDQWVVTSGLQAGDRVIVSGLQRIRPGIKARAISSSQENASTESKQ</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1757|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1755|hsp_num:0</t>
   </si>
   <si>
     <t>contig00003_196 # 201418 # 202050 # -1 # ID=3_196;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.498</t>
@@ -316,7 +385,7 @@
     <t>MVLGKPQTDPTLEWFLSHCHIHKYPSKSKLIHQGEKAETLYYIVKGSVAVLIKDEEGKEMILSYLNQGDFIGELGLFEEGQERSAWVRAKTACEVAEISYKKFRQLIQVNPDILMRLSAQMARRLQVTSEKVGNLAFLDVTGRIAQTLLNLAKQPDAMTHPDGMQIKITRQEIGQIVGCSRETVGRILKMLEDQNLISAHGKTIVVYGTR</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|804|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|803|hsp_num:0</t>
   </si>
   <si>
     <t>contig00004_45 # 47959 # 49053 # -1 # ID=4_45;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.513</t>
@@ -343,7 +412,10 @@
     <t>MQNKKIAVIFGGNSTEYEVSLQSASAVFENINTNKFDIIPIGITRSGEWYHYTGEKEKILNNTWFEDSKNLCPVVVSQNRSVKGFLEIASDKYRIIKVDLVFPVLHGKNGEDGTLQGIFELAGIPVVGCDTLSSALCMDKDRAHKLVSLAGISVPKSVTFKRFNEEAAMKEIEANLTYPLFIKPVRAGSSFGITKVIEKQELDAAIELAFEHDTEVIVEETINGFEVGCAVLGIDELIVGRVDEIELSSGFFDYTEKYTLKSSKIYMPARIDAEAEKRIQEAAVTIYKALGCSGFSRVDMFYTPSGEIVFNEVNTIPGFTSHSRYPNMMKGIGLSFSQMLDKLIGLYVE</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1070|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1069|hsp_num:0</t>
+  </si>
+  <si>
+    <t>vancomycin</t>
   </si>
   <si>
     <t>contig00004_130 # 135671 # 138820 # -1 # ID=4_130;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.538</t>
@@ -367,7 +439,10 @@
     <t>MPNFFIDRPIFAWVIAIIIMLAGGLAILKLPVAQYPTIAPPAVTISASYPGADAKTVQDTVTQVIEQNMNGIDNLMYMSSNSDSTGTVQITLTFESGTDADIAQVQVQNKLQLAMPLLPQEVQQQGVSVEKSSSSFLMVVGVINTDGTMTQEDISDYVAANMKDAISRTSGVGDVQLFGSQYAMRIWMNPNELNKFQLTPVDVITAIKAQNAQVAAGQLGGTPPVKGQQLNASIIAQTRLTSTEEFGKILLKVNQDGSRVLLRDVAKIELGGENYDIIAEFNGQPASGLGIKLATGANALDTAAAIRAELAKMEPFFPSGLKIVYPYDTTPFVKISIHEVVKTLVEAIILVFLVMYLFLQNFRATLIPTIAVPVVLLGTFAVLAAFGFSINTLTMFGMVLAIGLLVDDAIVVVENVERVMAEEGLPPKEATRKSMGQIQGALVGIAMVLSAVFVPMAFFGGSTGAIYRQFSITIVSAMALSVLVALILTPALCATMLKPIAKGDHGEGKKGFFGWFNRMFEKSTHHYTDSVGGILRSTGRYLVLYLIIVVGMAYLFVRLPSSFLPDEDQGVFMTMVQLPAGATQERTQKVLNEVTHYYLTKEKNNVESVFAVNGFGFAGRGQNTGIAFVSLKDWADRPGEENKVEAITMRATRAFSQIKDAMVFAFNLPAIVELGTATGFDFELIDQAGLGHEKLTQARNQLLAEAAKHPDMLTSVRPNGLEDTPQFKIDIDQEKAQALGVSINDINTTLGAAWGGSYVNDFIDRGRVKKVYVMSEAKYRMLPDDIGDWYVRAADGQMVPFSAFSSSRWEYGSPRLERYNGLPSMEILGQAAPGKSTGEAMELMEQLASKLPTGVGYDWTGMSYQERLSGNQAPSLYAISLIVVFLCLAALYESWSIPFSVMLVVPLGVIGALLAATFRGLTNDVYFQVGLLTTIGLSAKNAILIVEFAKDLMDKEGKGLIEATLDAVRMRLRPILMTSLAFILGVMPLVISTGAGSGAQNAVGTGVMGGMVTATVLAIFFVPVFFVVVRRRFSRKNEDIEHSHTVDHH</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1012|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1011|hsp_num:0</t>
+  </si>
+  <si>
+    <t>tigecycline; acriflavine; tetracycline; rifampin; chloramphenicol; ampicillin; cefalotin; triclosan</t>
   </si>
   <si>
     <t>contig00004_131 # 138843 # 140036 # -1 # ID=4_131;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.539</t>
@@ -385,7 +460,10 @@
     <t>MNKNRGFTPLAVVLMLSGSLALTGCDDKQAQQGGQQMPAVGVVTVKTEPLQITTELPGRTSAYRIAEVRPQVSGIILKRNFKEGSDIEAGVSLYQIDPATYQATYDSAKGDLAKAQAAANIAQLTVNRYQKLLGTQYISKQEYDQALADAQQANAAVTAAKAAVETARINLAYTKVTSPISGRIGKSNVTEGALVQNGQATALATVQQLDPIYVDVTQSSNDFLRLKQELANGTLKQENGKAKVSLITSDGIKFPQDGTLEFSDVTVDQTTGSITLRAIFPNPDHTLLPGMFVRARLEEGLNPNAILVPQQGVTRTPRGDATVLVVGADDKVETRPIVASQAIGDKWLVTEGLKAGDRVVISGLQKVRPGVQVKAQEVTADNNQQAASGAQPEQSKS</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|2324|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|2319|hsp_num:0</t>
+  </si>
+  <si>
+    <t>tigecycline; tetracycline; rifampin; chloramphenicol; ampicillin; cefalotin; triclosan</t>
   </si>
   <si>
     <t>contig00005_126 # 139493 # 142606 # -1 # ID=5_126;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.542</t>
@@ -409,7 +487,10 @@
     <t>MANFFIDRPIFAWVLAILLCLTGTLAIFSLPVEQYPDLAPPNVRVTANYPGASAQTLENTVTQVIEQNMTGLDNLMYMSSQSSGTGQASVTLSFKAGTDPDEAVQQVQNQLQSAMRKLPQAVQNQGVTVRKTGDTNILTIAFVSTDGSMDKQDIADYVASNIQDPLSRVNGVGDIDAYGSQYSMRIWLDPAKLNSFQMTAKDVTDAIESQNAQIAVGQLGGTPSVDKQALNATINAQSLLQTPEQFRDITLRVNQDGSEVRLGDVATVEMGAEKYDYLSRFNGKPASGLGVKLASGANEMATAELVLNRLDELAQYFPHGLEYKVAYETTSFVKASIEDVVKTLLEAIALVFLVMYLFLQNFRATLIPTIAVPVVLMGTFSVLYAFGYSVNTLTMFAMVLAIGLLVDDAIVVVENVERIMSEEGLTPREATRKSMGQIQGALVGIAMVLSAVFVPMAFFGGTTGAIYRQFSITIVAAMVLSVLVAMILTPALCATLLKPLKKGEHHGQKGFFAWFNQMFNRNAERYEKGVAKILHRSLRWIVIYVLLLGGMVFLFLRLPTSFLPLEDRGMFTTSVQLPSGSTQQQTLKVVEQIEKYYFTHEKDNIMSVFATVGSGPGGNGQNVARMFIRLKDWSERDSKTGTSFAIIERATKAFNQIKEARVIASSPPAISGLGSSAGFDMELQDHAGAGHDALMAARNQLLALAAENPELTRVRHNGLDDSPQLQIDIDQRKAQALGVAIDDINDTLQTAWGSSYVNDFMDRGRVKKVYVQAAAPYRMLPDDINLWYVRNKDGGMVPFSAFATSRWETGSPRLERYNGYSAVEIVGEAAPGVSTGTAMDIMESLVKQLPNGFGLEWTAMSYQERLSGAQAPALYAISLLVVFLCLAALYESWSVPFSVMLVVPLGVIGALLATWMRGLENDVYFQVGLLTVIGLSAKNAILIVEFANEMNQKGHDLFEATLHACRQRLRPILMTSLAFIFGVLPMATSTGAGSGGQHAVGTGVMGGMISATILAIYFVPLFFVLVRRRFPLKPRPE</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1310|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1307|hsp_num:0</t>
+  </si>
+  <si>
+    <t>neomycin; amikacin; kanamycin A; tobramycin; gentamicin</t>
   </si>
   <si>
     <t>contig00006_11 # 12928 # 14061 # 1 # ID=6_11;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=11-12bp;gc_cont=0.504</t>
@@ -439,7 +520,7 @@
     <t>MFKTTLCALLITASCSTFAAPQQINDIVHRTITPLIEQQKIPGMAVAVIYQGKPYYFTWGYADIAKKQPVTQQTLFELGSVSKTFTGVLGGDAIARGEIKLSDPATKYWPELTAKQWNGITLLHLATYTAGGLPLQVPDEVKSSSDLLRFYQNWQPAWAPGTQRLYANSSIGLFGALAVKPSGLSFEQAMQTRVFQPLKLNHTWINVPPPEEKNYAWGYREGKAVHVSPGALDAEAYGVKSTIEDMARWVRSNMNPRDINDKTLQQGIQLAQSRYWQTGDMYQGLGWEMLDWPVNPDSIINGSGNKIALAAPPVKAITPPTPAVRASWVHKTGATGGFGSYVAFIPEKELGIVMLANKNYPNPARVAAAWQILNALQ</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|3524|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|3516|hsp_num:0</t>
   </si>
   <si>
     <t>contig00006_49 # 56113 # 57756 # 1 # ID=6_49;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.499</t>
@@ -463,6 +544,9 @@
     <t>gnl|BL_ORD_ID|596|hsp_num:0</t>
   </si>
   <si>
+    <t>polymyxin B</t>
+  </si>
+  <si>
     <t>contig00006_83 # 89358 # 90389 # 1 # ID=6_83;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.552</t>
   </si>
   <si>
@@ -481,7 +565,7 @@
     <t>MESTPKKAPRSKFPALLVVALALVALVFVIWRVDSAPSTNDAYASADTIDVVPEVSGRIVELAVTDNQAVKQGDLLFRIDPRPYEANLAKAEASLAALDKQIMLTQRSVDAQQFGADSVNATVEKARAAAKQATDTLRRTEPLLKEGFVSAEDVDRARTAQRAAEADLNAVLLQAQSAASAVSGVDALVAQRAAVEADIALTKLHLEMATVRAPFDGRVISLKTSVGQFASAMRPIFTLIDTRHWYVIANFRETDLKNIRSGTPATIRLMSDSGKTFEGKVDSIGYGVLPDDGGLVLGGLPKVSRSINWVRVAQRFPVKIMVDKPDPEMFRIGASAVANLEPQ</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1322|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1319|hsp_num:0</t>
   </si>
   <si>
     <t>contig00006_84 # 90389 # 92440 # 1 # ID=6_84;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.545</t>
@@ -502,7 +586,7 @@
     <t>MSALNSLPLPVVRLLAFFHEELSERRPGRVPQTVQLWVGCLLVILISMTFEIPFVALSLAVLFYGIQSNAFYTKFVAILFVVATVLEIGSLFLIYKWSYGEPLIRLIIAGPILMGCMFLMRTHRLGLVFFAVAIVAIYGQTFPAMLDYPEVVVRLTLWCIVVGLYPTLLMTLIGVLWFPSRAISQMHQALNDRLDDAISHLTDSLAPLPETRIEREALALQKLNVFCLADDANWRTQNAWWQSCVATVTYIYSTLNRYDPTSFADSQAIIEFRQKLASEINKLQHAVAEGQCWQSDWRISESEAMAARECNLENICQTLLQLGQMDPNTPPTPAAKPPSMAADAFTNPDYMRYAVKTLLACLICYTFYSGVDWEGIHTCMLTCVIVANPNVGSSYQKMVLRFGGAFCGAILALLFTLLVMPWLDNIVELLFVLAPIFLLGAWIATSSERSSYIGTQMVVTFALATLENVFGPVYDLVEIRDRALGIIIGTVVSAVIYTFVWPESEARTLPQKLAGTLGMLSKVMRIPRQQEVTALRTYLQIRIGLHAAFNACEEMCQRVALERQLDSEERALLIERSQTVIRQGRDLLHAWDATWNSAQALDNALQPDRAGQFADALEKYAAGLATALSRSPQITLEETPASQAILPTLLKQEQHVCQLFARLPDWTAPALTPATEQAQGATQ</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1894|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|1892|hsp_num:0</t>
   </si>
   <si>
     <t>contig00006_85 # 92437 # 93903 # 1 # ID=6_85;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.558</t>
@@ -547,7 +631,10 @@
     <t>MELLVLVWRQYRWPFISVMALSLASAALGIGLIAFINQRLIETADTSLLVLPEFLGLLLLLMAVTLGSQLALTTLGHHFVYRLRSEFIKRILDTHVERIEQLGSASLLAGLTSDVRNITIAFVRLPELVQGIILTIGSAAYLWMLSGKMLLVTAIWMAITIWGGFVLVARVYKHMATLRETEDKLYTDFQTVLEGRKELTLNRERAEYVFNNLYIPDAQEYRHHIIRADTFHLSAVNWSNIMMLGAIGLVFWMANSLGWADTNVAATYSLTLLFLRTPLLSAVGALPTLLTAQVAFNKLNKFALAPFKAEFPRPQAFPNWQTLELRNVTFAYQDNAFSVGPINLTIKRGELLFLIGGNGSGKSTLAMLLTGLYQPQSGEILLDGKPVSGEQPEDYRKLFSAVFTDVWLFDQLLGPEGKPANPQLVEKWLAQLKMAHKLELSNGRIVNLKLSKGQKKRVALLLALAEERDIILLDEWAADQDPHFRREFYQVLLPLMQEMGKTIFAISHDDHYFIHADRLLEMRNGQLSELTGEERDAASRDAVARTA</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|4710|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|4702|hsp_num:0</t>
+  </si>
+  <si>
+    <t>microcin J25</t>
   </si>
   <si>
     <t>contig00013_38 # 36056 # 37288 # -1 # ID=13_38;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.522</t>
@@ -571,7 +658,10 @@
     <t>MQNKLASGARLGRQALLFPLCLVLYEFSTYIGNDMRQPGMLENVEQYQAGIEWVPTSMNAYLAGGMFIQWLLGPLSDRIGRRPVMLAGVVWFIVTCLAILLAQNIEQFTLLRFLHGISLCFIGAVGYDAIQESFEEAVCIKITALMANVALIAPLLGPLVGASWIHVLPWEGMFVLFAALAAISFFGLQRAMPETATRIGEKLSLKELGRDYKLVLKNGRFVAGALALGFLSLPLLAWIAQSPIIIITGEQLSSYEYGLLQVPIFGALIAGNLLLARLTSRRTVRSLIIMGGWPIMIGLLVAAAATVISSHAYLWMTAGLSIYAFGIGLANAGLVRLTLFASVMSKGTVSAAMGMLQMLIFTVGIEISKHAWLNGGNGLFNLFNLVNGILLLSLMVIFLKDKQMGNSHEG</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|2422|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|2417|hsp_num:0</t>
+  </si>
+  <si>
+    <t>tetracycline; benzalkonium chloride</t>
   </si>
   <si>
     <t>contig00014_37 # 49966 # 51714 # 1 # ID=14_37;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.508</t>
@@ -592,7 +682,10 @@
     <t>MHNDKDLSTWQTFRRLWPTIAPFKAGLIVAGVALILNAASDTFMLSLLKPLLDDGFGKTDRSVLVWMPLVVIGLMILRGITSYVSSYCISWVSGKVVMTMRRRLFGHMMGMPVSFFDKQSTGTLLSRITYDSEQVASSSSGALITVVREGASIIGLFIMMFYYSWQLSIILIVLAPIVSIAIRVVSKRFRNISKNMQNTMGQVTTSAEQMLKGHKEVLIFGGQEVETKRFDKVSNRMRLQGMKMVSASSISDPIIQLIASLALAFVLYAASFPSVMDSLTAGTITVVFSSMIALMRPLKSLTNVNAQFQRGMAACQTLFTILDSEQEKDEGKRVIERATGDVEFRNVTFTYPGRDVPALRNINLKIPAGKTVALVGRSGSGKSTIASLITRFYDIDEGEILMDGHDLREYTLASLRNQVALVSQNVHLFNDTVANNIAYARTEQYSREQIEEAARMAYAMDFINKMDNGLDTVIGENGVLLSGGQRQRIAIARALLRDSPILILDEATSALDTESERAIQAALDELQKNRTSLVIAHRLSTIEKADEIVVVEDGVIVERGTHNDLLEHRGVYAQLHKMQFGQ</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|2188|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|2183|hsp_num:0</t>
+  </si>
+  <si>
+    <t>metronidazole</t>
   </si>
   <si>
     <t>contig00017_24 # 21259 # 22425 # -1 # ID=17_24;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.434</t>
@@ -613,7 +706,7 @@
     <t>MKITISGTGYVGLSNGLLIAQNHEVVALDILPSRVAMLNDRISPIVDKEIQQFLQSDKIHFNATLDKNEAYRDADYVIIATPTDYDPKTNYFNTSSVESVIKDVVEINPYAVMVIKSTVPVGFTAAMHKKYRTENIIFSPEFLREGKALYDNLHPSRIVIGERSERAERFAALLQEGAIKQNIPMLFTDSTEAEAIKLFANTYLAMRVAYFNELDSYAESLGLNSRQIIEGVCLDPRIGNHYNNPSFGYGGYCLPKDTKQLLANYQSVPNNLISAIVDANRTRKDFIADAILSRKPQVVGIYRLIMKSGSDNFRASSIQGIMKRIKAKGVEVIIYEPVMKEDSFFNSRLERDLATFKQQADVIISNRMAEELKDVADKVYTRDLFGSD</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|895|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|894|hsp_num:0</t>
   </si>
   <si>
     <t>contig00017_73 # 80198 # 81445 # 1 # ID=17_73;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=11-12bp;gc_cont=0.554</t>
@@ -640,6 +733,9 @@
     <t>gnl|BL_ORD_ID|354|hsp_num:0</t>
   </si>
   <si>
+    <t>novobiocin</t>
+  </si>
+  <si>
     <t>contig00017_74 # 81445 # 84567 # 1 # ID=17_74;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.564</t>
   </si>
   <si>
@@ -658,7 +754,7 @@
     <t>MQVLPPSSTGGPSRLFIMRPVATTLLMVAILLAGIIGYRALPVSALPEVDYPTIQVVTLYPGASPDVMTSAVTAPLERQFGQMSGLKQMSSQSSGGASVITLQFQLTLPLDVAEQEVQAAINAATNLLPSDLPNPPVYSKVNPADPPIMTLAVTSTAMPMTQVEDMVETRVAQKISQISGVGLVTLSGGQRPAVRVKLNAQAIAALGLTSETVRTAITGANVNSAKGSLDGPSRAVTLSANDQMQSAEEYRQLIIAYQNGAPIRLGDVATVEQGAENSWLGAWANKEQAIVMNVQRQPGANIISTADSIRQMLPQLTESLPKSVKVTVLSDRTTNIRASVDDTQFELMMAIALVVMIIYLFLRNIPATIIPGVAVPLSLIGTFAVMVFLDFSINNLTLMALTIATGFVVDDAIVVIENISRYIEKGEKPLAAALKGAGEIGFTIISLTFSLIAVLIPLLFMGDIVGRLFREFAITLAVAILISAVVSLTLTPMMCARMLSQESLRKQNRFSRASEKMFDRIIAAYGRGLAKVLNHPWLTLSVALSTLLLSVLLWVFIPKGFFPVQDNGIIQGTLQAPQSSSFANMAQRQRQVADVILQDPAVQSLTSFVGVDGTNPSLNSARLQINLKPLDERDDRVQKVIARLQTAVDKVPGVDLFLQPTQDLTIDTQVSRTQYQFTLQATSLDALSTWVPQLMEKLQQLPQLSDVSSDWQDKGLVAYVNVDRDSASRLGISMADVDNALYNAFGQRLISTIYTQANQYRVVLEHNTENTPGLAALDTIRLTSSDGGVVPLSSIAKIEQRFAPLSINHLDQFPVTTISFNVPDNYSLGDAVQAIMDTEKTLNLPVDITTQFQGSTLAFQSALGSTVWLIVAAVVAMYIVLGILYESFIHPITILSTLPTAGVGALLALLIAGSELDVIAIIGIILLIGIVKKNAIMMIDFALAAEREQGMSPREAIYQACLLRFRPILMTTLAALLGALPLMLSTGVGAELRRPLGIGMVGGLIVSQVLTLFTTPVIYLLFDRLALWTKSRFARHEEEA</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|758|hsp_num:0</t>
+    <t>gnl|BL_ORD_ID|757|hsp_num:0</t>
   </si>
   <si>
     <t>contig00017_75 # 84568 # 87645 # 1 # ID=17_75;partial=00;start_type=GTG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.564</t>
@@ -679,31 +775,586 @@
     <t>MKFFALFIYRPVATILLSVAITLCGILGFRMLPVAPLPQVDFPVIIVSASLPGASPETMASSVATPLERSLGRIAGVSEMTSSSSLGSTRIILQFDFDRDINGAARDVQAAINAAQSLLPSGMPSRPTYRKANPSDAPIMILTLTSDTYSQGELYDFASTQLAPTISQIDGVGDVDVGGSSLPAVRVGLNPQALFNQGVSLDDVRTAVSNANVRKPQGALEDGTHRWQIQTNDELKTAAEYQPLIIHYNNGGAVRLGDVATVTDSVQDVRNAGMTNAKPAILLMIRKLPEANIIQTVDSIRAKLPELQETIPAAIDLQIAQDRSPTIRASLEEVEQTLIISVALVILVVFLFLRSGRATIIPAVSVPVSLIGTFAAMYLCGFSLNNLSLMALTIATGFVVDDAIVVLENIARHLEAGMKPLQAALQGTREVGFTVLSMSLSLVAVFLPLLLMGGLPGRLLREFAVTLSVAIGISLLVSLTLTPMMCGWMLKASKPREQKRLRGFGRMLVALQQGYGKSLKWVLNHTRLVGVVLLGTIALNIWLYISIPKTFFPEQDTGVLMGGIQADQSISFQAMRGKLQDFMKIIRDDPAVDNVTGFTGGSRVNSGMMFITLKPRDERSETAQQIIDRLRVKLAKEPGANLFLMAVQDIRVGGRQSNASYQYTLLSDDLAALREWEPKIRKKLATLPELADVNSDQQDNGAEMNLVYDRDTMARLGIDVQAANSLLNNAFGQRQISTIYQPMNQYKVVMEVDPRYTQDISALEKMFVINNEGKAIPLSYFAKWQPANAPLSVNHQGLSAASTISFNLPTGKSLSDASAAIDRAMTQLGVPSTVRGSFAGTAQVFQETMNSQVILIIAAIATVYIVLGILYESYVHPLTILSTLPSAGVGALLALELFNAPFSLIALIGIMLLIGIVKKNAIMMVDFALEAQRHGNLTPQEAIFQACLLRFRPIMMTTLAALFGALPLVLSGGDGSELRQPLGITIVGGLVMSQLLTLYTTPVVYLFFDRLRLRFSRKPKQTVTE</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1213|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00017_77 # 89058 # 90461 # 1 # ID=17_77;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.539</t>
-  </si>
-  <si>
-    <t>contig00017_77</t>
-  </si>
-  <si>
-    <t>baeS</t>
+    <t>gnl|BL_ORD_ID|1212|hsp_num:0</t>
+  </si>
+  <si>
+    <t>contig00018_1 # 478 # 663 # -1 # ID=18_1;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.495</t>
+  </si>
+  <si>
+    <t>contig00018_1</t>
+  </si>
+  <si>
+    <t>rsmA</t>
+  </si>
+  <si>
+    <t>fluoroquinolone antibiotic; diaminopyrimidine antibiotic; phenicol antibiotic</t>
+  </si>
+  <si>
+    <t>ATGCTGATTCTGACTCGTCGAGTTGGTGAGACCCTCATGATTGGGGATGAGGTCACCGTGACAGTTTTAGGGGTAAAGGGCAACCAGGTACGTATTGGCGTAAATGCCCCGAAGGAAGTTTCTGTTCACCGTGAAGAGATCTACCAGCGTATCCAGGCTGAAAAATCCCAGCAGTCCAGTTACTAA</t>
+  </si>
+  <si>
+    <t>MLILTRRVGETLMIGDEVTVTVLGVKGNQVRIGVNAPKEVSVHREEIYQRIQAEKSQQSSY</t>
+  </si>
+  <si>
+    <t>MLILTRRVGETLMVGDDVTVTVLGVKGNQVRIGVNAPKEVAVHREEIYQRIQKEKDQEPNH</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2788|hsp_num:0</t>
+  </si>
+  <si>
+    <t>trimethoprim; chloramphenicol</t>
+  </si>
+  <si>
+    <t>contig00020_64 # 66793 # 68166 # -1 # ID=20_64;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.546</t>
+  </si>
+  <si>
+    <t>contig00020_64</t>
+  </si>
+  <si>
+    <t>cpxA</t>
   </si>
   <si>
     <t>aminoglycoside antibiotic; aminocoumarin antibiotic</t>
   </si>
   <si>
-    <t>ATGAAGTTCTGGCGACCTGGTATTACCGGCAAACTGTTTCTGGCGATTTTCGCCACCTGCATTGTCTTGCTGATCAGTATGCACTGGGCGGTGCGTATCAGTTTTGAGCGTGGCTTTATTGATTACATCAAGCATGGTAATGAACAGCGATTACAACTGTTAAGTGATGCGCTTGGCGAGCAGTATGCGCAGCATGGCAACTGGCGCTTCCTGCGCAACAATGATCGCTTTGTCTTTCAGATCCTGCGTTCATTTGAACACGATAATTCGGAAGATAAACCCGGCCCGGGTATGCCACCACACGGCTGGCGTACTCAGTTCTGGGTGGTTGATCAAAACAACAAGGTGCTGGTTGGTCCGCGAGCGCCGATTCCACCTGACGGTACACGGCGACCCATTCTGGTCAACGGTGCGGAAGTGGGCGCGGTGATTGCCTCCCCTGTTGAGCGGCTGACCCGCAATACTGATATCAATTTCGATAAACAACAGCGGCAAACCAGCTGGCTGATTGTCGCCCTGGCAACGTTACTCGCGGCACTCGCTACTTTTCTGCTGGCGCGCGGTTTGCTGGCACCGGTAAAACGACTTGTCGATGGCACGCACAAACTGGCGGCGGGCGATTTCACTACCCGCGTAACGCCCACCAGTGAAGATGAACTGGGCAAACTGGCGCAAGACTTCAACCAGCTCGCCAGCACGCTGGAGAAAAACCAGCAAATGCGGCGCGATTTTATGGCCGATATTTCTCACGAACTGCGTACGCCATTAGCGGTGCTGCGCGGTGAACTGGAAGCCATTCAGGATGGCGTGCGCAAATTCACGCCGGAGACGGTGGCGTCTTTACAGGCGGAGGTCGGTACACTGACCAAACTGGTTGACGATCTTCATCAGTTGTCGATGTCTGATGAAGGCGCTCTCGCCTATCAAAAAGCACCGGTAGATTTGATCCCACTGCTGGAAGTGGCAGGCGGCGCATTTCGCGAACGATTTGCCAGCCGTGGCCTGAAACTGCAATTTTCCCTGCCAGACAGTATCACCGTATTTGGCGATCGCGACCGTTTAATGCAGTTATTCAATAACTTACTGGAAAACAGCCTGCGCTACACTGACAGCGGCGGCAGCCTGAAAATCTCTGCCGAGCAGCACGACAAAACGGTGCGCCTGACCTTTGCCGACAGTGCGCCAGGTGTCAGTGACGATCAGCTACAAAAATTGTTTGAACGTTTTTATCGCACCGAAGGTTCCCGCAACCGCGCCAGCGGCGGTTCCGGGCTGGGGCTGGCGATTTGCCTGAACATTGTTGAAGCACATAATGGCCGCATTATTGCCGCCCATTCGCCTTTTGGCGGGGTAAGCATTACAGTAGAGTTACCGCTGGAACGGGATTTACAGAGAGAAGTATGA</t>
-  </si>
-  <si>
-    <t>MKFWRPGITGKLFLAIFATCIVLLISMHWAVRISFERGFIDYIKHGNEQRLQLLSDALGEQYAQHGNWRFLRNNDRFVFQILRSFEHDNSEDKPGPGMPPHGWRTQFWVVDQNNKVLVGPRAPIPPDGTRRPILVNGAEVGAVIASPVERLTRNTDINFDKQQRQTSWLIVALATLLAALATFLLARGLLAPVKRLVDGTHKLAAGDFTTRVTPTSEDELGKLAQDFNQLASTLEKNQQMRRDFMADISHELRTPLAVLRGELEAIQDGVRKFTPETVASLQAEVGTLTKLVDDLHQLSMSDEGALAYQKAPVDLIPLLEVAGGAFRERFASRGLKLQFSLPDSITVFGDRDRLMQLFNNLLENSLRYTDSGGSLKISAEQHDKTVRLTFADSAPGVSDDQLQKLFERFYRTEGSRNRASGGSGLGLAICLNIVEAHNGRIIAAHSPFGGVSITVELPLERDLQREV</t>
-  </si>
-  <si>
-    <t>MKFWRPGITGKLFLAIFATCIVLLISMHWAVRISFERGFIDYIKHGNEQRLQLLSDALGEQYAQHGNWRFLRNNDRFVFQILRSFEHDNSEDKPGPGMPPHGWRTQFWVVDQNNKVLVGPRAPIPPDGTRRPILVNGAEVGAVIASPVERLTRNTDINFDKQQRQTSWLIVALATLLAALATFLLARGLLAPVKRLVDGTHKLAAGDFTTRVTPTSEDELGKLAQDFNQLASTLEKNQQMRRDFMADISHELRTPLAVLRGELEAIQDGVRKFTPETVASLQAEVGTLTKLVDDLHQLSMSDEGALAYQKAPVDLIPLLEVAGGAFRERFASRGLKLQFSLPDSITVFGDRDRLMQLFNNLLENSLRYTDSGGSLQISAGQRDKTVRLTFADSAPGVSDDQLQKLFERFYRTEGSRNRASGGSGLGLAICLNIVEAHNGRIIAAHSPFGGVSITVELPLERDLQREV</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|914|hsp_num:0</t>
+    <t>ATGATAGGCAGCTTAACCGCGCGCATCTTCGCCATCTTCTGGCTGACGCTGGCGCTGGTGTTGATGTTGGTTTTGATGTTACCCAAGCTCGATTCACGCCAGATGACCGAGCTTCTGGATAGCGAACAGCGTCAGGGTCTGATGATTGAGCAGCATGTTGAAGCGGAGCTGGCGAACGATCCGCCCAACGATTTAATGTGGTGGCGGCGTCTGTTCCGGGCGATTGATAAGTGGGCACCGCCAGGACAGCGTTTGTTATTGGTGACCACCGAAGGCCGCGTGATCGGCGCTGAACGCAGCGAAATGCAGATCATTCGTAACTTTATTGGTCAGGCCGATAACGCCGATCATCCGCAGAAGAAAAAGTATGGCCGCGTGGAACTGGTCGGTCCGTTCTCCGTGCGTGATGGCGAAGATAATTACCAACTTTATCTGATTCGTCCGGCCAGCAGTTCTCAATCCGATTTCATTAACTTACTGTTTGACCGCCCGCTATTACTGCTGATTGTCACCATGTTGGTCAGTACGCCGCTGCTGTTGTGGTTGGCCTGGAGTCTGGCAAAACCGGCGCGTAAGCTGAAAAACGCTGCCGATGAAGTTGCCCAGGGAAACTTACGCCAGCACCCGGAACTGGAAGCGGGGCCACAGGAATTCCTTGCCGCAGGTGCCAGTTTTAACCAGATGGTCACCGCGCTGGAGCGCATGATGACCTCTCAGCAGCGTCTGCTTTCTGATATCTCTCACGAGCTGCGCACCCCGCTGACGCGTCTGCAACTGGGTACGGCGTTACTGCGCCGTCGTAGTGGTGAAAGCAAGGAACTGGAGCGTATTGAAACCGAAGCGCAACGTCTGGACAGCATGATTAACGACCTGTTGGTGATGTCACGTAATCAGCAAAAAAACGCGCTGGTTAGCGAGACCATCAAAGCCAATCAGTTGTGGAGTGAAGTGCTGGATAACGCGGCGTTCGAAGCCGAGCAAATGGGCAAGTCGTTGACAGTTAACTTCCCGCCTGGGCCGTGGCCGCTGTACGGCAACCCGAACGCCCTGGAGAGTGCGCTGGAAAACATTGTTCGTAATGCCCTGCGTTATTCCCATACGAAGATTGAAGTGGGCTTTGCGGTAGATAAAGACGGTATCACCATTACGGTGGACGACGATGGTCCTGGCGTTAGCCCGGAAGATCGCGAACAGATTTTCCGTCCGTTCTATCGGACCGATGAAGCGCGCGATCGTGAATCTGGCGGTACAGGTTTGGGACTGGCGATTGTTGAAACCGCCATTCAGCAGCATCGTGGCTGGGTGAAAGCAGAAGACAGCCCGCTGGGCGGTTTACGGCTGGTGATTTGGTTGCCGCTGTATAAGCGGAGTTAA</t>
+  </si>
+  <si>
+    <t>MIGSLTARIFAIFWLTLALVLMLVLMLPKLDSRQMTELLDSEQRQGLMIEQHVEAELANDPPNDLMWWRRLFRAIDKWAPPGQRLLLVTTEGRVIGAERSEMQIIRNFIGQADNADHPQKKKYGRVELVGPFSVRDGEDNYQLYLIRPASSSQSDFINLLFDRPLLLLIVTMLVSTPLLLWLAWSLAKPARKLKNAADEVAQGNLRQHPELEAGPQEFLAAGASFNQMVTALERMMTSQQRLLSDISHELRTPLTRLQLGTALLRRRSGESKELERIETEAQRLDSMINDLLVMSRNQQKNALVSETIKANQLWSEVLDNAAFEAEQMGKSLTVNFPPGPWPLYGNPNALESALENIVRNALRYSHTKIEVGFAVDKDGITITVDDDGPGVSPEDREQIFRPFYRTDEARDRESGGTGLGLAIVETAIQQHRGWVKAEDSPLGGLRLVIWLPLYKRS</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|132|hsp_num:0</t>
+  </si>
+  <si>
+    <t>neomycin; amikacin; kanamycin A; tobramycin; novobiocin; gentamicin</t>
+  </si>
+  <si>
+    <t>contig00021_60 # 58676 # 59884 # 1 # ID=21_60;partial=00;start_type=ATG;rbs_motif=GGAGG;rbs_spacer=3-4bp;gc_cont=0.557</t>
+  </si>
+  <si>
+    <t>contig00021_60</t>
+  </si>
+  <si>
+    <t>mdtH</t>
+  </si>
+  <si>
+    <t>fluoroquinolone antibiotic</t>
+  </si>
+  <si>
+    <t>ATGTCCCGCGTGTCGCAGGCGAGGAACCTGGGTAAATATTTCCTGCTCATCGATAATATGCTGGTCGTGCTGGGGTTCTTTGTTGTCTTCCCGCTGATCTCTATCCGCTTCGTTGATCAAATGGGCTGGGCCGCCGTCATGGTCGGTATTGCCCTCGGCCTACGCCAGTTTATTCAGCAAGGTCTGGGTATTTTCGGCGGCGCAATTGCCGACCGCTTTGGTGCCAAACCGATGATTGTTACCGGTATGCTGATGCGTGCCGCCGGATTCGCCACAATGGGTATCGCCCACGAACCGTGGCTATTGTGGTTTTCATGCCTGCTCTCGGGACTCGGTGGCACGTTGTTTGATCCGCCGCGTTCGGCGCTGGTGGTGAAACTAATCCGTCCACAACAGCGTGGTCGTTTTTTCTCGCTGTTGATGATGCAGGACAGTGCCGGTGCGGTCATTGGCGCATTGTTGGGGAGCTGGCTGTTGCAATACGACTTTCGCCTGGTCTGCGCCACAGGGGCCGTTTTGTTTGTGCTGTGTGCAGCGTTCAATGCGTGGTTGTTACCGGCATGGAAACTCTCCACCGTACGCACGCCCGTTCGCGAAGGCATGACCCGCGTGATGCGCGACAAGCGTTTTGTCACCTATGTCCTGACGCTGGCGGGTTACTACATGCTGGCTGTACAAGTGATGCTGATGCTGCCAATTATGGTCAACGATGTGGCTGGCGCGCCCTCTGCCGTTAAATGGATGTATGCCATTGAAGCGTGTCTGTCGTTAACGTTGCTCTACCCTATCGCCCGCTGGAGTGAAAAGCATTTTCGTCTGGAACACCGGTTGATGGCTGGGCTGTTGATAATGTCATTAAGCATGATGCCGGTGGGCATGGTCAGCGGCCTGCAACAACTTTTCACCCTGATTTGTCTGTTTTATATCGGGTCGATCATTGCCGAGCCTGCGCGTGAAACCTTAAGTGCTTCGCTGGCGGACGCAAGAGCTCGCGGCAGCTATATGGGGTTTAGCCGTCTGGGTCTGGCGATTGGCGGCGCTATTGGTTATATCGGTGGCGGCTGGCTGTTTGACCTGGGCAAATCGGTGCACCAGCCAGAGCTTCCGTGGATGATGCTGGGCATTATTGGCATCTTCACTTTCCTTGCGCTGGGTTGGCAGTTTAGCCAGAAACGCGCCGCGCGTCGTTTGCTTGAACGCGACGCCTGA</t>
+  </si>
+  <si>
+    <t>MSRVSQARNLGKYFLLIDNMLVVLGFFVVFPLISIRFVDQMGWAAVMVGIALGLRQFIQQGLGIFGGAIADRFGAKPMIVTGMLMRAAGFATMGIAHEPWLLWFSCLLSGLGGTLFDPPRSALVVKLIRPQQRGRFFSLLMMQDSAGAVIGALLGSWLLQYDFRLVCATGAVLFVLCAAFNAWLLPAWKLSTVRTPVREGMTRVMRDKRFVTYVLTLAGYYMLAVQVMLMLPIMVNDVAGAPSAVKWMYAIEACLSLTLLYPIARWSEKHFRLEHRLMAGLLIMSLSMMPVGMVSGLQQLFTLICLFYIGSIIAEPARETLSASLADARARGSYMGFSRLGLAIGGAIGYIGGGWLFDLGKSVHQPELPWMMLGIIGIFTFLALGWQFSQKRAARRLLERDA</t>
+  </si>
+  <si>
+    <t>MSRVSQARNLGKYFLLIDNMLVVLGFFVVFPLISIRFVDQMGWAAVMVGIALGLRQFIQQGLGIFGGAIADRFGAKPMIVTGMLMRAAGFATMGIAHEPWLLWFSCLLSGLGGTLFDPPRSALVVKLIRPQQRGRFFSLLMMQDSAGAVIGALLGSWLLQYDFRLVCATGAVLFVLCAAFNAWLLPAWKLSTVRTPVREGMTRVMRDKRFVTYVLTLAGYYMLAVQVMLMLPIMVNDVAGAPSAVKWMYAIEACLSLTLLYPIARWSEKHFRLEHRLMAGLLIMSLSMMPVGMVSGLQQLFTLICLFYIGSIIAEPARETLSASLADARARGSYMGFSRLGLAIGGAIGYIGGGWLFDLGKSAHQPELPWMMLGIIGIFTFLALGWQFSQKRAARRLLERDA</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|343|hsp_num:0</t>
+  </si>
+  <si>
+    <t>enoxacin; norfloxacin</t>
+  </si>
+  <si>
+    <t>contig00022_58 # 40929 # 42467 # -1 # ID=22_58;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.417</t>
+  </si>
+  <si>
+    <t>contig00022_58</t>
+  </si>
+  <si>
+    <t>emrY</t>
+  </si>
+  <si>
+    <t>tetracycline antibiotic</t>
+  </si>
+  <si>
+    <t>ATGGCAATCACTAAATCAACTCCGGCACCATTAACCGGTGGGACGTTATGGTGCGTCACTATTGCATTGTCATTAGCGACGTTTATGCAAATGTTGGATTCCACTATTTCTAACGTCGCAATACCGACAATATCTGGCTTTCTGGGAGCATCAACAGACGAAGGCACCTGGGTTATCACCTCGTTTGGCGTAGCAAATGCCATTGCGATCCCTGTTACCGGCAGGCTGGCACAAAGAATAGGCGAATTAAGGTTATTTTTACTTTCAGTCACTTTTTTTTCGCTGTCTTCCTTAATGTGTAGTTTATCGATCAATCTTGATGTGCTGATATTTTTTAGAGTCGTTCAGGGGTTAATGGCAGGGCCGTTAATTCCACTGTCACAGAGTTTATTATTAAGGAATTATCCACCAGAAAAAAGAACATTTGCTCTGGCATTATGGTCAATGACCGTGATTATCGCTCCGATATGTGGGCCGATATTGGGCGGTTATATTTGTGATAACTTTAGCTGGGGTTGGATATTTTTAATCAATGTCCCTATGGGGATTATCGTCCTGACATTATGCTTAACCTTACTTAAAGGAAGAGAAACTGAGACTTCACCGGTCAAAATGAATCTACCAGGACTGACCCTGTTAGTGCTCGGTGTTGGTGGCTTGCAAATTATGCTTGATAAAGGGCGCGATCTGGATTGGTTCAACTCGAGTACAATAATAATATTAACAGTAGTATCAGTTATTTTTCTGATCTCTTTAGTCATTTGGGAGTCGACCTCAGAGAACCCGATTCTTGATCTCAGTTTGTTTAAGTCCCGTAACTTCACCATTGGTATTGTGAGTATCACATGCGCGTATTTATTTTACTCTGGAGCGATCGTCCTTATGCCGCAGTTACTCCAGGAAACGATGGGGTATAATGCGATATGGGCCGGACTTGCTTATGCGCCCATCGGCATCATGCCACTATTAATTTCACCTTTGATAGGACGTTATGGCAACAAAATAGACATGCGGGTGTTGGTGACATTCAGTTTTTTGATGTATGCGGTTTGCTATTACTGGCGTTCTGTGACATTTATGCCAACGATTGATTTTACAGGTATCATTTTGCCGCAGTTTTTTCAGGGATTCGCCGTTGCCTGTTTCTTTTTACCCTTAACAACGATTTCGTTTTCAGGCTTGCCAGATAATAAATTTGCCAATGCCTCGAGTATGAGTAATTTTTTTCGTACCTTGTCAGGATCAGTTGGTACGTCGTTGACAATGACGCTGTGGGGACGACGCGAATCGTTACACCATAGTCAGTTGACAGAAACCATCGATCAATTTAACCCCGTGTTTAATTCATCGTCACAAATTATGGATAAATACTATGGTTCGCTTTCAGGAGTTCTTAATGAAATTAATAATGAAATAACCCAGCAGTCACTTTCTATTTCTGCAAATGAGATTTTCCGTATGGCGGCTATTGCTTTTATCTTACTTACGGTTTTGGTTTGGTTTGCGAAACCGCCGTTTACAGCGAAAGGCGTTGGGTGA</t>
+  </si>
+  <si>
+    <t>MAITKSTPAPLTGGTLWCVTIALSLATFMQMLDSTISNVAIPTISGFLGASTDEGTWVITSFGVANAIAIPVTGRLAQRIGELRLFLLSVTFFSLSSLMCSLSINLDVLIFFRVVQGLMAGPLIPLSQSLLLRNYPPEKRTFALALWSMTVIIAPICGPILGGYICDNFSWGWIFLINVPMGIIVLTLCLTLLKGRETETSPVKMNLPGLTLLVLGVGGLQIMLDKGRDLDWFNSSTIIILTVVSVIFLISLVIWESTSENPILDLSLFKSRNFTIGIVSITCAYLFYSGAIVLMPQLLQETMGYNAIWAGLAYAPIGIMPLLISPLIGRYGNKIDMRVLVTFSFLMYAVCYYWRSVTFMPTIDFTGIILPQFFQGFAVACFFLPLTTISFSGLPDNKFANASSMSNFFRTLSGSVGTSLTMTLWGRRESLHHSQLTETIDQFNPVFNSSSQIMDKYYGSLSGVLNEINNEITQQSLSISANEIFRMAAIAFILLTVLVWFAKPPFTAKGVG</t>
+  </si>
+  <si>
+    <t>MAITKSTPAPLTGGTLWCVTIALSLATFMQMLDSTISNVAIPTISGFLGASTDEGTWVITSFGVANAIAIPVTGRLAQRIGELRLFLLSVTFFSLSSLMCSLSTNLDVLIFFRVVQGLMAGPLIPLSQSLLLRNYPPEKRTFALALWSMTVIIAPICGPILGGYICDNFSWGWIFLINVPMGIIVLTLCLTLLKGRETETSPVKMNLPGLTLLVLGVGGLQIMLDKGRDLDWFNSSTIIILTVVSVISLISLVIWESTSENPILDLSLFKSRNFTIGIVSITCAYLFYSGAIVLMPQLLQETMGYNAIWAGLAYAPIGIMPLLISPLIGRYGNKIDMRLLVTFSFLMYAVCYYWRSVTFMPTIDFTGIILPQFFQGFAVACFFLPLTTISFSGLPDNKFANASSMSNFFRTLSGSVGTSLTMTLWGRRESLHHSQLTATIDQFNPVFNSSSQIMDKYYGSLSGVLNEINNEITQQSLSISANEIFRMAAIAFILLTVLVWFAKPPFTAKGVG</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|492|hsp_num:0</t>
+  </si>
+  <si>
+    <t>tetracycline</t>
+  </si>
+  <si>
+    <t>contig00022_59 # 42467 # 43630 # -1 # ID=22_59;partial=00;start_type=GTG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.418</t>
+  </si>
+  <si>
+    <t>contig00022_59</t>
+  </si>
+  <si>
+    <t>emrK</t>
+  </si>
+  <si>
+    <t>ATGGAATTAGAAGACATGATTAGTACAGATGACGCCTATGTCACGGGGAATGCAGATCCAATTTCTGCACAAGTCTCAGGTAGTGTCACTGTCGTTAATCATAAAGATACGAACTACGTTCGACAGGGTGACATTTTAGTTTCACTGGATAAAACTGATGCCACTATCGCACTCAATAAAGCTAAAAATAATCTGGCAAATATTGTTCGGCAAACGAATAAACTGTACTTACAGGATAAACAATACAGTGCCGAAGTCGCTTCAGCACGTATTCAGTATCAACAATCTTTAGAAGATTATAACCGTCGTGTGCCTTTAGCGAAGCAGGGGGTTATTTCAAAAGAAACGCTGGAGCATACCAAAGATACGTTAATAAGTAGCAAAGCGGCATTGAATGCCGCTATCCAGGCTTATAAAGCGAATAAAGCTTTAGTAATGAACACACCATTAAACCGTCAGCCACAAGTCGTTGAAGCTGCGGATGCAACCAAAGAAGCCTGGTTGGCGCTTAAACGTACGGATATTAAGAGTCCGGTTACCGGCTATATTGCCCAGAGAAGTGTTCAGGTCGGCGAAACAGTGAGTCCCGGACAATCGTTAATGGCTGTCGTACCGGCACGTCAAATGTGGGTTAATGCTAACTTTAAAGAAACACAACTCACGGATGTACGGATTGGTCAATCGGTCAATATTATCAGCGATCTTTATGGTGAGAATGTTGTGTTTCATGGCCGGGTGACAGGGATCAATATGGGAACCGGCAATGCGTTCTCCTTATTACCTGCACAAAATGCGACAGGGAACTGGATCAAAATCGTTCAGCGTGTACCGGTTGAAGTTTCTCTTGATCCAAAAGAACTCATGGAACACCCCTTGCGCATTGGTTTATCGATGACTGCAACTATTGATACGAAGAACGAAGACATTGCTGAGATGCCTGAGCTGGCTTCAACCGTGACGTCCATGCCGGCTTATACCAGTAAGGCTTTAGTTATCGATACCAGTCCGATAGAAAAAGAAATTAGCAACATTATTTCGCATAATGGACAACTTTAA</t>
+  </si>
+  <si>
+    <t>MELEDMISTDDAYVTGNADPISAQVSGSVTVVNHKDTNYVRQGDILVSLDKTDATIALNKAKNNLANIVRQTNKLYLQDKQYSAEVASARIQYQQSLEDYNRRVPLAKQGVISKETLEHTKDTLISSKAALNAAIQAYKANKALVMNTPLNRQPQVVEAADATKEAWLALKRTDIKSPVTGYIAQRSVQVGETVSPGQSLMAVVPARQMWVNANFKETQLTDVRIGQSVNIISDLYGENVVFHGRVTGINMGTGNAFSLLPAQNATGNWIKIVQRVPVEVSLDPKELMEHPLRIGLSMTATIDTKNEDIAEMPELASTVTSMPAYTSKALVIDTSPIEKEISNIISHNGQL</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|557|hsp_num:0</t>
+  </si>
+  <si>
+    <t>possible complete gene, reference contained within open reading frame</t>
+  </si>
+  <si>
+    <t>contig00022_60 # 44046 # 44660 # 1 # ID=22_60;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.400</t>
+  </si>
+  <si>
+    <t>contig00022_60</t>
+  </si>
+  <si>
+    <t>evgA</t>
+  </si>
+  <si>
+    <t>macrolide antibiotic; fluoroquinolone antibiotic; penam; tetracycline antibiotic</t>
+  </si>
+  <si>
+    <t>major facilitator superfamily (MFS) antibiotic efflux pump; resistance-nodulation-cell division (RND) antibiotic efflux pump</t>
+  </si>
+  <si>
+    <t>ATGAACGCAATAATTATTGATGACCATCCTCTTGCTATCGCAGCAATTCGTAATTTATTGATCAAAAACGATATTGAAATCTTAGCAGAGTTGACTGAAGGCGGAAGTGCCGTTCAGCGGGTGGAAACACTTAAGCCTGATATCGTCATCATTGATGTCGATATCCCCGGAGTTAACGGTATCCAGGTGTTAGAAACGCTGAGGAAGCGCCAATATAGCGGAATTATTATTATCGTCTCCGCTAAAAATGACCATTTTTACGGGAAACATTGTGCTGATGCTGGCGCTAATGGTTTCGTGAGTAAAAAAGAAGGCATGAACAATATCATTGCGGCTATTGAAGCTGCAAAAAATGGCTACTGCTATTTCCCCTTCTCTCTCAACCGGTTTGTTGGAAGTTTAACGTCCGACCAGCAAAAACTCGACTCCTTATCGAAACAAGAAATTAGTGTCATGCGGTATATTCTTGATGGCAAGGATAATAATGACATTGCTGAAAAAATGTTCATCAGCAACAAAACTGTCAGCACTTATAAAAGTCGCCTGATGGAAAAATTAGAATGTAAATCACTGATGGATCTTTACACATTCGCACAACGTAACAAAATCGGCTAA</t>
+  </si>
+  <si>
+    <t>MNAIIIDDHPLAIAAIRNLLIKNDIEILAELTEGGSAVQRVETLKPDIVIIDVDIPGVNGIQVLETLRKRQYSGIIIIVSAKNDHFYGKHCADAGANGFVSKKEGMNNIIAAIEAAKNGYCYFPFSLNRFVGSLTSDQQKLDSLSKQEISVMRYILDGKDNNDIAEKMFISNKTVSTYKSRLMEKLECKSLMDLYTFAQRNKIG</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|936|hsp_num:0</t>
+  </si>
+  <si>
+    <t>erythromycin; cloxacillin; tetracycline; oxacillin; norfloxacin</t>
+  </si>
+  <si>
+    <t>contig00022_61 # 44665 # 48258 # 1 # ID=22_61;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.410</t>
+  </si>
+  <si>
+    <t>contig00022_61</t>
+  </si>
+  <si>
+    <t>evgS</t>
+  </si>
+  <si>
+    <t>ATGAAGTTTTTACCCTATATTTTTCTTCTCTGTTGTGGTCTTTGGTCGACCATAAGTTTCGCAGACGAAGATTACATCGAATATCGTGGCATCAGTAGTAACAACCGTGTCACACTTGATCCACTACGTCTGAGCAACAAGGAATTACGTTGGTTAGCGAGCAAAAAAAATCTTGTGATTGCAGTACACAAGTCCCAAACGGCTACGTTGTTGCATACCGATTCGCAGCAACGGGTTCGTGGTATTAATGCTGATTATTTAAATCTTTTAAAAAGAGCGTTAAATATCAAATTAACACTCCGGGAATACGCAGATCATCAAAAAGCAATGGACGCGCTGGAAGAAGGTGAAGTCGATATAGTGTTATCACATTTAGTTGCTTCGCCGCCTCTTAATGATGACATTGCTGCAACCAAACCACTGATAATTACCTTTCCGGCGCTGGTCACCACCCTTCACGATTCAATGCGACCGCTTACCTCATCAAAACCAGTAAATATTGCTCGAGTAGCAAATTATCCCCCTGACGAGGTAATTCATCAATCATTTCCAAAAGCAACAATTATCTCTTTTACAAATTTATATCAGGCATTAGCATCCGTCTCAGCCGGACAGAATGATTACTTTATTGGTAGTAACATCATTACCAGCAGTATGATTTCCCGCTATTTCACTCACTCCTTAAATGTAGTGAAATATTATAACTCACCGCGTCAATATAACTTCTTCTTAACCAGAAAAGAATCTGTCATTCTTAATGAAGTACTCAATCGATTTGTTGATGCTTTAACAAATGAAGTTCGCTATGAAGTATCACAAAATTGGCTTGATACAGGAAACCTGGCCTTTCTGAACAAGCCATTAGAACTCACTGAACATGAAAAACAGTGGATTAAGCAGCATCCCGATTTAAAGGTGCTGGAAAATCCTTACTCGCCCCCCTATTCTATGACGGATGAAAATGGCTCGGTTCGGGGCGTTATGGGGGACATTCTTAATATTATTACCTTGCAAACAGGTTTAAATTTTTCTCCGATCACCGTTTCACACAATATCCATGCTGGAACACAGCTGAATCCCGGCGGATGGGATATATTACCCGGTGCTATTTATAGTGAAGATAGAGAAAATAATGTTTTATTTGCTGAAGCCTTCATAACAACGCCTTACGTTTTTGTCATGCAAAAAGCGCCTGACAGTGAACAAACATTAAAAAAAGGAATGAAAGTTGCCATTCCATATTATTATGAGCTTCATTCGCAATTAAAAGAGATGTATCCGGAGGTAGAGTGGATAAAAGTCGATAACGCCAGCGCTGCATTTCACAAGGTCAAGGAAGGCGAACTTGATGCTCTGGTCGCGACACAGTTAAATTCACGTTACATGATCGACCATTACTATCCTAATGAACTGTATCATTTTCTTATTCCCGGCGTTCCGAATGCATCGCTTTCGTTCGCTTTTCCTCGCGGAGAACCGGAACTTAAGGATATTATTAATAAAGCACTGAATGCAATCCCCCCAAGCGAAGTTCTGCGCCTGACCGAAAAATGGATTAAAATGCCCAATGTGACCATTGACACATGGGACCTCTATAGCGAGCAATTTTATATTGTTACGACATTATCCGTTTTATTAGTTGGCAGTAGCCTTTTATGGGGATTCTACCTGTTACGCTCAGTTCGTCGTCGTAAAGTCATTCAGGGTGATTTAGAAAACCAAATATCATTCCGGAAAGCGCTCTCGGACTCCTTACCGAATCCAACTTATGTTGTAAACTGGCAAGGTAATGTCATTAGTCACAATAGTGCATTTGAACATTATTTCACTGCTGATTACTACAAAAATGCAATGTTGCCATTAGAAAACAGTGAATCACCCTTTAAAGATGTTTTTTCTAATACGCATGAAGTCACAGCAGAGACGAAAGAAAACCGAACAATATACACACAGGTATTTGAAATTGATAATGGCATCGAGAAAAGATGCATTAATCACTGGCATACATTATGTAATCTGCCAGCCAGCGAACATGCTGTTTATATTTGTGGTTGGCAAGATATTACCGAGACGCGTGATTTAATTCATGCACTCGAAGTAGAGAGAAATAAAGCGATCAATGCAACTGTCGCAAAAAGTCAGTTTCTGGCAACAATGAGTCACGAAATAAGAACACCAATAAGCTCCATTATGGGCTTCCTGGAACTTCTGTCGGGTTCTGGTCTTAGCAAGGAGCAACGGGTGGAGGCGATTTCACTAGCCTACGCCACCGGACAATCACTCCTCGGCTTAATTGGTGAAATCCTTGATGTCGACAAAATTGAATCGGGTAACTATCAACTTCAACCACAATGGGTCGATATCCCTACTTTAGTCCAGAACACTTGTCACTCTTTCGGTGCGATTGCTGCAAGCAAATCGATCGCATTAAGTTGCAGCAGTACATTTCCTGATCATTACCTGGTTAAGATCGACCCTCAGGCGTTTAAGCAGGTCTTATCAAATTTACTGAGTAATGCTCTCAAATTTACCACCGAGGGGGCAGTAAAAATTACGACCTCCCTGGTTCACATTGATGACAACCACGCTGTAATCAAAATGACGATTATGGATTCTGGAAGTGGATTATCACAGGAAGAACAACAACAACTGTTTAAACGTTATAGCCAAACAAGTGCAGGTCGTCAGCAAACAGGTTCTGGTTTAGGCTTAATGATCTGCAAAGAATTAATTAAAAACATGCAGGGTGATTTGTCATTAGAAAGTCATCCAGGCATAGGAACAACATTTACGATCACAATCCCGGTAGAAATTATCCAACAAGTGGCGGCTGTCGAGGCAAAAGCAGAACAACCCATCACACTACCTGAAAAGTTGAGCATATTAATCGCGGATGATCATCCGACCAACAGGCTATTACTCAAACGCCAGCTAAATCTATTAGGATATGATGTTGATGAAGCCACTGATGGTGTGCAAGCGCTACACAAAGTCAGTATGCAACATTATGATCTGCTTATTACTGACGTTAATATGCCGAATGTGGATGGTTTTGAGTTGACTCGCAAACTCCGTGAGCAAAATTCGTCCTTACCCATCTGGGGGCTTACAGCCAACGCACAGGCTAACGAACGTGAAAAAGGGTTAAATTGCGGCATGAACTTATGTTTGTTCAAACCGTTGACCCTGGATGTACTGAAAACACATTTAAGTCAGTTACACCAGGTTGCGCATATTGTACCTCAGTATCGCCACCTTGATATCGAGGCCCTGAAAAATAATACGGCGAACGATCTACAACTGATGCAGGAGATTCTCATGACTTTCCAGCATGAAACACATAAAGATTTACCCGCTGCGTTTCATGCACTAGAAGCTGGCGATAATAGAACTTTCCATCAGTGTATTCATCGCATCCACGGTGCGGCTAACATCCTGAATTTGCAAAAGTTGATTAATATTAGCCATCAGTTAGAAATAACACCTGTTTCAGATGACAGTAAGCCTGAAATTCTTCAGTTGCTAAACTCTGTAAAAGAACACATTGCAGAGCTAGACCAGGAAATTGCTGTTTTCTGTCAACAAAATAACTAA</t>
+  </si>
+  <si>
+    <t>MKFLPYIFLLCCGLWSTISFADEDYIEYRGISSNNRVTLDPLRLSNKELRWLASKKNLVIAVHKSQTATLLHTDSQQRVRGINADYLNLLKRALNIKLTLREYADHQKAMDALEEGEVDIVLSHLVASPPLNDDIAATKPLIITFPALVTTLHDSMRPLTSSKPVNIARVANYPPDEVIHQSFPKATIISFTNLYQALASVSAGQNDYFIGSNIITSSMISRYFTHSLNVVKYYNSPRQYNFFLTRKESVILNEVLNRFVDALTNEVRYEVSQNWLDTGNLAFLNKPLELTEHEKQWIKQHPDLKVLENPYSPPYSMTDENGSVRGVMGDILNIITLQTGLNFSPITVSHNIHAGTQLNPGGWDILPGAIYSEDRENNVLFAEAFITTPYVFVMQKAPDSEQTLKKGMKVAIPYYYELHSQLKEMYPEVEWIKVDNASAAFHKVKEGELDALVATQLNSRYMIDHYYPNELYHFLIPGVPNASLSFAFPRGEPELKDIINKALNAIPPSEVLRLTEKWIKMPNVTIDTWDLYSEQFYIVTTLSVLLVGSSLLWGFYLLRSVRRRKVIQGDLENQISFRKALSDSLPNPTYVVNWQGNVISHNSAFEHYFTADYYKNAMLPLENSESPFKDVFSNTHEVTAETKENRTIYTQVFEIDNGIEKRCINHWHTLCNLPASEHAVYICGWQDITETRDLIHALEVERNKAINATVAKSQFLATMSHEIRTPISSIMGFLELLSGSGLSKEQRVEAISLAYATGQSLLGLIGEILDVDKIESGNYQLQPQWVDIPTLVQNTCHSFGAIAASKSIALSCSSTFPDHYLVKIDPQAFKQVLSNLLSNALKFTTEGAVKITTSLVHIDDNHAVIKMTIMDSGSGLSQEEQQQLFKRYSQTSAGRQQTGSGLGLMICKELIKNMQGDLSLESHPGIGTTFTITIPVEIIQQVAAVEAKAEQPITLPEKLSILIADDHPTNRLLLKRQLNLLGYDVDEATDGVQALHKVSMQHYDLLITDVNMPNVDGFELTRKLREQNSSLPIWGLTANAQANEREKGLNCGMNLCLFKPLTLDVLKTHLSQLHQVAHIVPQYRHLDIEALKNNTANDLQLMQEILMTFQHETHKDLPAAFHALEAGDNRTFHQCIHRIHGAANILNLQKLINISHQLEITPVSDDSKPEILQLLNSVKEHIAELDQEIAVFCQQNN</t>
+  </si>
+  <si>
+    <t>MKFLPYIFLLCCGLWSTISFADEDYIEYRGISSNNRVTLDPLRLSNKELRWLASKKNLVIAVHKSQTATLLHTDSQQRVRGINADYLNLLKRALNIKLTLREYADHQKAMDALAEGEVDIVLSHLVTSPPLNNDIAATKPLIITFPALVTTLHDSMRPLTSPKPVNIARVANYPPDEVIHQSFPKATIISFTNLYQALASVSAGHNDYFIGSNIITSSMISRYFTHSLNVVKYYNSPRQYNFFLTRKESVILNEVLNRFVDALTNEVRYEVSQNWLDTGNLAFLNKPLELTEHEKQWIKQHPNLKVLENPYSPPYSMTDENGSVRGVMGDILNIITLQTGLNFSPITVSHNIHAGTQLSPGGWDIIPGAIYSEDRENNVLFAEAFITTPYVFVMQKAPDSEQTLKKGMKVAIPYYYELHSQLKEMYPEVEWIQVDNASAAFHKVKEGELDALVATQLNSRYMIDHYYPNELYHFLIPGVPNASLSFAFPRGEPELKDIINKALNAIPPSEVLRLTEKWIKMPNVTIDTWDLYSEQFYIVTTLSVLLVGSSLLWGFYLLRSVRRRKVIQGDLENQISFRKALSDSLPNPTYVVNWQGNVISHNSAFEHYFTADYYKNAMLPLENSDSPFKDVFSNAHEVTAETKENRTIYTQVFEIDNGIEKRCINHWHTLCNLPASDNAVYICGWQDITETRDLINALEVEKNKAIKATVAKSQFLATMSHEIRTPISSIMGFLELLSGSGLSKEQRVEAISLAYATGQSLLGLIGEILDVDKIESGNYQLQPQWVDIPTLVQNTCHSFGAIAASKSIALSCSSTFPEHYLVKIDPQAFKQVLSNLLSNALKFTTEGAVKITTSLGHIDDNHAVIKMTIMDSGSGLSQEEQQQLFKRYSQTSAGRQQTGSGLGLMICKELIKNMQGDLSLESHPGIGTTFTITIPVEISQQVATVEAKAEQPITLPEKLSILIADDHPTNRLLLKRQLNLLGYDVDEATDGVQALHKVSMQHYDLLITDVNMPNMDGFELTRKLREQNSSLPIWGLTANAQANEREKGLSCGMNLCLFKPLTLDVLKTHLSQLHQVAHIAPQYRHLDIEALKNNTANDLQLMQEILMTFQHETHKDLPAAFQALEAGDNRTFHQCIHRIHGAANILNLQKLINISHQLEITPVSDDSKPEILQLLNSVKEHIAELDQEIAVFCQKND</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1214|hsp_num:0</t>
+  </si>
+  <si>
+    <t>contig00024_20 # 16506 # 16889 # -1 # ID=24_20;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.456</t>
+  </si>
+  <si>
+    <t>contig00024_20</t>
+  </si>
+  <si>
+    <t>marA</t>
+  </si>
+  <si>
+    <t>fluoroquinolone antibiotic; monobactam; carbapenem; cephalosporin; glycylcycline; cephamycin; penam; tetracycline antibiotic; rifamycin antibiotic; phenicol antibiotic; penem; disinfecting agents and antiseptics</t>
+  </si>
+  <si>
+    <t>antibiotic efflux; reduced permeability to antibiotic</t>
+  </si>
+  <si>
+    <t>resistance-nodulation-cell division (RND) antibiotic efflux pump; General Bacterial Porin with reduced permeability to beta-lactams</t>
+  </si>
+  <si>
+    <t>ATGTCCAGACGCAATACTGACGCTATTACCATTCATAGCATTTTGGACTGGATCGAGGACAACCTGGAATCACCACTGTCACTGGAGAAAGTGTCAGAGCGTTCGGGTTACTCTAAATGGCACCTGCAACGGATGTTTAAAAAAGAAACCGGTCATTCATTAGGCCAATACATCCGCAGCCGTAAGATGACGGAAATCGCGCAAAAGCTGAAGGAAAGTAACGAGCCGATACTCTATCTGGCAGAACGATATGGCTTCGAGTCGCAACAAACTCTGACCCGAACCTTCAAAAATTACTTTGATGTTCCGCCGCATAAATACCGGATGACCAATATGCAGGGCGAATCGCGCTTTTTACATCCATTAAACCATTACAACAGCTAG</t>
+  </si>
+  <si>
+    <t>MSRRNTDAITIHSILDWIEDNLESPLSLEKVSERSGYSKWHLQRMFKKETGHSLGQYIRSRKMTEIAQKLKESNEPILYLAERYGFESQQTLTRTFKNYFDVPPHKYRMTNMQGESRFLHPLNHYNS</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1771|hsp_num:0</t>
+  </si>
+  <si>
+    <t>contig00025_54 # 54204 # 55856 # -1 # ID=25_54;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.509</t>
+  </si>
+  <si>
+    <t>contig00025_54</t>
+  </si>
+  <si>
+    <t>ArnT</t>
+  </si>
+  <si>
+    <t>ATGAAATCGGTACGTTACCTTATCGGCCTCTTCGCGTTTATTGCCTGCTATTACCTGTTACCGATCAGCACGCGTCTGCTATGGCAACCCGATGAAACGCGTTATGCGGAAATCAGTCGAGAAATGCTGGCATCCGGCGACTGGATTGTGCCCCATCTGTTAGGGCTACGTTATTTTGAAAAACCCATTGCCGGATACTGGATTAACAGCATTGGGCAATGGCTATTTGGCGCGAATAACTTTGGTGTGCGGGCAGGCGTTATCTTTGCGACCCTGTTAACTGCCGCGCTGGTGACCTGGTTTACTCTGCGCTTATGGCGCGATAAACGTCTGGCTCTACTCGCCACAGTAATTTATCTCTCATTGTTTATTGTCTATGCCATCGGCACTTATGCCGTGCTCGATCCGTTTATTGCCTTCTGGCTGGTGGCGGGAATGTGCAGCTTCTGGCTGGCAATGCAGGCACAGACGTGGAAAGGCAAAAGCGCAGGATTTTTACTGCTGGGAATCACCTGCGGCATGGGGGTGATGACCAAAGGTTTTCTCGCCCTTGCCGTGCCGGTATTAAGCGTGCTGCCATGGGTAGCGACGCAAAAACGCTGGAAAGATCTCTTTATTTACGGCTGGCTGGCGGTCATCAGTTGCGTACTGACGGTTCTCCCCTGGGGACTGACGATAGCGCAGCGGGAGCCTGACTTCTGGCACTATTTTTTCTGGGTTGAGCATATTCAACGCTTTGCACTGGATGATGCCCAACATAGAGCTCCGTTCTGGTACTACGTGCCGGTCATCATTGCCGGTAGTCTGCCGTGGCTGGGATTACTCCCCGGTGCACTATACACAGGCTGGAAAAACCGCAAGCATTCCGCAACCGTCTATTTGTTGAGCTGGACGATAATGCCGCTGCTGTTTTTCTCCGTTGCTAAGGGTAAATTGCCCACCTATATTCTTTCCTGCTTTGCACCTTTGGCAATGCTGATGGCGCATTACGCTTTGCTGGCAGCAAAAAATAATCCTCTGGCGCTGCGGATTAATGGCTGGATTAACATCGCTTTTGGCGTCACTGGCATTATTGCCACATTTGTGGTCTCCCCCTGGGGACCAATGAACACGCCGGTGTGGCAAACCTTCGAGAGCTATAAAGTCTTTTGTGCCTGGTCGATTTTTTCGCTATGGGCATTTTTCGGCTGGTACACCTTAACAAACGTCGAAAAGACCTGGTCTTTTGCCGCGCTTTGCCCGCTGGGGCTGGCGTTGCTGGTAGGATTTTCAATTCCTGACAGAGTCATGGAAGGAAAACATCCGCAATTTTTTGTCGAGATGACACAAGAATCACTTCAGCCAAGCCGCTATATTCTTACTGATAGCGTCGGTGTTGCCGCAGGTCTGGCATGGAGTCTGCAACGCGATGACATCATCATGTATCGCCAGACAGGTGAGTTGAAATACGGCCTTAATTATCCGGATGCGAAAGGGAGATTTGTCAGCGGTGATGAGTTCGCAAACTGGCTTAATCAACATCGTCAGGAGGGGATTATTACACTCGTGCTTTCGGTTGACCGCGATGAAGATATCAACAGTCTCGCCATTCCGCCCGCAGATGCCATCGATCGTCAGGAGCGTCTGGTGCTGATTCAGTATCGTCCCAAATGA</t>
+  </si>
+  <si>
+    <t>MKSVRYLIGLFAFIACYYLLPISTRLLWQPDETRYAEISREMLASGDWIVPHLLGLRYFEKPIAGYWINSIGQWLFGANNFGVRAGVIFATLLTAALVTWFTLRLWRDKRLALLATVIYLSLFIVYAIGTYAVLDPFIAFWLVAGMCSFWLAMQAQTWKGKSAGFLLLGITCGMGVMTKGFLALAVPVLSVLPWVATQKRWKDLFIYGWLAVISCVLTVLPWGLTIAQREPDFWHYFFWVEHIQRFALDDAQHRAPFWYYVPVIIAGSLPWLGLLPGALYTGWKNRKHSATVYLLSWTIMPLLFFSVAKGKLPTYILSCFAPLAMLMAHYALLAAKNNPLALRINGWINIAFGVTGIIATFVVSPWGPMNTPVWQTFESYKVFCAWSIFSLWAFFGWYTLTNVEKTWSFAALCPLGLALLVGFSIPDRVMEGKHPQFFVEMTQESLQPSRYILTDSVGVAAGLAWSLQRDDIIMYRQTGELKYGLNYPDAKGRFVSGDEFANWLNQHRQEGIITLVLSVDRDEDINSLAIPPADAIDRQERLVLIQYRPK</t>
+  </si>
+  <si>
+    <t>MKSIRYGVSLIALFALYYLLPLNFRLLWQPDETRYAEISREMLATGDWVVPHFLGLRYFEKPIAGYWINSIGQWLFGHNNFGVRFGSVFAITMTALLVAWLAWRIFRDKRVAILSLIIFLTAMLVYAIGTYAVLDPMITLWLALAMCSFWGAVQAHSRSGKILGYVLLGVACGMGVMTKGFLALAVPVVGVLPWVIARKRWREVLTYGWLAVIVCTLVVLPWGLAIAQREPDFWRYFFWVEHIQRFAEKDAQHKAPFWYYIPFLIAGSLPWLALLPGALKRGWLERDEARGALYLLGWVAMPFLFFSIAKGKLPTYILPCFAPLSILMARYALEAAKTGAKALRINGMINLGVGLLGLIAVLVVSPWGFMHKPVWTKIELYKCLLAAIAFAVWALMGWLAMKDSGRRWSLAALCPLGLALLVGFAIPDRVIDSKQPQFLVDIVSESLQPSRYVLTNNVGIAGGLAWELKRSDIIMFDKQGELKYGLDWPDAQGSFVSQAGFADWLAAHRQQGPVSLVLLMDKGESMLDLPLPKPDNAYELGRVVFLQYLPQ</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2779|hsp_num:0</t>
+  </si>
+  <si>
+    <t>colistin A; colistin B</t>
+  </si>
+  <si>
+    <t>contig00025_57 # 58725 # 59693 # -1 # ID=25_57;partial=00;start_type=ATG;rbs_motif=AGGA;rbs_spacer=5-10bp;gc_cont=0.502</t>
+  </si>
+  <si>
+    <t>contig00025_57</t>
+  </si>
+  <si>
+    <t>PmrF</t>
+  </si>
+  <si>
+    <t>ATGTTTGAAATCCACCCTGTTAAGAAAGTCTCGGTGGTTATTCCCGTTTATAACGAGCAGGAAAGCTTACCGGAATTAATCAGGCGCACCACCACAGCCTGTGAATCGTTGGGGAAAGAGTATGAGATCCTGCTGATTGATGACGGCAGTAGCGATAATTCCGCGCATATACTGGTCGAAGCCTCACAAGCGGAGAACAGCCATATTGTATCTATTTTGCTTAACCGCAATTACGGGCAACATTCAGCGATTATGGCGGGATTCAGTCACGTTACTGGCGACTTAATTATTACCCTTGATGCCGATCTCCAGAATCCGCCAGAAGAAATCCCCCGCCTGGTGGCAAAAGCCGATGAAGGTTACGACGTGGTAGGGACTGTACGCCAGAACCGCCAGGACAGCTGGTTTCGTAAAACAGCTTCGAAGATGATTAACCGGCTTATTCAGCGCACCACCGGCAAAGCGATGGGTGACTACGGTTGTATGCTGCGCGCCTATCGCCGTCATATTGTCGATGCGATGTTGCACTGCCATGAACGCAGCACCTTTATCCCGATTCTGGCGAATATCTTCGCCCGCCGTGCCATTGAAATTCCAGTGCATCATGCCGAGCGTGAGTATGGTGAATCCAAATACAGCTTTATGCGCCTGATTAATTTGATGTACGACCTGGTGACCTGCCTTACCACAACGCCGCTACGTATGCTGAGTCTGCTCGGCAGCATTATTGCGATTGGAGGTTTTAGCATTGCGGTGCTGCTGGTGATTTTACGCCTGACCTTCGGACCACAATGGGCGGCAGAAGGCGTCTTTATGCTATTTGCCGTGCTGTTTACTTTTATTGGCGCTCAGTTTATCGGCATGGGATTACTCGGTGAATATATCGGCAGGATCTACACCGATGTCCGCGCCCGCCCCCGCTATTTTGTTCAGCAAGTTATCCGTCCATCCAGCAAGGAAAATGAATAA</t>
+  </si>
+  <si>
+    <t>MFEIHPVKKVSVVIPVYNEQESLPELIRRTTTACESLGKEYEILLIDDGSSDNSAHILVEASQAENSHIVSILLNRNYGQHSAIMAGFSHVTGDLIITLDADLQNPPEEIPRLVAKADEGYDVVGTVRQNRQDSWFRKTASKMINRLIQRTTGKAMGDYGCMLRAYRRHIVDAMLHCHERSTFIPILANIFARRAIEIPVHHAEREYGESKYSFMRLINLMYDLVTCLTTTPLRMLSLLGSIIAIGGFSIAVLLVILRLTFGPQWAAEGVFMLFAVLFTFIGAQFIGMGLLGEYIGRIYTDVRARPRYFVQQVIRPSSKENE</t>
+  </si>
+  <si>
+    <t>MFEIHPVKKVSVVIPVYNEQESLPELIRRTTTACESLGKEYEILLIDDGSSDNSAHMLVEASQAENSHIVSILLNRNYGQHSAIMAGFSHVTGDLIITLDADLQNPPEEIPRLVAKADEGYDVVGTVRQNRQDSWFRKTASKMINRLIQRTTGKAMGDYGCMLRAYRRHIVDAMLHCHERSTFIPILANIFARRAIEIPVHHAEREFGESKYSFMRLINLMYDLVTCLTTTPLRMLSLLGSIIAIGGFSIAVLLVILRLTFGPQWAAEGVFMLFAVLFTFIGAQFIGMGLLGEYIGRIYTDVRARPRYFVQQVIRPSSKENE</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1936|hsp_num:0</t>
+  </si>
+  <si>
+    <t>contig00030_22 # 18893 # 19222 # -1 # ID=30_22;partial=00;start_type=ATG;rbs_motif=GGAGG;rbs_spacer=5-10bp;gc_cont=0.518</t>
+  </si>
+  <si>
+    <t>contig00030_22</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae KpnF</t>
+  </si>
+  <si>
+    <t>macrolide antibiotic; aminoglycoside antibiotic; cephalosporin; tetracycline antibiotic; peptide antibiotic; rifamycin antibiotic; disinfecting agents and antiseptics</t>
+  </si>
+  <si>
+    <t>small multidrug resistance (SMR) antibiotic efflux pump</t>
+  </si>
+  <si>
+    <t>ATGGCGCAGTTTGAATGGGTTCACGCCGCCTGGCTGGCATTGGCAATCGTGCTGGAAATCGTTGCTAACGTCTTTTTGAAATTTTCTGACGGCTTTCGTCGCAAAATATTTGGCTTGCTCTCCCTGGCGGCGGTGCTGGCTGCCTTTAGTGCGCTTTCTCAGGCCGTTAAAGGGATCGACTTGTCTGTCGCTTATGCATTGTGGGGCGGGTTTGGTATTGCCGCCACGTTAGCCGCAGGTTGGATCTTGTTTGGTCAACGGTTAAATCGTAAAGGCTGGATTGGCCTGGTCTTGCTGTTGGCTGGAATGATCATGGTGAAACTTGCCTGA</t>
+  </si>
+  <si>
+    <t>MAQFEWVHAAWLALAIVLEIVANVFLKFSDGFRRKIFGLLSLAAVLAAFSALSQAVKGIDLSVAYALWGGFGIAATLAAGWILFGQRLNRKGWIGLVLLLAGMIMVKLA</t>
+  </si>
+  <si>
+    <t>MQQFEWIHAAWLAIAIVLEIIANVFLKFSDGFRRKIYGILSLAAVLGAFSALSQAVKGIDLSVAYALWGGFGIAATIAAGWVLFGQRLNNKGWAGVILLVAGMVLIKLA</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2717|hsp_num:0</t>
+  </si>
+  <si>
+    <t>erythromycin; streptomycin; tetracycline; cefepime; ceftriaxone; rifampin; colistin A; colistin B; triclosan; benzalkonium chloride; chlorhexidine</t>
+  </si>
+  <si>
+    <t>contig00030_23 # 19209 # 19574 # -1 # ID=30_23;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.421</t>
+  </si>
+  <si>
+    <t>contig00030_23</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae KpnE</t>
+  </si>
+  <si>
+    <t>ATGTATATTTATTGGATTTTATTAGGTCTGGCTATTGCTACAGAAATTACCGGTACGCTGTCTATGAAATGGGCGAGCGTCAGTGAGGGAAATGGCGGCTTTATTTTAATGCTGGTGATGATTTCTCTGTCGTATATATTTCTCTCTTTCGCTGTTAAAAAAATAGCCTTAGGTGTGGCTTATGCGCTGTGGGAAGGTATCGGTATTTTATTTATTACCTTGTTTAGCGTTTTGTTATTCGACGAAAGTTTATCGCTGATGAAAATTGCCGGGTTAACCACCCTGGTCGCCGGGATAGTGTTGATCAAATCAGGTACCCGTAAAGCACGTAAACCTGAACTGGAGGTGAACCATGGCGCAGTTTGA</t>
+  </si>
+  <si>
+    <t>MYIYWILLGLAIATEITGTLSMKWASVSEGNGGFILMLVMISLSYIFLSFAVKKIALGVAYALWEGIGILFITLFSVLLFDESLSLMKIAGLTTLVAGIVLIKSGTRKARKPELEVNHGAV</t>
+  </si>
+  <si>
+    <t>MFYWILLALAIIAEITGTLSMKWASVSGGHTGFILMLAMIALSYIFLAFAVKKIALGVAYALWEGIGILLITLFSVLLFDESLSLLKIAGLTTLVIGIVLIKSGTQKKASSQQEVAHAAV</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2715|hsp_num:0</t>
+  </si>
+  <si>
+    <t>contig00031_39 # 43057 # 43587 # 1 # ID=31_39;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.492</t>
+  </si>
+  <si>
+    <t>contig00031_39</t>
+  </si>
+  <si>
+    <t>emrR</t>
+  </si>
+  <si>
+    <t>ATGGATAGTTCGTTTACGCCCATTGAACAAATGCTAAAATTTCGCGCCAGCCGCCACGAAGATTTTCCTTATCAGGAGATCCTTCTGACTCGTCTTTGCATGCATATGCAAAGCAAGCTGCTGGAGAACCGCAATAAAATGCTGAAGGCTCAGGGGATTAACGAGACGTTGTTTATGGCGTTGATTACGCTGGAGTCTCAGGAAAACCACAGTATTCAGCCTTCTGAATTAAGTTGTGCTCTTGGATCATCCCGTACCAACGCGACGCGTATTGCCGATGAACTGGAAAAACGCGGTTGGATCGAACGTCGTGAAAGCGATAACGATCGCCGCTGCCTGCATCTGCAATTAACGGAAAAAGGTCACGAGTTTTTGCGCGAGGTTTTACCACCGCAGCATAACTGCCTGCATCAACTCTGGTCCGCGCTCAGCACAACAGAAAAAGACCAGCTCGAGCAAATCACCCGCAAATTGCTCTCCCGTCTCGACCAGATGGAACAAGACGGTGTGGTTCTCGAAGCGATGAGCTAA</t>
+  </si>
+  <si>
+    <t>MDSSFTPIEQMLKFRASRHEDFPYQEILLTRLCMHMQSKLLENRNKMLKAQGINETLFMALITLESQENHSIQPSELSCALGSSRTNATRIADELEKRGWIERRESDNDRRCLHLQLTEKGHEFLREVLPPQHNCLHQLWSALSTTEKDQLEQITRKLLSRLDQMEQDGVVLEAMS</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1225|hsp_num:0</t>
+  </si>
+  <si>
+    <t>nalidixic acid</t>
+  </si>
+  <si>
+    <t>contig00031_40 # 43714 # 44886 # 1 # ID=31_40;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.534</t>
+  </si>
+  <si>
+    <t>contig00031_40</t>
+  </si>
+  <si>
+    <t>emrA</t>
+  </si>
+  <si>
+    <t>ATGAGCGCAAATGCGGAGACTCAAACCCCGCAGCAACCGGTAAAGAAGAGCGGCAAACGTAAGCGTCTGCTCCTCCTTCTCACCTTGCTCTTTATAATTATTGCCGTAGCGATAGGGATTTATTGGTTTTTGGTACTGCGTCACTTCGAAGAAACCGATGACGCATACGTGGCAGGGAATCAAATTCAAATTATGTCTCAGGTGTCTGGCAGCGTGACGAAAGTCTGGGCCGATAACACCGATTTTGTAAAAGAAGGCGACGTGCTGGTCACTCTCGACCCGACAGATGCTCGCCAGGCGTTTGAAAAAGCCAAAACTGCACTGGCTTCCAGCGTTCGCCAAACCCACCAGCAGATGATTAACAGCAAGCAGTTGCAGGCGAATATTGAGGTGCAAAAAATCGCCCTCGCGAAAGCACAAAGCGACTACAACCGCCGTGTGCCGCTGGGCAATGCCAACCTGATTGGTCGCGAAGAGCTGCAACACGCCCGCGACGCCGTTACCAGTGCCCAGGCGCAACTGGACGTCGCGATTCAACAATACAATGCCAATCAGGCGATGATTCTGGGGACTAAACTGGAAGATCAGCCTGCCGTGCAACAGGCTGCCACCGAAGTACGTAACGCCTGGCTGGCGCTGGAGCGTACTCGTATTGTCAGTCCGATGACCGGTTATGTCTCCCGCCGCGCGGTACAGCCTGGGGCGCAAATTAGCCCAACGACGCCGCTGATGGCGGTCGTTCCAGCCACCAATATGTGGGTGGATGCCAACTTTAAAGAGACGCAGATTGCCAATATGCGTATCGGTCAGCCGGTCACTATCACCACCGATATTTACGGCGATGATGTGAAATACACCGGTAAAGTGGTTGGTCTGGATATGGGCACAGGTAGCGCGTTCTCACTGCTTCCGGCGCAAAATGCGACCGGTAACTGGATCAAAGTCGTTCAGCGTCTGCCTGTGCGTATCGAACTGGACCAGAAACAGCTGGAGCAATACCCGCTGCGTATCGGTTTATCCACGCTGGTGAGCGTCAATACCACTAACCGTGACGGTCAGGTACTGGCAAATAAAGTACGTTCCACTCCGGTAGCGGTAAGCACCGCGCGTGAAATCAGCCTGGCACCTGTCAATAAACTGATCGACGATATCGTAAAAGCTAACGCTGGCTAA</t>
+  </si>
+  <si>
+    <t>MSANAETQTPQQPVKKSGKRKRLLLLLTLLFIIIAVAIGIYWFLVLRHFEETDDAYVAGNQIQIMSQVSGSVTKVWADNTDFVKEGDVLVTLDPTDARQAFEKAKTALASSVRQTHQQMINSKQLQANIEVQKIALAKAQSDYNRRVPLGNANLIGREELQHARDAVTSAQAQLDVAIQQYNANQAMILGTKLEDQPAVQQAATEVRNAWLALERTRIVSPMTGYVSRRAVQPGAQISPTTPLMAVVPATNMWVDANFKETQIANMRIGQPVTITTDIYGDDVKYTGKVVGLDMGTGSAFSLLPAQNATGNWIKVVQRLPVRIELDQKQLEQYPLRIGLSTLVSVNTTNRDGQVLANKVRSTPVAVSTAREISLAPVNKLIDDIVKANAG</t>
+  </si>
+  <si>
+    <t>MSANAETQTPQQPVKKSGKRKRLLLLLTLLFIIIAVAIGIYWFLVLRHFEETDDAYVAGNQIQIMSQVSGSVTKVWADNTDFVKEGDVLVTLDPTDARQAFEKAKTALASSVRQTHQLMINSKQLQANIEVQKIALAKAQSDYNRRVPLGNANLIGREELQHARDAVTSAQAQLDVAIQQYNANQAMILGTKLEDQPAVQQAATEVRNAWLALERTRIISPMTGYVSRRAVQPGAQISPTTPLMAVVPATNMWVDANFKETQIANMRIGQPVTITTDIYGDDVKYTGKVVGLDMGTGSAFSLLPAQNATGNWIKVVQRLPVRIELDQKQLEQYPLRIGLSTLVSVNTTNRDGQVLANKVRSTPVAVSTAREISLAPVNKLIDDIVKANAG</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1609|hsp_num:0</t>
+  </si>
+  <si>
+    <t>contig00031_41 # 44903 # 46441 # 1 # ID=31_41;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.562</t>
+  </si>
+  <si>
+    <t>contig00031_41</t>
+  </si>
+  <si>
+    <t>emrB</t>
+  </si>
+  <si>
+    <t>ATGCAACAGCAAAAACCGCTGGAAGGCGCGCAACTGGTCATTATGACGATTGCGCTGTCACTAGCGACATTCATGCAGGTGCTGGACTCCACCATTGCTAACGTGGCGATCCCCACTATCGCCGGGAATCTTGGCTCATCGCTCAGCCAGGGAACGTGGGTAATCACTTCTTTCGGGGTGGCGAATGCCATCTCGATCCCGCTTACCGGCTGGCTGGCAAAGCGCGTCGGGGAAGTGAAACTGTTCCTCTGGTCAACCATCGCCTTTGCTATTGCGTCGTGGGCGTGTGGTGTCTCCAGCAGCCTGAATATGCTGATCTTCTTCCGCGTGATTCAGGGGATTGTCGCCGGGCCGTTGATCCCGCTTTCGCAAAGTCTATTGCTGAATAATTACCCGCCAGCCAAACGCTCAATCGCGCTGGCGTTGTGGTCGATGACGGTGATTGTCGCGCCAATTTGCGGCCCAATCCTCGGCGGATATATCAGCGATAATTACCACTGGGGCTGGATATTCTTCATCAACGTGCCGATTGGCGTGGCGGTGGTGTTGATGACACTGCAAACTCTGCGCGGACGTGAAACCCGCACCGAACGGCGGCGGATTGATGCCGTGGGGCTGGCACTGCTGGTTATTGGTATCGGCAGCCTGCAGATTATGCTCGACCGCGGTAAAGAGCTGGACTGGTTTTCATCACAGGAAATTATCATCCTTACCGTGGTGGCGGTGGTGGCTATCTGCTTCCTGATCGTCTGGGAGCTGACCGACGATAACCCGATAGTCGATCTGTCGTTGTTTAAGTCGCGCAACTTCACCATCGGCTGTTTGTGTATCAGCCTCGCGTATATGCTCTACTTCGGCGCGATTGTTCTGCTGCCGCAGTTGTTGCAGGAGGTCTACGGTTACACGGCGACCTGGGCAGGTTTGGCCTCTGCGCCGGTAGGGATTATTCCAGTGATCCTGTCGCCGATTATCGGCCGCTTCGCGCATAAACTGGATATGCGCCGACTGGTAACCTTCAGCTTTATTATGTATGCCGTCTGCTTCTACTGGCGTGCCTATACCTTTGAACCAGGTATGGATTTTGGCGCGTCGGCCTGGCCGCAGTTTATCCAGGGGTTTGCGGTGGCCTGCTTCTTTATGCCGCTGACCACCATTACGCTGTCTGGTTTGCCACCGGAACGACTGGCGGCGGCATCGAGCCTCTCCAACTTTACGCGTACGCTGGCGGGGTCTATCGGCACGTCGATAACCACAACCATGTGGACCAACCGCGAGTCGATGCACCATGCGCAGTTGACTGAGTCGGTAAACCCGTTCAACCCGAATGCCCAGGCGATGTACAGTCAACTGGAAGGGCTTGGGATGACACAACAGCAGGCATCAGGCTGGATTGCCCAGCAGATCACCAATCAGGGGCTGATTATTTCCGCCAATGAGATCTTCTGGATGTCGGCCGGGATATTCCTCGTCTTGCTGGGGCTGGTGTGGTTTGCTAAACCGCCCTTTGGCGCAGGTGGCGGCGGAGGCGGTGCGCACTAA</t>
+  </si>
+  <si>
+    <t>MQQQKPLEGAQLVIMTIALSLATFMQVLDSTIANVAIPTIAGNLGSSLSQGTWVITSFGVANAISIPLTGWLAKRVGEVKLFLWSTIAFAIASWACGVSSSLNMLIFFRVIQGIVAGPLIPLSQSLLLNNYPPAKRSIALALWSMTVIVAPICGPILGGYISDNYHWGWIFFINVPIGVAVVLMTLQTLRGRETRTERRRIDAVGLALLVIGIGSLQIMLDRGKELDWFSSQEIIILTVVAVVAICFLIVWELTDDNPIVDLSLFKSRNFTIGCLCISLAYMLYFGAIVLLPQLLQEVYGYTATWAGLASAPVGIIPVILSPIIGRFAHKLDMRRLVTFSFIMYAVCFYWRAYTFEPGMDFGASAWPQFIQGFAVACFFMPLTTITLSGLPPERLAAASSLSNFTRTLAGSIGTSITTTMWTNRESMHHAQLTESVNPFNPNAQAMYSQLEGLGMTQQQASGWIAQQITNQGLIISANEIFWMSAGIFLVLLGLVWFAKPPFGAGGGGGGAH</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1705|hsp_num:0</t>
+  </si>
+  <si>
+    <t>contig00036_20 # 21791 # 22204 # -1 # ID=36_20;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.476</t>
+  </si>
+  <si>
+    <t>contig00036_20</t>
+  </si>
+  <si>
+    <t>H-NS</t>
+  </si>
+  <si>
+    <t>macrolide antibiotic; fluoroquinolone antibiotic; cephalosporin; cephamycin; penam; tetracycline antibiotic</t>
+  </si>
+  <si>
+    <t>ATGAGCGAAGCACTTAAAATTCTGAACAACATCCGTACTCTTCGTGCGCAGGCAAGAGAATGTACACTTGAAACGCTGGAAGAAATGCTGGAAAAATTAGAAGTTGTTGTTAACGAACGTCGCGAAGAAGAAAGCGCGGCTGCTGCTGAAGTTGAAGAGCGCACTCGTAAACTGCAGCAATATCGCGAAATGCTGATCGCTGACGGTATTGACCCGAACGAGCTGCTGAATAGCCTTGCCGCCGTTAAATCTGGCACCAAAGCTAAACGTGCTCAGCGTCCGGCAAAATATAGCTACGTTGACGAAAACGGCGAAACTAAAACCTGGACTGGCCAGGGCCGTACTCCAGCTGTAATCAAAAAAGCAATGGATGAGCAAGGTAAATCCCTCGACGATTTCCTGATCAAGCAATAA</t>
+  </si>
+  <si>
+    <t>MSEALKILNNIRTLRAQARECTLETLEEMLEKLEVVVNERREEESAAAAEVEERTRKLQQYREMLIADGIDPNELLNSLAAVKSGTKAKRAQRPAKYSYVDENGETKTWTGQGRTPAVIKKAMDEQGKSLDDFLIKQ</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1144|hsp_num:0</t>
+  </si>
+  <si>
+    <t>erythromycin; cloxacillin; ciprofloxacin; tetracycline; oxacillin; norfloxacin</t>
+  </si>
+  <si>
+    <t>contig00046_7 # 7913 # 8590 # 1 # ID=46_7;partial=00;start_type=GTG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.566</t>
+  </si>
+  <si>
+    <t>contig00046_7</t>
+  </si>
+  <si>
+    <t>kdpE</t>
+  </si>
+  <si>
+    <t>kdpDE</t>
+  </si>
+  <si>
+    <t>GTGACAAACGTTCTGATTGTTGAAGATGAACAGGCTATTCGTCGCTTTCTGCGCACGGCGCTGGAGGGCGACGGGATGCGCGTCTATGAGGCCGAAACGCTGCAACGCGGCTTGCTGGAAGCGGCTACCCGTAAGCCAGATTTGATTATTCTCGATCTCGGCCTGCCCGATGGTGATGGGATTGAGTTTATCCGCGACCTGCGCCAGTGGAGCGCGGTGCCGGTGATTGTGCTTTCCGCACGCAGCGAAGAGAGCGACAAAATCGCCGCGCTGGATGCCGGAGCGGATGATTATCTAAGTAAGCCGTTTGGCATTGGCGAATTGCAGGCCCGTCTGCGCGTCGCTTTACGCCGCCACTCCGCCACCGCCGCGCCCGATCCGCTGGTGAAATTTTCCGATGTTACCGTCGATTTAGCCGCCCGCGTGATTCACCGGGGTGAGGAAGAGGTGCATCTCACCCCGATTGAGTTTCGCCTGCTGGCAGTGCTGCTCAACAACGCCGGAAAAGTGCTCACCCAGCGCCAACTCCTTAACCAGGTGTGGGGGCCAAACGCGGTCGAACACAGTCATTATTTGCGTATTTATATGGGACATCTGCGACAAAAACTGGAACAGGATCCCGCTCGCCCCAGCCATTTCATTACTGAAACCGGTATTGGTTATCGGTTTATGCTTTGA</t>
+  </si>
+  <si>
+    <t>MTNVLIVEDEQAIRRFLRTALEGDGMRVYEAETLQRGLLEAATRKPDLIILDLGLPDGDGIEFIRDLRQWSAVPVIVLSARSEESDKIAALDAGADDYLSKPFGIGELQARLRVALRRHSATAAPDPLVKFSDVTVDLAARVIHRGEEEVHLTPIEFRLLAVLLNNAGKVLTQRQLLNQVWGPNAVEHSHYLRIYMGHLRQKLEQDPARPSHFITETGIGYRFML</t>
+  </si>
+  <si>
+    <t>MTNVLIVEDEQAIRRFLRTALEGDGMRVFEAETLQRGLLEAATRKPDLIILDLGLPDGDGIEFIRDLRQWSAVPVIVLSARSEESDKIAALDAGADDYLSKPFGIGELQARLRVALRRHSATTAPDPLVKFSDVTVDLAARVIHRGEEEVHLTPIEFRLLAVLLNNAGKVLTQRQLLNQVWGPNAVEHSHYLRIYMGHLRQKLEQDPARPRHFITETGIGYRFML</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2101|hsp_num:0</t>
+  </si>
+  <si>
+    <t>kanamycin A</t>
+  </si>
+  <si>
+    <t>contig00364_1 # 2 # 220 # 1 # ID=364_1;partial=11;start_type=Edge;rbs_motif=None;rbs_spacer=None;gc_cont=0.393</t>
+  </si>
+  <si>
+    <t>contig00364_1</t>
+  </si>
+  <si>
+    <t>qacJ</t>
+  </si>
+  <si>
+    <t>disinfecting agents and antiseptics</t>
+  </si>
+  <si>
+    <t>ATGAACCCTTATATTTATCTTGGTGGTGCAATACTTGCAGAGGTCATTGGTACAACCTTAATGAAGTTTTCAGAAGGTTTTACACGGTTATGGCCATCTGTTGGTACAATTATTTGTTATTGTGCATCATTCTGGTTATTAGCTCAGACGCTGGCTTATATTCCTACAGGGATTGCTTATGCTATCTGGTCAGGAGTCGGTATTGTCCTGATTAGCTTA</t>
+  </si>
+  <si>
+    <t>MNPYIYLGGAILAEVIGTTLMKFSEGFTRLWPSVGTIICYCASFWLLAQTLAYIPTGIAYAIWSGVGIVLISL</t>
+  </si>
+  <si>
+    <t>MPYLYLVIAIITEIIGTSFLKTAEGFTKLWPTLGTLISFGICFYFLSVTMKYLPLNVSYATWAGLGLVLTTIVSVVIFKESVNLISIFSIILIIIGVVLLNVFGSSH</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|4655|hsp_num:0</t>
+  </si>
+  <si>
+    <t>benzalkonium chloride</t>
+  </si>
+  <si>
+    <t>contig00001_114 # 129239 # 131005 # -1 # ID=1_114;partial=00;start_type=ATG;rbs_motif=AGGA/GGAG/GAGG;rbs_spacer=11-12bp;gc_cont=0.537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contig00001_114 </t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae PBP3 conferring resistance to beta-lactam antibiotics</t>
+  </si>
+  <si>
+    <t>protein variant model</t>
+  </si>
+  <si>
+    <t>D350N, S357N</t>
+  </si>
+  <si>
+    <t>cephalosporin; cephamycin; penam</t>
+  </si>
+  <si>
+    <t>Penicillin-binding protein mutations conferring resistance to beta-lactam antibiotics</t>
+  </si>
+  <si>
+    <t>ATGAAAGCAGCGGCGAAAACGCAGAAACCAAAACGTCAGGAAGAACATGCCAACTTTATCAGTTGGCGTTTTGCGTTGTTATGCGGCTGTATTCTCCTGGCGCTGGCTTTTCTGCTCGGACGCGTAGCGTGGTTACAAGTTATCTCCCCGGATATGCTGGTGAAAGAGGGCGACATGCGTTCTCTTCGCGTTCAGCAAGTTTCCACCTCCCGCGGCATGATTACTGACCGTTCTGGTCGCCCGTTAGCGGTGAGCGTGCCGGTAAAAGCGATTTGGGCTGACCCGAAAGAAGTGCATGACGCTGGCGGTATCAGCGTCGGTGACCGCTGGAAGGCGCTGGCTAACGCGCTCAATATTCCGCTGGATCAGCTTTCTGCCCGCATTAACGCCAACCCGAAAGGGCGCTTTATTTATCTGGCGCGTCAGGTAAACCCTGACATGGCGGACTACATCAAAAAACTGAAACTGCCGGGAATTCATCTGCGTGAAGAATCTCGCCGTTATTATCCATCCGGCGAAGTGACTGCTCACCTCATCGGCTTTACTAACGTCGATAGTCAAGGTATTGAGGGCGTTGAGAAGAGTTTCGATAAATGGCTTACCGGGCAGCCGGGTGAGCGCATTGTGCGTAAAGACCGCTATGGTCGCGTAATTGAAGATATTTCTTCTACTGACAGCCAGGCTGCGCACAACCTGGCGCTGAGTATTGATGAACGCCTGCAGGCGCTGGTTTATCGCGAACTGAACAACGCGGTGGCCTTTAACAAGGCTGAGTCCGGTAGCGCCGTGCTGGTGGATGTCAACACCGGTGAAGTGCTGGCGATGGCTAACAGCCCGTCATACAACCCTAACAATCTGAGCGGCACGCCGAAAGAGGCGATGCGTAACCGTACCATCACCGACGTGTTTGAACCGGGTTCAACGGTTAAACCGATGGTGGTGATGACCGCGTTGCAACGTGGCGTGGTGCGGGAAAACTCGGTACTCAATACCATTCCTTATCGAATTAACGGCCACGAAATCAAAGACGTGGCACGCTACAGCGAATTAACCCTGACCGGAGTATTACAGAAGTCGAGTAACGTCGGTGTTTCCAAGCTGGCGTTAGCGATGCCGTCCTCAGCGTTAGTAGATACTTACTCACGTTTTGGACTGGGAAAAGCGACCAATTTGGGGTTGGTCGGAGAACGCAGTGGCTTATATCCTCAAAAACAACGGTGGTCTGACATAGAGAGGGCCACCTTCTCTTTCGGCTACGGGCTAATGGTAACTCCGTTACAGTTAGCGCGAGTCTACGCAACTATCGGCAGCTACGGCATTTATCGCCCACTGTCGATTACCAAAGTTGACCCCCCGGTTCCCGGTGAACGTGTCTTCCCGGAATCTATTGTCCGCACTGTGGTGCATATGATGGAAAGCGTGGCGCTACCGGGTGGCGGCGGCGTGAAGGCGGCGATTAAAGGCTATCGTATTGCCATTAAAACCGGTACCGCGAAAAAGGTCGGGCCGGACGGTCGCTACATCAATAAATATATTGCTTACACCGCAGGTGTTGCGCCTGCGAGTCAGCCGCGCTTCGCGCTGGTTGTTGTTATCAACGATCCGCAGGCGGGTAAATACTACGGCGGCGCCGTTTCCGCGCCGGTCTTTGGTGCCATCATGGGCGGCGTATTGCGAACCATGAACATCGAGCCGGATGCGCTGACAACGGGCGATAAAAATGAATTTGTGATTAATCAAGGCGAGGGGACAGGTGGCAGATCGTAA</t>
+  </si>
+  <si>
+    <t>MKAAAKTQKPKRQEEHANFISWRFALLCGCILLALAFLLGRVAWLQVISPDMLVKEGDMRSLRVQQVSTSRGMITDRSGRPLAVSVPVKAIWADPKEVHDAGGISVGDRWKALANALNIPLDQLSARINANPKGRFIYLARQVNPDMADYIKKLKLPGIHLREESRRYYPSGEVTAHLIGFTNVDSQGIEGVEKSFDKWLTGQPGERIVRKDRYGRVIEDISSTDSQAAHNLALSIDERLQALVYRELNNAVAFNKAESGSAVLVDVNTGEVLAMANSPSYNPNNLSGTPKEAMRNRTITDVFEPGSTVKPMVVMTALQRGVVRENSVLNTIPYRINGHEIKDVARYSELTLTGVLQKSSNVGVSKLALAMPSSALVDTYSRFGLGKATNLGLVGERSGLYPQKQRWSDIERATFSFGYGLMVTPLQLARVYATIGSYGIYRPLSITKVDPPVPGERVFPESIVRTVVHMMESVALPGGGGVKAAIKGYRIAIKTGTAKKVGPDGRYINKYIAYTAGVAPASQPRFALVVVINDPQAGKYYGGAVSAPVFGAIMGGVLRTMNIEPDALTTGDKNEFVINQGEGTGGRS</t>
+  </si>
+  <si>
+    <t>MVKFNSSRKSGKSKKTIRKLTAPETVKQNKPQKVFEKCFMRGRYMLSTVLILLGLCALVARAAYVQSINADTLSNEADKRSLRKDEVLSVRGSILDRNGQLLSVSVPMSAIVADPKTMLKENSLADKERIAALAEELGMTENDLVKKIEKNSKSGYLYLARQVELSKANYIRRLKIKGIILETEHRRFYPRVEEAAHVVGYTDIDGNGIEGIEKSFNSLLVGKDGSRTVRKDKRGNIVAHISDEKKYDAQDVTLSIDEKLQSMVYREIKKAVSENNAESGTAVLVDVRTGEVLAMATAPSYNPNNRVGVKSELMRNRAITDTFEPGSTVKPFVVLTALQRGVVKRDEIIDTTSFKLSGKEIVDVAPRAQQTLDEILMNSSNRGVSRLALRMPPSALMETYQNAGLSKPTDLGLIGEQVGILNANRKRWADIERATVAYGYGITATPLQIARAYATLGSFGVYRPLSITKVDPPVIGKRVFSEKITKDIVGILEKVAIKNKRAMVEGYRVGVKTGTARKIENGHYVNKYVAFTAGIAPISDPRYALVVLINDPKAGEYYGGAVSAPVFSNIMGYALRANAIPQDAEAAENTTTKSAKRIVYIGEHKNQKVN</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2491|hsp_num:0</t>
+  </si>
+  <si>
+    <t>ceftriaxone; ampicillin; cefaclor; cefotaxime; cefditoren; cefdinir</t>
+  </si>
+  <si>
+    <t>contig00012_104 # 122222 # 123580 # -1 # ID=12_104;partial=00;start_type=ATG;rbs_motif=GGAGG;rbs_spacer=5-10bp;gc_cont=0.531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contig00012_104 </t>
+  </si>
+  <si>
+    <t>Escherichia coli GlpT with mutation conferring resistance to fosfomycin</t>
+  </si>
+  <si>
+    <t>E448K</t>
+  </si>
+  <si>
+    <t>phosphonic acid antibiotic</t>
+  </si>
+  <si>
+    <t>antibiotic-resistant GlpT</t>
+  </si>
+  <si>
+    <t>ATGTTGAGTATTTTTAAACCAGCGCCACACAAAGCGCGCTTACCTGCCGCGGAGATCGATCCGACTTATCGTCGATTGCGCTGGCAAATTTTCCTGGGGATATTCTTTGGCTATGCTGCTTACTATTTGGTTCGTAAGAACTTTGCGCTCGCTATGCCTTACCTGGTGGAGCAGGGATTCTCACGCGGTGATTTAGGTTTTGCGCTTTCTGGGATCTCGATCGCCTATGGATTTTCGAAATTCATCATGGGTTCGGTATCGGATCGCTCGAATCCGCGCGTTTTCCTGCCCGCAGGTTTGATTCTGGCGGCGGCAGTGATGTTGTTTATGGGCTTTGTGCCATGGGCGACGTCGAGCATTGCGGTGATGTTTGTACTGTTGTTCCTCTGCGGTTGGTTCCAGGGGATGGGGTGGCCGCCATGCGGTCGTACTATGGTGCACTGGTGGTCGCAGAAAGAACGTGGCGGCATTGTGTCAGTGTGGAACTGTGCGCACAACGTCGGTGGTGGTATTCCGCCGCTGCTGTTCCTGCTGGGGATGGCCTGGTTCAATGACTGGCACGCGGCGCTCTATATGCCCGCTTTCTGCGCCATTCTGGTGGCATTATTCGCCTTTGCGATGATGCGCGATACCCCGCAATCCTGTGGCTTGCCGCCGATCGAAGAGTACAAAAATGATTATCCGGACGACTATAACGAAAAAGCGGAACAGGAGCTGACCGCGAAGCAAATCTTCATGCAGTACGTGCTGCCGAACAAACTGTTGTGGTATATCGCCATCGCCAACGTGTTCGTTTATCTGCTGCGTTACGGCATCCTCGACTGGTCACCGACTTATCTGAAAGAGGTTAAGCATTTCGCGCTGGATAAATCCTCCTGGGCCTACTTCTTCTATGAGTATGCGGGTATTCCGGGCACCCTGCTGTGCGGCTGGATGTCGGATAAAGTCTTCCGTGGCAACCGTGGGGCAACCGGCGTTTTCTTTATGACACTGGTGACCATCGCGACTATCGTTTACTGGATGAACCCGGCAGGTAACCCAACCGTCGATATGATTTGTATGATTGTTATCGGCTTCCTGATCTACGGCCCTGTGATGCTGATCGGTCTGCATGCGCTGGAACTGGCACCGAAAAAAGCGGCAGGAACGGCAGCGGGCTTTACCGGTCTGTTTGGTTACCTGGGCGGTTCGGTGGCGGCGAGCGCGATTGTTGGCTACACCGTGGACTTCTTCGGCTGGGATGGCGGCTTTATGGTAATGATTGGCGGCAGCATTCTAGCGGTTATCTTGTTGATTGTTGTGATGATTGGCGAAAAACGTCGCCATCAGGAATTACTGCAAAAACGCAACGGAGGCTAA</t>
+  </si>
+  <si>
+    <t>MLSIFKPAPHKARLPAAEIDPTYRRLRWQIFLGIFFGYAAYYLVRKNFALAMPYLVEQGFSRGDLGFALSGISIAYGFSKFIMGSVSDRSNPRVFLPAGLILAAAVMLFMGFVPWATSSIAVMFVLLFLCGWFQGMGWPPCGRTMVHWWSQKERGGIVSVWNCAHNVGGGIPPLLFLLGMAWFNDWHAALYMPAFCAILVALFAFAMMRDTPQSCGLPPIEEYKNDYPDDYNEKAEQELTAKQIFMQYVLPNKLLWYIAIANVFVYLLRYGILDWSPTYLKEVKHFALDKSSWAYFFYEYAGIPGTLLCGWMSDKVFRGNRGATGVFFMTLVTIATIVYWMNPAGNPTVDMICMIVIGFLIYGPVMLIGLHALELAPKKAAGTAAGFTGLFGYLGGSVAASAIVGYTVDFFGWDGGFMVMIGGSILAVILLIVVMIGEKRRHQELLQKRNGG</t>
+  </si>
+  <si>
+    <t>MLSIFKPAPHKARLPAAEIDPTYRRLRWQIFLGIFFGYAAYYLVRKNFALAMPYLVEQGFSRGDLGFALSGISIAYGFSKFIMGSVSDRSNPRVFLPAGLILAAAVMLFMGFVPWATSSIAVMFVLLFLCGWFQGMGWPPCGRTMVHWWSQKERGGIVSVWNCAHNVGGGIPPLLFLLGMAWFNDWHAALYMPAFCAILVALFAFAMMRDTPQSCGLPPIEEYKNDYPDDYNEKAEQELTAKQIFMQYVLPNKLLWYIAIANVFVYLLRYGILDWSPTYLKEVKHFALDKSSWAYFLYEYAGIPGTLLCGWMSDKVFRGNRGATGVFFMTLVTIATIVYWMNPAGNPTVDMICMIVIGFLIYGPVMLIGLHALELAPKKAAGTAAGFTGLFGYLGGSVAASAIVGYTVDFFGWDGGFMVMIGGSILAVILLIVVMIGEKRRHEQLLQERNGG</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2127|hsp_num:0</t>
+  </si>
+  <si>
+    <t>fosfomycin</t>
+  </si>
+  <si>
+    <t>contig00004_132 # 140178 # 140825 # 1 # ID=4_132;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.451</t>
+  </si>
+  <si>
+    <t>contig00004_132</t>
+  </si>
+  <si>
+    <t>Escherichia coli AcrAB-TolC with AcrR mutation conferring resistance to ciprofloxacin, tetracycline, and ceftazidime</t>
+  </si>
+  <si>
+    <t>protein overexpression model</t>
+  </si>
+  <si>
+    <t>antibiotic target alteration; antibiotic efflux</t>
+  </si>
+  <si>
+    <t>ATGGCACGAAAAACCAAACAAGAAGCGCAAGAAACGCGCCAACACATCCTCGATGTGGCTCTACGTCTTTTCTCACAGCAGGGGGTATCATCCACCTCGCTGGGTGAGATTGCAAAAGCAGCTGGCGTTACGCGCGGTGCAATCTACTGGCATTTTAAAGACAAGTCGGATTTGTTCAGTGAGATCTGGGAACTATCAGAATCCAATATTGGTGAACTAGAGCTTGAGTATCAGGCAAAATTCCCTGGCGATCCACTCTCAGTATTAAGAGAGATATTAATTCATGTTCTTGAATCCACGGTGACAGAAGAACGGCGTCGATTATTGATGGAGATTATATTCCACAAATGCGAATTTGTCGGAGAAATGGCTGTTGTGCAACAGGCACAACGTAATCTCTGTTTGGAAAGTTATGACCGTATAGAACAAACGTTAAAACATTGTATTGAAGCGAAAATGTTGCCTGCGGATTTAATGACGCGTCGGGCAGCAATTATTATGCGCGGCTATATTTCCGGCCTGATGGAAAACTGGCTCTTTGCCCCGCAATCTTTTGATCTTAAAAAAGAAGCCCGCGATTACGTCGCCATCTTACTGGAGATGTATCTCCTGTGCCCCACGCTTCGTAATCCTGCCACTAACGAATAA</t>
+  </si>
+  <si>
+    <t>MARKTKQEAQETRQHILDVALRLFSQQGVSSTSLGEIAKAAGVTRGAIYWHFKDKSDLFSEIWELSESNIGELELEYQAKFPGDPLSVLREILIHVLESTVTEERRRLLMEIIFHKCEFVGEMAVVQQAQRNLCLESYDRIEQTLKHCIEAKMLPADLMTRRAAIIMRGYISGLMENWLFAPQSFDLKKEARDYVAILLEMYLLCPTLRNPATNE</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|2088|hsp_num:0</t>
+  </si>
+  <si>
+    <t>tigecycline; ciprofloxacin; tetracycline; ceftazidime; rifampin; chloramphenicol; ampicillin; cefalotin; triclosan</t>
+  </si>
+  <si>
+    <t>contig00006_103 # 115073 # 115537 # -1 # ID=6_103;partial=00;start_type=ATG;rbs_motif=AGGA/GGAG/GAGG;rbs_spacer=11-12bp;gc_cont=0.520</t>
+  </si>
+  <si>
+    <t>contig00006_103</t>
+  </si>
+  <si>
+    <t>Escherichia coli soxR with mutation conferring antibiotic resistance</t>
+  </si>
+  <si>
+    <t>ATGGAAAAGAAATTACCCCGCATTAAAGCGCTGCTAACCCCCGGCGAAGTGGCGAAACGCAGCGGTGTGGCGGTATCGGCGCTGCATTTCTATGAAAGCAAAGGGTTGATTACCAGTATCCGTAACAGCGGCAATCAGCGGCGTTATAAACGTGATGTGTTGCGATATGTCGCAATTATCAAAATTGCTCAGCGTATTGGCATTCCTCTCGCGACCATTGGTGAAGCGTTTGGCGTGTTGCCCGAAGGGCATACGTTAAGTGCGAAAGAGTGGAAACAGCTTTCGTCCCAATGGCGAGAAGAGTTGGATCGGCGCATTCATACCTTAGTGGCGCTGCGTGACGAACTGGACGGATGTATTGGTTGTGGCTGCCTTTCGCGCAGTGATTGCCCGTTGCGTAACCCGGGCGACCGCTTAGGAGAAGAAGGTACCGGCGCACGCTTGCTGGAAGATGAACAAAACTAA</t>
+  </si>
+  <si>
+    <t>MEKKLPRIKALLTPGEVAKRSGVAVSALHFYESKGLITSIRNSGNQRRYKRDVLRYVAIIKIAQRIGIPLATIGEAFGVLPEGHTLSAKEWKQLSSQWREELDRRIHTLVALRDELDGCIGCGCLSRSDCPLRNPGDRLGEEGTGARLLEDEQN</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1972|hsp_num:0</t>
+  </si>
+  <si>
+    <t>tigecycline; ciprofloxacin; tetracycline; rifampin; chloramphenicol; ampicillin; nalidixic acid; norfloxacin; cefalotin; triclosan</t>
+  </si>
+  <si>
+    <t>contig00006_104 # 115623 # 115946 # 1 # ID=6_104;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.512</t>
+  </si>
+  <si>
+    <t>contig00006_104</t>
+  </si>
+  <si>
+    <t>Escherichia coli soxS with mutation conferring antibiotic resistance</t>
+  </si>
+  <si>
+    <t>antibiotic target alteration; antibiotic efflux; reduced permeability to antibiotic</t>
+  </si>
+  <si>
+    <t>ATP-binding cassette (ABC) antibiotic efflux pump; major facilitator superfamily (MFS) antibiotic efflux pump; resistance-nodulation-cell division (RND) antibiotic efflux pump; General Bacterial Porin with reduced permeability to beta-lactams</t>
+  </si>
+  <si>
+    <t>ATGTCCCATCAGAAAATTATTCAGGATCTTATCGCATGGATTGACGAGCATATTGACCAGCCGCTTAACATTGATGTCGTCGCAAAAAAATCAGGCTATTCAAAGTGGTACCTGCAACGGATGTTCCGCACGGTGACGCATCAGACGCTTGGCGATTACATTCGTCAACGCCGTCTGTTACTGGCCGCCGTTGAGTTGCGCACCACCGAGCGTCCGATTTTTGATATCGCAATGGACCTGGGTTATGTCTCTCAGCAGACCTTCTCCCGCGTTTTCCGTCGGCAGTTTGATCGCACTCCCAGCGATTATCGCCACCGCCTGTAG</t>
+  </si>
+  <si>
+    <t>MSHQKIIQDLIAWIDEHIDQPLNIDVVAKKSGYSKWYLQRMFRTVTHQTLGDYIRQRRLLLAAVELRTTERPIFDIAMDLGYVSQQTFSRVFRRQFDRTPSDYRHRL</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1974|hsp_num:0</t>
+  </si>
+  <si>
+    <t>tigecycline; ciprofloxacin; tetracycline; rifampin; chloramphenicol; ampicillin; norfloxacin; cefalotin; triclosan; enrofloxacin</t>
   </si>
   <si>
     <t>contig00017_78 # 90458 # 91180 # 1 # ID=17_78;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.539</t>
@@ -721,517 +1372,10 @@
     <t>MTELPIDENTPRILIVEDEPKLGQLLIDYLRAASYAPTLISHGDQVLSYVRQTPPDLILLDLMLPGTDGLTLCREIRRFSDIPIVMVTAKIEEIDRLLGLEIGADDYICKPYSPREVVARVKTILRRCKPQRELQQQDAESPLIIDEGRFQASWRGKMLDLTPAEFRLLKTLSHEPGKVFSREQLLNHLYDDYRVVTDRTIDSHIKNLRRKLESLDAEQSFIRAVYGVGYRWEADACRIV</t>
   </si>
   <si>
-    <t>MTELPIDENTPRILIVEDEPKLGQLLIDYLRAASYAPTLISHGDQVLPYVRQTPPDLILLDLMLPGTDGLTLCREIRRFSDIPIVMVTAKIEEIDRLLGLEIGADDYICKPYSPREVVARVKTILRRCKPQRELQQQDAESPLIIDEGRFQASWRGKMLDLTPAEFRLLKTLSHEPGKVFSREQLLNHLYDDYRVVTDRTIDSHIKNLRRKLESLDAEQSFIRAVYGVGYRWEADACRIV</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1232|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00018_1 # 478 # 663 # -1 # ID=18_1;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.495</t>
-  </si>
-  <si>
-    <t>contig00018_1</t>
-  </si>
-  <si>
-    <t>rsmA</t>
-  </si>
-  <si>
-    <t>fluoroquinolone antibiotic; diaminopyrimidine antibiotic; phenicol antibiotic</t>
-  </si>
-  <si>
-    <t>ATGCTGATTCTGACTCGTCGAGTTGGTGAGACCCTCATGATTGGGGATGAGGTCACCGTGACAGTTTTAGGGGTAAAGGGCAACCAGGTACGTATTGGCGTAAATGCCCCGAAGGAAGTTTCTGTTCACCGTGAAGAGATCTACCAGCGTATCCAGGCTGAAAAATCCCAGCAGTCCAGTTACTAA</t>
-  </si>
-  <si>
-    <t>MLILTRRVGETLMIGDEVTVTVLGVKGNQVRIGVNAPKEVSVHREEIYQRIQAEKSQQSSY</t>
-  </si>
-  <si>
-    <t>MLILTRRVGETLMVGDDVTVTVLGVKGNQVRIGVNAPKEVAVHREEIYQRIQKEKDQEPNH</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|2795|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00020_64 # 66793 # 68166 # -1 # ID=20_64;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.546</t>
-  </si>
-  <si>
-    <t>contig00020_64</t>
-  </si>
-  <si>
-    <t>cpxA</t>
-  </si>
-  <si>
-    <t>ATGATAGGCAGCTTAACCGCGCGCATCTTCGCCATCTTCTGGCTGACGCTGGCGCTGGTGTTGATGTTGGTTTTGATGTTACCCAAGCTCGATTCACGCCAGATGACCGAGCTTCTGGATAGCGAACAGCGTCAGGGTCTGATGATTGAGCAGCATGTTGAAGCGGAGCTGGCGAACGATCCGCCCAACGATTTAATGTGGTGGCGGCGTCTGTTCCGGGCGATTGATAAGTGGGCACCGCCAGGACAGCGTTTGTTATTGGTGACCACCGAAGGCCGCGTGATCGGCGCTGAACGCAGCGAAATGCAGATCATTCGTAACTTTATTGGTCAGGCCGATAACGCCGATCATCCGCAGAAGAAAAAGTATGGCCGCGTGGAACTGGTCGGTCCGTTCTCCGTGCGTGATGGCGAAGATAATTACCAACTTTATCTGATTCGTCCGGCCAGCAGTTCTCAATCCGATTTCATTAACTTACTGTTTGACCGCCCGCTATTACTGCTGATTGTCACCATGTTGGTCAGTACGCCGCTGCTGTTGTGGTTGGCCTGGAGTCTGGCAAAACCGGCGCGTAAGCTGAAAAACGCTGCCGATGAAGTTGCCCAGGGAAACTTACGCCAGCACCCGGAACTGGAAGCGGGGCCACAGGAATTCCTTGCCGCAGGTGCCAGTTTTAACCAGATGGTCACCGCGCTGGAGCGCATGATGACCTCTCAGCAGCGTCTGCTTTCTGATATCTCTCACGAGCTGCGCACCCCGCTGACGCGTCTGCAACTGGGTACGGCGTTACTGCGCCGTCGTAGTGGTGAAAGCAAGGAACTGGAGCGTATTGAAACCGAAGCGCAACGTCTGGACAGCATGATTAACGACCTGTTGGTGATGTCACGTAATCAGCAAAAAAACGCGCTGGTTAGCGAGACCATCAAAGCCAATCAGTTGTGGAGTGAAGTGCTGGATAACGCGGCGTTCGAAGCCGAGCAAATGGGCAAGTCGTTGACAGTTAACTTCCCGCCTGGGCCGTGGCCGCTGTACGGCAACCCGAACGCCCTGGAGAGTGCGCTGGAAAACATTGTTCGTAATGCCCTGCGTTATTCCCATACGAAGATTGAAGTGGGCTTTGCGGTAGATAAAGACGGTATCACCATTACGGTGGACGACGATGGTCCTGGCGTTAGCCCGGAAGATCGCGAACAGATTTTCCGTCCGTTCTATCGGACCGATGAAGCGCGCGATCGTGAATCTGGCGGTACAGGTTTGGGACTGGCGATTGTTGAAACCGCCATTCAGCAGCATCGTGGCTGGGTGAAAGCAGAAGACAGCCCGCTGGGCGGTTTACGGCTGGTGATTTGGTTGCCGCTGTATAAGCGGAGTTAA</t>
-  </si>
-  <si>
-    <t>MIGSLTARIFAIFWLTLALVLMLVLMLPKLDSRQMTELLDSEQRQGLMIEQHVEAELANDPPNDLMWWRRLFRAIDKWAPPGQRLLLVTTEGRVIGAERSEMQIIRNFIGQADNADHPQKKKYGRVELVGPFSVRDGEDNYQLYLIRPASSSQSDFINLLFDRPLLLLIVTMLVSTPLLLWLAWSLAKPARKLKNAADEVAQGNLRQHPELEAGPQEFLAAGASFNQMVTALERMMTSQQRLLSDISHELRTPLTRLQLGTALLRRRSGESKELERIETEAQRLDSMINDLLVMSRNQQKNALVSETIKANQLWSEVLDNAAFEAEQMGKSLTVNFPPGPWPLYGNPNALESALENIVRNALRYSHTKIEVGFAVDKDGITITVDDDGPGVSPEDREQIFRPFYRTDEARDRESGGTGLGLAIVETAIQQHRGWVKAEDSPLGGLRLVIWLPLYKRS</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|132|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00021_60 # 58676 # 59884 # 1 # ID=21_60;partial=00;start_type=ATG;rbs_motif=GGAGG;rbs_spacer=3-4bp;gc_cont=0.557</t>
-  </si>
-  <si>
-    <t>contig00021_60</t>
-  </si>
-  <si>
-    <t>mdtH</t>
-  </si>
-  <si>
-    <t>fluoroquinolone antibiotic</t>
-  </si>
-  <si>
-    <t>ATGTCCCGCGTGTCGCAGGCGAGGAACCTGGGTAAATATTTCCTGCTCATCGATAATATGCTGGTCGTGCTGGGGTTCTTTGTTGTCTTCCCGCTGATCTCTATCCGCTTCGTTGATCAAATGGGCTGGGCCGCCGTCATGGTCGGTATTGCCCTCGGCCTACGCCAGTTTATTCAGCAAGGTCTGGGTATTTTCGGCGGCGCAATTGCCGACCGCTTTGGTGCCAAACCGATGATTGTTACCGGTATGCTGATGCGTGCCGCCGGATTCGCCACAATGGGTATCGCCCACGAACCGTGGCTATTGTGGTTTTCATGCCTGCTCTCGGGACTCGGTGGCACGTTGTTTGATCCGCCGCGTTCGGCGCTGGTGGTGAAACTAATCCGTCCACAACAGCGTGGTCGTTTTTTCTCGCTGTTGATGATGCAGGACAGTGCCGGTGCGGTCATTGGCGCATTGTTGGGGAGCTGGCTGTTGCAATACGACTTTCGCCTGGTCTGCGCCACAGGGGCCGTTTTGTTTGTGCTGTGTGCAGCGTTCAATGCGTGGTTGTTACCGGCATGGAAACTCTCCACCGTACGCACGCCCGTTCGCGAAGGCATGACCCGCGTGATGCGCGACAAGCGTTTTGTCACCTATGTCCTGACGCTGGCGGGTTACTACATGCTGGCTGTACAAGTGATGCTGATGCTGCCAATTATGGTCAACGATGTGGCTGGCGCGCCCTCTGCCGTTAAATGGATGTATGCCATTGAAGCGTGTCTGTCGTTAACGTTGCTCTACCCTATCGCCCGCTGGAGTGAAAAGCATTTTCGTCTGGAACACCGGTTGATGGCTGGGCTGTTGATAATGTCATTAAGCATGATGCCGGTGGGCATGGTCAGCGGCCTGCAACAACTTTTCACCCTGATTTGTCTGTTTTATATCGGGTCGATCATTGCCGAGCCTGCGCGTGAAACCTTAAGTGCTTCGCTGGCGGACGCAAGAGCTCGCGGCAGCTATATGGGGTTTAGCCGTCTGGGTCTGGCGATTGGCGGCGCTATTGGTTATATCGGTGGCGGCTGGCTGTTTGACCTGGGCAAATCGGTGCACCAGCCAGAGCTTCCGTGGATGATGCTGGGCATTATTGGCATCTTCACTTTCCTTGCGCTGGGTTGGCAGTTTAGCCAGAAACGCGCCGCGCGTCGTTTGCTTGAACGCGACGCCTGA</t>
-  </si>
-  <si>
-    <t>MSRVSQARNLGKYFLLIDNMLVVLGFFVVFPLISIRFVDQMGWAAVMVGIALGLRQFIQQGLGIFGGAIADRFGAKPMIVTGMLMRAAGFATMGIAHEPWLLWFSCLLSGLGGTLFDPPRSALVVKLIRPQQRGRFFSLLMMQDSAGAVIGALLGSWLLQYDFRLVCATGAVLFVLCAAFNAWLLPAWKLSTVRTPVREGMTRVMRDKRFVTYVLTLAGYYMLAVQVMLMLPIMVNDVAGAPSAVKWMYAIEACLSLTLLYPIARWSEKHFRLEHRLMAGLLIMSLSMMPVGMVSGLQQLFTLICLFYIGSIIAEPARETLSASLADARARGSYMGFSRLGLAIGGAIGYIGGGWLFDLGKSVHQPELPWMMLGIIGIFTFLALGWQFSQKRAARRLLERDA</t>
-  </si>
-  <si>
-    <t>MSRVSQARNLGKYFLLIDNMLVVLGFFVVFPLISIRFVDQMGWAAVMVGIALGLRQFIQQGLGIFGGAIADRFGAKPMIVTGMLMRAAGFATMGIAHEPWLLWFSCLLSGLGGTLFDPPRSALVVKLIRPQQRGRFFSLLMMQDSAGAVIGALLGSWLLQYDFRLVCATGAVLFVLCAAFNAWLLPAWKLSTVRTPVREGMTRVMRDKRFVTYVLTLAGYYMLAVQVMLMLPIMVNDVAGAPSAVKWMYAIEACLSLTLLYPIARWSEKHFRLEHRLMAGLLIMSLSMMPVGMVSGLQQLFTLICLFYIGSIIAEPARETLSASLADARARGSYMGFSRLGLAIGGAIGYIGGGWLFDLGKSAHQPELPWMMLGIIGIFTFLALGWQFSQKRAARRLLERDA</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|343|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00022_58 # 40929 # 42467 # -1 # ID=22_58;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.417</t>
-  </si>
-  <si>
-    <t>contig00022_58</t>
-  </si>
-  <si>
-    <t>emrY</t>
-  </si>
-  <si>
-    <t>tetracycline antibiotic</t>
-  </si>
-  <si>
-    <t>ATGGCAATCACTAAATCAACTCCGGCACCATTAACCGGTGGGACGTTATGGTGCGTCACTATTGCATTGTCATTAGCGACGTTTATGCAAATGTTGGATTCCACTATTTCTAACGTCGCAATACCGACAATATCTGGCTTTCTGGGAGCATCAACAGACGAAGGCACCTGGGTTATCACCTCGTTTGGCGTAGCAAATGCCATTGCGATCCCTGTTACCGGCAGGCTGGCACAAAGAATAGGCGAATTAAGGTTATTTTTACTTTCAGTCACTTTTTTTTCGCTGTCTTCCTTAATGTGTAGTTTATCGATCAATCTTGATGTGCTGATATTTTTTAGAGTCGTTCAGGGGTTAATGGCAGGGCCGTTAATTCCACTGTCACAGAGTTTATTATTAAGGAATTATCCACCAGAAAAAAGAACATTTGCTCTGGCATTATGGTCAATGACCGTGATTATCGCTCCGATATGTGGGCCGATATTGGGCGGTTATATTTGTGATAACTTTAGCTGGGGTTGGATATTTTTAATCAATGTCCCTATGGGGATTATCGTCCTGACATTATGCTTAACCTTACTTAAAGGAAGAGAAACTGAGACTTCACCGGTCAAAATGAATCTACCAGGACTGACCCTGTTAGTGCTCGGTGTTGGTGGCTTGCAAATTATGCTTGATAAAGGGCGCGATCTGGATTGGTTCAACTCGAGTACAATAATAATATTAACAGTAGTATCAGTTATTTTTCTGATCTCTTTAGTCATTTGGGAGTCGACCTCAGAGAACCCGATTCTTGATCTCAGTTTGTTTAAGTCCCGTAACTTCACCATTGGTATTGTGAGTATCACATGCGCGTATTTATTTTACTCTGGAGCGATCGTCCTTATGCCGCAGTTACTCCAGGAAACGATGGGGTATAATGCGATATGGGCCGGACTTGCTTATGCGCCCATCGGCATCATGCCACTATTAATTTCACCTTTGATAGGACGTTATGGCAACAAAATAGACATGCGGGTGTTGGTGACATTCAGTTTTTTGATGTATGCGGTTTGCTATTACTGGCGTTCTGTGACATTTATGCCAACGATTGATTTTACAGGTATCATTTTGCCGCAGTTTTTTCAGGGATTCGCCGTTGCCTGTTTCTTTTTACCCTTAACAACGATTTCGTTTTCAGGCTTGCCAGATAATAAATTTGCCAATGCCTCGAGTATGAGTAATTTTTTTCGTACCTTGTCAGGATCAGTTGGTACGTCGTTGACAATGACGCTGTGGGGACGACGCGAATCGTTACACCATAGTCAGTTGACAGAAACCATCGATCAATTTAACCCCGTGTTTAATTCATCGTCACAAATTATGGATAAATACTATGGTTCGCTTTCAGGAGTTCTTAATGAAATTAATAATGAAATAACCCAGCAGTCACTTTCTATTTCTGCAAATGAGATTTTCCGTATGGCGGCTATTGCTTTTATCTTACTTACGGTTTTGGTTTGGTTTGCGAAACCGCCGTTTACAGCGAAAGGCGTTGGGTGA</t>
-  </si>
-  <si>
-    <t>MAITKSTPAPLTGGTLWCVTIALSLATFMQMLDSTISNVAIPTISGFLGASTDEGTWVITSFGVANAIAIPVTGRLAQRIGELRLFLLSVTFFSLSSLMCSLSINLDVLIFFRVVQGLMAGPLIPLSQSLLLRNYPPEKRTFALALWSMTVIIAPICGPILGGYICDNFSWGWIFLINVPMGIIVLTLCLTLLKGRETETSPVKMNLPGLTLLVLGVGGLQIMLDKGRDLDWFNSSTIIILTVVSVIFLISLVIWESTSENPILDLSLFKSRNFTIGIVSITCAYLFYSGAIVLMPQLLQETMGYNAIWAGLAYAPIGIMPLLISPLIGRYGNKIDMRVLVTFSFLMYAVCYYWRSVTFMPTIDFTGIILPQFFQGFAVACFFLPLTTISFSGLPDNKFANASSMSNFFRTLSGSVGTSLTMTLWGRRESLHHSQLTETIDQFNPVFNSSSQIMDKYYGSLSGVLNEINNEITQQSLSISANEIFRMAAIAFILLTVLVWFAKPPFTAKGVG</t>
-  </si>
-  <si>
-    <t>MAITKSTPAPLTGGTLWCVTIALSLATFMQMLDSTISNVAIPTISGFLGASTDEGTWVITSFGVANAIAIPVTGRLAQRIGELRLFLLSVTFFSLSSLMCSLSTNLDVLIFFRVVQGLMAGPLIPLSQSLLLRNYPPEKRTFALALWSMTVIIAPICGPILGGYICDNFSWGWIFLINVPMGIIVLTLCLTLLKGRETETSPVKMNLPGLTLLVLGVGGLQIMLDKGRDLDWFNSSTIIILTVVSVISLISLVIWESTSENPILDLSLFKSRNFTIGIVSITCAYLFYSGAIVLMPQLLQETMGYNAIWAGLAYAPIGIMPLLISPLIGRYGNKIDMRLLVTFSFLMYAVCYYWRSVTFMPTIDFTGIILPQFFQGFAVACFFLPLTTISFSGLPDNKFANASSMSNFFRTLSGSVGTSLTMTLWGRRESLHHSQLTATIDQFNPVFNSSSQIMDKYYGSLSGVLNEINNEITQQSLSISANEIFRMAAIAFILLTVLVWFAKPPFTAKGVG</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|492|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00022_59 # 42467 # 43630 # -1 # ID=22_59;partial=00;start_type=GTG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.418</t>
-  </si>
-  <si>
-    <t>contig00022_59</t>
-  </si>
-  <si>
-    <t>emrK</t>
-  </si>
-  <si>
-    <t>ATGGAATTAGAAGACATGATTAGTACAGATGACGCCTATGTCACGGGGAATGCAGATCCAATTTCTGCACAAGTCTCAGGTAGTGTCACTGTCGTTAATCATAAAGATACGAACTACGTTCGACAGGGTGACATTTTAGTTTCACTGGATAAAACTGATGCCACTATCGCACTCAATAAAGCTAAAAATAATCTGGCAAATATTGTTCGGCAAACGAATAAACTGTACTTACAGGATAAACAATACAGTGCCGAAGTCGCTTCAGCACGTATTCAGTATCAACAATCTTTAGAAGATTATAACCGTCGTGTGCCTTTAGCGAAGCAGGGGGTTATTTCAAAAGAAACGCTGGAGCATACCAAAGATACGTTAATAAGTAGCAAAGCGGCATTGAATGCCGCTATCCAGGCTTATAAAGCGAATAAAGCTTTAGTAATGAACACACCATTAAACCGTCAGCCACAAGTCGTTGAAGCTGCGGATGCAACCAAAGAAGCCTGGTTGGCGCTTAAACGTACGGATATTAAGAGTCCGGTTACCGGCTATATTGCCCAGAGAAGTGTTCAGGTCGGCGAAACAGTGAGTCCCGGACAATCGTTAATGGCTGTCGTACCGGCACGTCAAATGTGGGTTAATGCTAACTTTAAAGAAACACAACTCACGGATGTACGGATTGGTCAATCGGTCAATATTATCAGCGATCTTTATGGTGAGAATGTTGTGTTTCATGGCCGGGTGACAGGGATCAATATGGGAACCGGCAATGCGTTCTCCTTATTACCTGCACAAAATGCGACAGGGAACTGGATCAAAATCGTTCAGCGTGTACCGGTTGAAGTTTCTCTTGATCCAAAAGAACTCATGGAACACCCCTTGCGCATTGGTTTATCGATGACTGCAACTATTGATACGAAGAACGAAGACATTGCTGAGATGCCTGAGCTGGCTTCAACCGTGACGTCCATGCCGGCTTATACCAGTAAGGCTTTAGTTATCGATACCAGTCCGATAGAAAAAGAAATTAGCAACATTATTTCGCATAATGGACAACTTTAA</t>
-  </si>
-  <si>
-    <t>MELEDMISTDDAYVTGNADPISAQVSGSVTVVNHKDTNYVRQGDILVSLDKTDATIALNKAKNNLANIVRQTNKLYLQDKQYSAEVASARIQYQQSLEDYNRRVPLAKQGVISKETLEHTKDTLISSKAALNAAIQAYKANKALVMNTPLNRQPQVVEAADATKEAWLALKRTDIKSPVTGYIAQRSVQVGETVSPGQSLMAVVPARQMWVNANFKETQLTDVRIGQSVNIISDLYGENVVFHGRVTGINMGTGNAFSLLPAQNATGNWIKIVQRVPVEVSLDPKELMEHPLRIGLSMTATIDTKNEDIAEMPELASTVTSMPAYTSKALVIDTSPIEKEISNIISHNGQL</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|557|hsp_num:0</t>
-  </si>
-  <si>
-    <t>possible complete gene, reference contained within open reading frame</t>
-  </si>
-  <si>
-    <t>contig00022_60 # 44046 # 44660 # 1 # ID=22_60;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.400</t>
-  </si>
-  <si>
-    <t>contig00022_60</t>
-  </si>
-  <si>
-    <t>evgA</t>
-  </si>
-  <si>
-    <t>macrolide antibiotic; fluoroquinolone antibiotic; penam; tetracycline antibiotic</t>
-  </si>
-  <si>
-    <t>major facilitator superfamily (MFS) antibiotic efflux pump; resistance-nodulation-cell division (RND) antibiotic efflux pump</t>
-  </si>
-  <si>
-    <t>ATGAACGCAATAATTATTGATGACCATCCTCTTGCTATCGCAGCAATTCGTAATTTATTGATCAAAAACGATATTGAAATCTTAGCAGAGTTGACTGAAGGCGGAAGTGCCGTTCAGCGGGTGGAAACACTTAAGCCTGATATCGTCATCATTGATGTCGATATCCCCGGAGTTAACGGTATCCAGGTGTTAGAAACGCTGAGGAAGCGCCAATATAGCGGAATTATTATTATCGTCTCCGCTAAAAATGACCATTTTTACGGGAAACATTGTGCTGATGCTGGCGCTAATGGTTTCGTGAGTAAAAAAGAAGGCATGAACAATATCATTGCGGCTATTGAAGCTGCAAAAAATGGCTACTGCTATTTCCCCTTCTCTCTCAACCGGTTTGTTGGAAGTTTAACGTCCGACCAGCAAAAACTCGACTCCTTATCGAAACAAGAAATTAGTGTCATGCGGTATATTCTTGATGGCAAGGATAATAATGACATTGCTGAAAAAATGTTCATCAGCAACAAAACTGTCAGCACTTATAAAAGTCGCCTGATGGAAAAATTAGAATGTAAATCACTGATGGATCTTTACACATTCGCACAACGTAACAAAATCGGCTAA</t>
-  </si>
-  <si>
-    <t>MNAIIIDDHPLAIAAIRNLLIKNDIEILAELTEGGSAVQRVETLKPDIVIIDVDIPGVNGIQVLETLRKRQYSGIIIIVSAKNDHFYGKHCADAGANGFVSKKEGMNNIIAAIEAAKNGYCYFPFSLNRFVGSLTSDQQKLDSLSKQEISVMRYILDGKDNNDIAEKMFISNKTVSTYKSRLMEKLECKSLMDLYTFAQRNKIG</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|937|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00022_61 # 44665 # 48258 # 1 # ID=22_61;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.410</t>
-  </si>
-  <si>
-    <t>contig00022_61</t>
-  </si>
-  <si>
-    <t>evgS</t>
-  </si>
-  <si>
-    <t>ATGAAGTTTTTACCCTATATTTTTCTTCTCTGTTGTGGTCTTTGGTCGACCATAAGTTTCGCAGACGAAGATTACATCGAATATCGTGGCATCAGTAGTAACAACCGTGTCACACTTGATCCACTACGTCTGAGCAACAAGGAATTACGTTGGTTAGCGAGCAAAAAAAATCTTGTGATTGCAGTACACAAGTCCCAAACGGCTACGTTGTTGCATACCGATTCGCAGCAACGGGTTCGTGGTATTAATGCTGATTATTTAAATCTTTTAAAAAGAGCGTTAAATATCAAATTAACACTCCGGGAATACGCAGATCATCAAAAAGCAATGGACGCGCTGGAAGAAGGTGAAGTCGATATAGTGTTATCACATTTAGTTGCTTCGCCGCCTCTTAATGATGACATTGCTGCAACCAAACCACTGATAATTACCTTTCCGGCGCTGGTCACCACCCTTCACGATTCAATGCGACCGCTTACCTCATCAAAACCAGTAAATATTGCTCGAGTAGCAAATTATCCCCCTGACGAGGTAATTCATCAATCATTTCCAAAAGCAACAATTATCTCTTTTACAAATTTATATCAGGCATTAGCATCCGTCTCAGCCGGACAGAATGATTACTTTATTGGTAGTAACATCATTACCAGCAGTATGATTTCCCGCTATTTCACTCACTCCTTAAATGTAGTGAAATATTATAACTCACCGCGTCAATATAACTTCTTCTTAACCAGAAAAGAATCTGTCATTCTTAATGAAGTACTCAATCGATTTGTTGATGCTTTAACAAATGAAGTTCGCTATGAAGTATCACAAAATTGGCTTGATACAGGAAACCTGGCCTTTCTGAACAAGCCATTAGAACTCACTGAACATGAAAAACAGTGGATTAAGCAGCATCCCGATTTAAAGGTGCTGGAAAATCCTTACTCGCCCCCCTATTCTATGACGGATGAAAATGGCTCGGTTCGGGGCGTTATGGGGGACATTCTTAATATTATTACCTTGCAAACAGGTTTAAATTTTTCTCCGATCACCGTTTCACACAATATCCATGCTGGAACACAGCTGAATCCCGGCGGATGGGATATATTACCCGGTGCTATTTATAGTGAAGATAGAGAAAATAATGTTTTATTTGCTGAAGCCTTCATAACAACGCCTTACGTTTTTGTCATGCAAAAAGCGCCTGACAGTGAACAAACATTAAAAAAAGGAATGAAAGTTGCCATTCCATATTATTATGAGCTTCATTCGCAATTAAAAGAGATGTATCCGGAGGTAGAGTGGATAAAAGTCGATAACGCCAGCGCTGCATTTCACAAGGTCAAGGAAGGCGAACTTGATGCTCTGGTCGCGACACAGTTAAATTCACGTTACATGATCGACCATTACTATCCTAATGAACTGTATCATTTTCTTATTCCCGGCGTTCCGAATGCATCGCTTTCGTTCGCTTTTCCTCGCGGAGAACCGGAACTTAAGGATATTATTAATAAAGCACTGAATGCAATCCCCCCAAGCGAAGTTCTGCGCCTGACCGAAAAATGGATTAAAATGCCCAATGTGACCATTGACACATGGGACCTCTATAGCGAGCAATTTTATATTGTTACGACATTATCCGTTTTATTAGTTGGCAGTAGCCTTTTATGGGGATTCTACCTGTTACGCTCAGTTCGTCGTCGTAAAGTCATTCAGGGTGATTTAGAAAACCAAATATCATTCCGGAAAGCGCTCTCGGACTCCTTACCGAATCCAACTTATGTTGTAAACTGGCAAGGTAATGTCATTAGTCACAATAGTGCATTTGAACATTATTTCACTGCTGATTACTACAAAAATGCAATGTTGCCATTAGAAAACAGTGAATCACCCTTTAAAGATGTTTTTTCTAATACGCATGAAGTCACAGCAGAGACGAAAGAAAACCGAACAATATACACACAGGTATTTGAAATTGATAATGGCATCGAGAAAAGATGCATTAATCACTGGCATACATTATGTAATCTGCCAGCCAGCGAACATGCTGTTTATATTTGTGGTTGGCAAGATATTACCGAGACGCGTGATTTAATTCATGCACTCGAAGTAGAGAGAAATAAAGCGATCAATGCAACTGTCGCAAAAAGTCAGTTTCTGGCAACAATGAGTCACGAAATAAGAACACCAATAAGCTCCATTATGGGCTTCCTGGAACTTCTGTCGGGTTCTGGTCTTAGCAAGGAGCAACGGGTGGAGGCGATTTCACTAGCCTACGCCACCGGACAATCACTCCTCGGCTTAATTGGTGAAATCCTTGATGTCGACAAAATTGAATCGGGTAACTATCAACTTCAACCACAATGGGTCGATATCCCTACTTTAGTCCAGAACACTTGTCACTCTTTCGGTGCGATTGCTGCAAGCAAATCGATCGCATTAAGTTGCAGCAGTACATTTCCTGATCATTACCTGGTTAAGATCGACCCTCAGGCGTTTAAGCAGGTCTTATCAAATTTACTGAGTAATGCTCTCAAATTTACCACCGAGGGGGCAGTAAAAATTACGACCTCCCTGGTTCACATTGATGACAACCACGCTGTAATCAAAATGACGATTATGGATTCTGGAAGTGGATTATCACAGGAAGAACAACAACAACTGTTTAAACGTTATAGCCAAACAAGTGCAGGTCGTCAGCAAACAGGTTCTGGTTTAGGCTTAATGATCTGCAAAGAATTAATTAAAAACATGCAGGGTGATTTGTCATTAGAAAGTCATCCAGGCATAGGAACAACATTTACGATCACAATCCCGGTAGAAATTATCCAACAAGTGGCGGCTGTCGAGGCAAAAGCAGAACAACCCATCACACTACCTGAAAAGTTGAGCATATTAATCGCGGATGATCATCCGACCAACAGGCTATTACTCAAACGCCAGCTAAATCTATTAGGATATGATGTTGATGAAGCCACTGATGGTGTGCAAGCGCTACACAAAGTCAGTATGCAACATTATGATCTGCTTATTACTGACGTTAATATGCCGAATGTGGATGGTTTTGAGTTGACTCGCAAACTCCGTGAGCAAAATTCGTCCTTACCCATCTGGGGGCTTACAGCCAACGCACAGGCTAACGAACGTGAAAAAGGGTTAAATTGCGGCATGAACTTATGTTTGTTCAAACCGTTGACCCTGGATGTACTGAAAACACATTTAAGTCAGTTACACCAGGTTGCGCATATTGTACCTCAGTATCGCCACCTTGATATCGAGGCCCTGAAAAATAATACGGCGAACGATCTACAACTGATGCAGGAGATTCTCATGACTTTCCAGCATGAAACACATAAAGATTTACCCGCTGCGTTTCATGCACTAGAAGCTGGCGATAATAGAACTTTCCATCAGTGTATTCATCGCATCCACGGTGCGGCTAACATCCTGAATTTGCAAAAGTTGATTAATATTAGCCATCAGTTAGAAATAACACCTGTTTCAGATGACAGTAAGCCTGAAATTCTTCAGTTGCTAAACTCTGTAAAAGAACACATTGCAGAGCTAGACCAGGAAATTGCTGTTTTCTGTCAACAAAATAACTAA</t>
-  </si>
-  <si>
-    <t>MKFLPYIFLLCCGLWSTISFADEDYIEYRGISSNNRVTLDPLRLSNKELRWLASKKNLVIAVHKSQTATLLHTDSQQRVRGINADYLNLLKRALNIKLTLREYADHQKAMDALEEGEVDIVLSHLVASPPLNDDIAATKPLIITFPALVTTLHDSMRPLTSSKPVNIARVANYPPDEVIHQSFPKATIISFTNLYQALASVSAGQNDYFIGSNIITSSMISRYFTHSLNVVKYYNSPRQYNFFLTRKESVILNEVLNRFVDALTNEVRYEVSQNWLDTGNLAFLNKPLELTEHEKQWIKQHPDLKVLENPYSPPYSMTDENGSVRGVMGDILNIITLQTGLNFSPITVSHNIHAGTQLNPGGWDILPGAIYSEDRENNVLFAEAFITTPYVFVMQKAPDSEQTLKKGMKVAIPYYYELHSQLKEMYPEVEWIKVDNASAAFHKVKEGELDALVATQLNSRYMIDHYYPNELYHFLIPGVPNASLSFAFPRGEPELKDIINKALNAIPPSEVLRLTEKWIKMPNVTIDTWDLYSEQFYIVTTLSVLLVGSSLLWGFYLLRSVRRRKVIQGDLENQISFRKALSDSLPNPTYVVNWQGNVISHNSAFEHYFTADYYKNAMLPLENSESPFKDVFSNTHEVTAETKENRTIYTQVFEIDNGIEKRCINHWHTLCNLPASEHAVYICGWQDITETRDLIHALEVERNKAINATVAKSQFLATMSHEIRTPISSIMGFLELLSGSGLSKEQRVEAISLAYATGQSLLGLIGEILDVDKIESGNYQLQPQWVDIPTLVQNTCHSFGAIAASKSIALSCSSTFPDHYLVKIDPQAFKQVLSNLLSNALKFTTEGAVKITTSLVHIDDNHAVIKMTIMDSGSGLSQEEQQQLFKRYSQTSAGRQQTGSGLGLMICKELIKNMQGDLSLESHPGIGTTFTITIPVEIIQQVAAVEAKAEQPITLPEKLSILIADDHPTNRLLLKRQLNLLGYDVDEATDGVQALHKVSMQHYDLLITDVNMPNVDGFELTRKLREQNSSLPIWGLTANAQANEREKGLNCGMNLCLFKPLTLDVLKTHLSQLHQVAHIVPQYRHLDIEALKNNTANDLQLMQEILMTFQHETHKDLPAAFHALEAGDNRTFHQCIHRIHGAANILNLQKLINISHQLEITPVSDDSKPEILQLLNSVKEHIAELDQEIAVFCQQNN</t>
-  </si>
-  <si>
-    <t>MKFLPYIFLLCCGLWSTISFADEDYIEYRGISSNNRVTLDPLRLSNKELRWLASKKNLVIAVHKSQTATLLHTDSQQRVRGINADYLNLLKRALNIKLTLREYADHQKAMDALAEGEVDIVLSHLVTSPPLNNDIAATKPLIITFPALVTTLHDSMRPLTSPKPVNIARVANYPPDEVIHQSFPKATIISFTNLYQALASVSAGHNDYFIGSNIITSSMISRYFTHSLNVVKYYNSPRQYNFFLTRKESVILNEVLNRFVDALTNEVRYEVSQNWLDTGNLAFLNKPLELTEHEKQWIKQHPNLKVLENPYSPPYSMTDENGSVRGVMGDILNIITLQTGLNFSPITVSHNIHAGTQLSPGGWDIIPGAIYSEDRENNVLFAEAFITTPYVFVMQKAPDSEQTLKKGMKVAIPYYYELHSQLKEMYPEVEWIQVDNASAAFHKVKEGELDALVATQLNSRYMIDHYYPNELYHFLIPGVPNASLSFAFPRGEPELKDIINKALNAIPPSEVLRLTEKWIKMPNVTIDTWDLYSEQFYIVTTLSVLLVGSSLLWGFYLLRSVRRRKVIQGDLENQISFRKALSDSLPNPTYVVNWQGNVISHNSAFEHYFTADYYKNAMLPLENSDSPFKDVFSNAHEVTAETKENRTIYTQVFEIDNGIEKRCINHWHTLCNLPASDNAVYICGWQDITETRDLINALEVEKNKAIKATVAKSQFLATMSHEIRTPISSIMGFLELLSGSGLSKEQRVEAISLAYATGQSLLGLIGEILDVDKIESGNYQLQPQWVDIPTLVQNTCHSFGAIAASKSIALSCSSTFPEHYLVKIDPQAFKQVLSNLLSNALKFTTEGAVKITTSLGHIDDNHAVIKMTIMDSGSGLSQEEQQQLFKRYSQTSAGRQQTGSGLGLMICKELIKNMQGDLSLESHPGIGTTFTITIPVEISQQVATVEAKAEQPITLPEKLSILIADDHPTNRLLLKRQLNLLGYDVDEATDGVQALHKVSMQHYDLLITDVNMPNMDGFELTRKLREQNSSLPIWGLTANAQANEREKGLSCGMNLCLFKPLTLDVLKTHLSQLHQVAHIAPQYRHLDIEALKNNTANDLQLMQEILMTFQHETHKDLPAAFQALEAGDNRTFHQCIHRIHGAANILNLQKLINISHQLEITPVSDDSKPEILQLLNSVKEHIAELDQEIAVFCQKND</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1215|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00024_20 # 16506 # 16889 # -1 # ID=24_20;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.456</t>
-  </si>
-  <si>
-    <t>contig00024_20</t>
-  </si>
-  <si>
-    <t>marA</t>
-  </si>
-  <si>
-    <t>fluoroquinolone antibiotic; monobactam; carbapenem; cephalosporin; glycylcycline; cephamycin; penam; tetracycline antibiotic; rifamycin antibiotic; phenicol antibiotic; penem; disinfecting agents and antiseptics</t>
-  </si>
-  <si>
-    <t>antibiotic efflux; reduced permeability to antibiotic</t>
-  </si>
-  <si>
-    <t>resistance-nodulation-cell division (RND) antibiotic efflux pump; General Bacterial Porin with reduced permeability to beta-lactams</t>
-  </si>
-  <si>
-    <t>ATGTCCAGACGCAATACTGACGCTATTACCATTCATAGCATTTTGGACTGGATCGAGGACAACCTGGAATCACCACTGTCACTGGAGAAAGTGTCAGAGCGTTCGGGTTACTCTAAATGGCACCTGCAACGGATGTTTAAAAAAGAAACCGGTCATTCATTAGGCCAATACATCCGCAGCCGTAAGATGACGGAAATCGCGCAAAAGCTGAAGGAAAGTAACGAGCCGATACTCTATCTGGCAGAACGATATGGCTTCGAGTCGCAACAAACTCTGACCCGAACCTTCAAAAATTACTTTGATGTTCCGCCGCATAAATACCGGATGACCAATATGCAGGGCGAATCGCGCTTTTTACATCCATTAAACCATTACAACAGCTAG</t>
-  </si>
-  <si>
-    <t>MSRRNTDAITIHSILDWIEDNLESPLSLEKVSERSGYSKWHLQRMFKKETGHSLGQYIRSRKMTEIAQKLKESNEPILYLAERYGFESQQTLTRTFKNYFDVPPHKYRMTNMQGESRFLHPLNHYNS</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1773|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00025_57 # 58725 # 59693 # -1 # ID=25_57;partial=00;start_type=ATG;rbs_motif=AGGA;rbs_spacer=5-10bp;gc_cont=0.502</t>
-  </si>
-  <si>
-    <t>contig00025_57</t>
-  </si>
-  <si>
-    <t>PmrF</t>
-  </si>
-  <si>
-    <t>ATGTTTGAAATCCACCCTGTTAAGAAAGTCTCGGTGGTTATTCCCGTTTATAACGAGCAGGAAAGCTTACCGGAATTAATCAGGCGCACCACCACAGCCTGTGAATCGTTGGGGAAAGAGTATGAGATCCTGCTGATTGATGACGGCAGTAGCGATAATTCCGCGCATATACTGGTCGAAGCCTCACAAGCGGAGAACAGCCATATTGTATCTATTTTGCTTAACCGCAATTACGGGCAACATTCAGCGATTATGGCGGGATTCAGTCACGTTACTGGCGACTTAATTATTACCCTTGATGCCGATCTCCAGAATCCGCCAGAAGAAATCCCCCGCCTGGTGGCAAAAGCCGATGAAGGTTACGACGTGGTAGGGACTGTACGCCAGAACCGCCAGGACAGCTGGTTTCGTAAAACAGCTTCGAAGATGATTAACCGGCTTATTCAGCGCACCACCGGCAAAGCGATGGGTGACTACGGTTGTATGCTGCGCGCCTATCGCCGTCATATTGTCGATGCGATGTTGCACTGCCATGAACGCAGCACCTTTATCCCGATTCTGGCGAATATCTTCGCCCGCCGTGCCATTGAAATTCCAGTGCATCATGCCGAGCGTGAGTATGGTGAATCCAAATACAGCTTTATGCGCCTGATTAATTTGATGTACGACCTGGTGACCTGCCTTACCACAACGCCGCTACGTATGCTGAGTCTGCTCGGCAGCATTATTGCGATTGGAGGTTTTAGCATTGCGGTGCTGCTGGTGATTTTACGCCTGACCTTCGGACCACAATGGGCGGCAGAAGGCGTCTTTATGCTATTTGCCGTGCTGTTTACTTTTATTGGCGCTCAGTTTATCGGCATGGGATTACTCGGTGAATATATCGGCAGGATCTACACCGATGTCCGCGCCCGCCCCCGCTATTTTGTTCAGCAAGTTATCCGTCCATCCAGCAAGGAAAATGAATAA</t>
-  </si>
-  <si>
-    <t>MFEIHPVKKVSVVIPVYNEQESLPELIRRTTTACESLGKEYEILLIDDGSSDNSAHILVEASQAENSHIVSILLNRNYGQHSAIMAGFSHVTGDLIITLDADLQNPPEEIPRLVAKADEGYDVVGTVRQNRQDSWFRKTASKMINRLIQRTTGKAMGDYGCMLRAYRRHIVDAMLHCHERSTFIPILANIFARRAIEIPVHHAEREYGESKYSFMRLINLMYDLVTCLTTTPLRMLSLLGSIIAIGGFSIAVLLVILRLTFGPQWAAEGVFMLFAVLFTFIGAQFIGMGLLGEYIGRIYTDVRARPRYFVQQVIRPSSKENE</t>
-  </si>
-  <si>
-    <t>MFEIHPVKKVSVVIPVYNEQESLPELIRRTTTACESLGKEYEILLIDDGSSDNSAHMLVEASQAENSHIVSILLNRNYGQHSAIMAGFSHVTGDLIITLDADLQNPPEEIPRLVAKADEGYDVVGTVRQNRQDSWFRKTASKMINRLIQRTTGKAMGDYGCMLRAYRRHIVDAMLHCHERSTFIPILANIFARRAIEIPVHHAEREFGESKYSFMRLINLMYDLVTCLTTTPLRMLSLLGSIIAIGGFSIAVLLVILRLTFGPQWAAEGVFMLFAVLFTFIGAQFIGMGLLGEYIGRIYTDVRARPRYFVQQVIRPSSKENE</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1938|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00030_22 # 18893 # 19222 # -1 # ID=30_22;partial=00;start_type=ATG;rbs_motif=GGAGG;rbs_spacer=5-10bp;gc_cont=0.518</t>
-  </si>
-  <si>
-    <t>contig00030_22</t>
-  </si>
-  <si>
-    <t>Klebsiella pneumoniae KpnF</t>
-  </si>
-  <si>
-    <t>macrolide antibiotic; aminoglycoside antibiotic; cephalosporin; tetracycline antibiotic; peptide antibiotic; rifamycin antibiotic; disinfecting agents and antiseptics</t>
-  </si>
-  <si>
-    <t>small multidrug resistance (SMR) antibiotic efflux pump</t>
-  </si>
-  <si>
-    <t>ATGGCGCAGTTTGAATGGGTTCACGCCGCCTGGCTGGCATTGGCAATCGTGCTGGAAATCGTTGCTAACGTCTTTTTGAAATTTTCTGACGGCTTTCGTCGCAAAATATTTGGCTTGCTCTCCCTGGCGGCGGTGCTGGCTGCCTTTAGTGCGCTTTCTCAGGCCGTTAAAGGGATCGACTTGTCTGTCGCTTATGCATTGTGGGGCGGGTTTGGTATTGCCGCCACGTTAGCCGCAGGTTGGATCTTGTTTGGTCAACGGTTAAATCGTAAAGGCTGGATTGGCCTGGTCTTGCTGTTGGCTGGAATGATCATGGTGAAACTTGCCTGA</t>
-  </si>
-  <si>
-    <t>MAQFEWVHAAWLALAIVLEIVANVFLKFSDGFRRKIFGLLSLAAVLAAFSALSQAVKGIDLSVAYALWGGFGIAATLAAGWILFGQRLNRKGWIGLVLLLAGMIMVKLA</t>
-  </si>
-  <si>
-    <t>MQQFEWIHAAWLAIAIVLEIIANVFLKFSDGFRRKIYGILSLAAVLGAFSALSQAVKGIDLSVAYALWGGFGIAATIAAGWVLFGQRLNNKGWAGVILLVAGMVLIKLA</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|2724|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00030_23 # 19209 # 19574 # -1 # ID=30_23;partial=00;start_type=ATG;rbs_motif=AGGAG;rbs_spacer=5-10bp;gc_cont=0.421</t>
-  </si>
-  <si>
-    <t>contig00030_23</t>
-  </si>
-  <si>
-    <t>Klebsiella pneumoniae KpnE</t>
-  </si>
-  <si>
-    <t>ATGTATATTTATTGGATTTTATTAGGTCTGGCTATTGCTACAGAAATTACCGGTACGCTGTCTATGAAATGGGCGAGCGTCAGTGAGGGAAATGGCGGCTTTATTTTAATGCTGGTGATGATTTCTCTGTCGTATATATTTCTCTCTTTCGCTGTTAAAAAAATAGCCTTAGGTGTGGCTTATGCGCTGTGGGAAGGTATCGGTATTTTATTTATTACCTTGTTTAGCGTTTTGTTATTCGACGAAAGTTTATCGCTGATGAAAATTGCCGGGTTAACCACCCTGGTCGCCGGGATAGTGTTGATCAAATCAGGTACCCGTAAAGCACGTAAACCTGAACTGGAGGTGAACCATGGCGCAGTTTGA</t>
-  </si>
-  <si>
-    <t>MYIYWILLGLAIATEITGTLSMKWASVSEGNGGFILMLVMISLSYIFLSFAVKKIALGVAYALWEGIGILFITLFSVLLFDESLSLMKIAGLTTLVAGIVLIKSGTRKARKPELEVNHGAV</t>
-  </si>
-  <si>
-    <t>MFYWILLALAIIAEITGTLSMKWASVSGGHTGFILMLAMIALSYIFLAFAVKKIALGVAYALWEGIGILLITLFSVLLFDESLSLLKIAGLTTLVIGIVLIKSGTQKKASSQQEVAHAAV</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|2722|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00031_39 # 43057 # 43587 # 1 # ID=31_39;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.492</t>
-  </si>
-  <si>
-    <t>contig00031_39</t>
-  </si>
-  <si>
-    <t>emrR</t>
-  </si>
-  <si>
-    <t>ATGGATAGTTCGTTTACGCCCATTGAACAAATGCTAAAATTTCGCGCCAGCCGCCACGAAGATTTTCCTTATCAGGAGATCCTTCTGACTCGTCTTTGCATGCATATGCAAAGCAAGCTGCTGGAGAACCGCAATAAAATGCTGAAGGCTCAGGGGATTAACGAGACGTTGTTTATGGCGTTGATTACGCTGGAGTCTCAGGAAAACCACAGTATTCAGCCTTCTGAATTAAGTTGTGCTCTTGGATCATCCCGTACCAACGCGACGCGTATTGCCGATGAACTGGAAAAACGCGGTTGGATCGAACGTCGTGAAAGCGATAACGATCGCCGCTGCCTGCATCTGCAATTAACGGAAAAAGGTCACGAGTTTTTGCGCGAGGTTTTACCACCGCAGCATAACTGCCTGCATCAACTCTGGTCCGCGCTCAGCACAACAGAAAAAGACCAGCTCGAGCAAATCACCCGCAAATTGCTCTCCCGTCTCGACCAGATGGAACAAGACGGTGTGGTTCTCGAAGCGATGAGCTAA</t>
-  </si>
-  <si>
-    <t>MDSSFTPIEQMLKFRASRHEDFPYQEILLTRLCMHMQSKLLENRNKMLKAQGINETLFMALITLESQENHSIQPSELSCALGSSRTNATRIADELEKRGWIERRESDNDRRCLHLQLTEKGHEFLREVLPPQHNCLHQLWSALSTTEKDQLEQITRKLLSRLDQMEQDGVVLEAMS</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1226|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00031_40 # 43714 # 44886 # 1 # ID=31_40;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.534</t>
-  </si>
-  <si>
-    <t>contig00031_40</t>
-  </si>
-  <si>
-    <t>emrA</t>
-  </si>
-  <si>
-    <t>ATGAGCGCAAATGCGGAGACTCAAACCCCGCAGCAACCGGTAAAGAAGAGCGGCAAACGTAAGCGTCTGCTCCTCCTTCTCACCTTGCTCTTTATAATTATTGCCGTAGCGATAGGGATTTATTGGTTTTTGGTACTGCGTCACTTCGAAGAAACCGATGACGCATACGTGGCAGGGAATCAAATTCAAATTATGTCTCAGGTGTCTGGCAGCGTGACGAAAGTCTGGGCCGATAACACCGATTTTGTAAAAGAAGGCGACGTGCTGGTCACTCTCGACCCGACAGATGCTCGCCAGGCGTTTGAAAAAGCCAAAACTGCACTGGCTTCCAGCGTTCGCCAAACCCACCAGCAGATGATTAACAGCAAGCAGTTGCAGGCGAATATTGAGGTGCAAAAAATCGCCCTCGCGAAAGCACAAAGCGACTACAACCGCCGTGTGCCGCTGGGCAATGCCAACCTGATTGGTCGCGAAGAGCTGCAACACGCCCGCGACGCCGTTACCAGTGCCCAGGCGCAACTGGACGTCGCGATTCAACAATACAATGCCAATCAGGCGATGATTCTGGGGACTAAACTGGAAGATCAGCCTGCCGTGCAACAGGCTGCCACCGAAGTACGTAACGCCTGGCTGGCGCTGGAGCGTACTCGTATTGTCAGTCCGATGACCGGTTATGTCTCCCGCCGCGCGGTACAGCCTGGGGCGCAAATTAGCCCAACGACGCCGCTGATGGCGGTCGTTCCAGCCACCAATATGTGGGTGGATGCCAACTTTAAAGAGACGCAGATTGCCAATATGCGTATCGGTCAGCCGGTCACTATCACCACCGATATTTACGGCGATGATGTGAAATACACCGGTAAAGTGGTTGGTCTGGATATGGGCACAGGTAGCGCGTTCTCACTGCTTCCGGCGCAAAATGCGACCGGTAACTGGATCAAAGTCGTTCAGCGTCTGCCTGTGCGTATCGAACTGGACCAGAAACAGCTGGAGCAATACCCGCTGCGTATCGGTTTATCCACGCTGGTGAGCGTCAATACCACTAACCGTGACGGTCAGGTACTGGCAAATAAAGTACGTTCCACTCCGGTAGCGGTAAGCACCGCGCGTGAAATCAGCCTGGCACCTGTCAATAAACTGATCGACGATATCGTAAAAGCTAACGCTGGCTAA</t>
-  </si>
-  <si>
-    <t>MSANAETQTPQQPVKKSGKRKRLLLLLTLLFIIIAVAIGIYWFLVLRHFEETDDAYVAGNQIQIMSQVSGSVTKVWADNTDFVKEGDVLVTLDPTDARQAFEKAKTALASSVRQTHQQMINSKQLQANIEVQKIALAKAQSDYNRRVPLGNANLIGREELQHARDAVTSAQAQLDVAIQQYNANQAMILGTKLEDQPAVQQAATEVRNAWLALERTRIVSPMTGYVSRRAVQPGAQISPTTPLMAVVPATNMWVDANFKETQIANMRIGQPVTITTDIYGDDVKYTGKVVGLDMGTGSAFSLLPAQNATGNWIKVVQRLPVRIELDQKQLEQYPLRIGLSTLVSVNTTNRDGQVLANKVRSTPVAVSTAREISLAPVNKLIDDIVKANAG</t>
-  </si>
-  <si>
-    <t>MSANAETQTPQQPVKKSGKRKRLLLLLTLLFIIIAVAIGIYWFLVLRHFEETDDAYVAGNQIQIMSQVSGSVTKVWADNTDFVKEGDVLVTLDPTDARQAFEKAKTALASSVRQTHQLMINSKQLQANIEVQKIALAKAQSDYNRRVPLGNANLIGREELQHARDAVTSAQAQLDVAIQQYNANQAMILGTKLEDQPAVQQAATEVRNAWLALERTRIISPMTGYVSRRAVQPGAQISPTTPLMAVVPATNMWVDANFKETQIANMRIGQPVTITTDIYGDDVKYTGKVVGLDMGTGSAFSLLPAQNATGNWIKVVQRLPVRIELDQKQLEQYPLRIGLSTLVSVNTTNRDGQVLANKVRSTPVAVSTAREISLAPVNKLIDDIVKANAG</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1611|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00031_41 # 44903 # 46441 # 1 # ID=31_41;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.562</t>
-  </si>
-  <si>
-    <t>contig00031_41</t>
-  </si>
-  <si>
-    <t>emrB</t>
-  </si>
-  <si>
-    <t>ATGCAACAGCAAAAACCGCTGGAAGGCGCGCAACTGGTCATTATGACGATTGCGCTGTCACTAGCGACATTCATGCAGGTGCTGGACTCCACCATTGCTAACGTGGCGATCCCCACTATCGCCGGGAATCTTGGCTCATCGCTCAGCCAGGGAACGTGGGTAATCACTTCTTTCGGGGTGGCGAATGCCATCTCGATCCCGCTTACCGGCTGGCTGGCAAAGCGCGTCGGGGAAGTGAAACTGTTCCTCTGGTCAACCATCGCCTTTGCTATTGCGTCGTGGGCGTGTGGTGTCTCCAGCAGCCTGAATATGCTGATCTTCTTCCGCGTGATTCAGGGGATTGTCGCCGGGCCGTTGATCCCGCTTTCGCAAAGTCTATTGCTGAATAATTACCCGCCAGCCAAACGCTCAATCGCGCTGGCGTTGTGGTCGATGACGGTGATTGTCGCGCCAATTTGCGGCCCAATCCTCGGCGGATATATCAGCGATAATTACCACTGGGGCTGGATATTCTTCATCAACGTGCCGATTGGCGTGGCGGTGGTGTTGATGACACTGCAAACTCTGCGCGGACGTGAAACCCGCACCGAACGGCGGCGGATTGATGCCGTGGGGCTGGCACTGCTGGTTATTGGTATCGGCAGCCTGCAGATTATGCTCGACCGCGGTAAAGAGCTGGACTGGTTTTCATCACAGGAAATTATCATCCTTACCGTGGTGGCGGTGGTGGCTATCTGCTTCCTGATCGTCTGGGAGCTGACCGACGATAACCCGATAGTCGATCTGTCGTTGTTTAAGTCGCGCAACTTCACCATCGGCTGTTTGTGTATCAGCCTCGCGTATATGCTCTACTTCGGCGCGATTGTTCTGCTGCCGCAGTTGTTGCAGGAGGTCTACGGTTACACGGCGACCTGGGCAGGTTTGGCCTCTGCGCCGGTAGGGATTATTCCAGTGATCCTGTCGCCGATTATCGGCCGCTTCGCGCATAAACTGGATATGCGCCGACTGGTAACCTTCAGCTTTATTATGTATGCCGTCTGCTTCTACTGGCGTGCCTATACCTTTGAACCAGGTATGGATTTTGGCGCGTCGGCCTGGCCGCAGTTTATCCAGGGGTTTGCGGTGGCCTGCTTCTTTATGCCGCTGACCACCATTACGCTGTCTGGTTTGCCACCGGAACGACTGGCGGCGGCATCGAGCCTCTCCAACTTTACGCGTACGCTGGCGGGGTCTATCGGCACGTCGATAACCACAACCATGTGGACCAACCGCGAGTCGATGCACCATGCGCAGTTGACTGAGTCGGTAAACCCGTTCAACCCGAATGCCCAGGCGATGTACAGTCAACTGGAAGGGCTTGGGATGACACAACAGCAGGCATCAGGCTGGATTGCCCAGCAGATCACCAATCAGGGGCTGATTATTTCCGCCAATGAGATCTTCTGGATGTCGGCCGGGATATTCCTCGTCTTGCTGGGGCTGGTGTGGTTTGCTAAACCGCCCTTTGGCGCAGGTGGCGGCGGAGGCGGTGCGCACTAA</t>
-  </si>
-  <si>
-    <t>MQQQKPLEGAQLVIMTIALSLATFMQVLDSTIANVAIPTIAGNLGSSLSQGTWVITSFGVANAISIPLTGWLAKRVGEVKLFLWSTIAFAIASWACGVSSSLNMLIFFRVIQGIVAGPLIPLSQSLLLNNYPPAKRSIALALWSMTVIVAPICGPILGGYISDNYHWGWIFFINVPIGVAVVLMTLQTLRGRETRTERRRIDAVGLALLVIGIGSLQIMLDRGKELDWFSSQEIIILTVVAVVAICFLIVWELTDDNPIVDLSLFKSRNFTIGCLCISLAYMLYFGAIVLLPQLLQEVYGYTATWAGLASAPVGIIPVILSPIIGRFAHKLDMRRLVTFSFIMYAVCFYWRAYTFEPGMDFGASAWPQFIQGFAVACFFMPLTTITLSGLPPERLAAASSLSNFTRTLAGSIGTSITTTMWTNRESMHHAQLTESVNPFNPNAQAMYSQLEGLGMTQQQASGWIAQQITNQGLIISANEIFWMSAGIFLVLLGLVWFAKPPFGAGGGGGGAH</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1707|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00036_20 # 21791 # 22204 # -1 # ID=36_20;partial=00;start_type=ATG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.476</t>
-  </si>
-  <si>
-    <t>contig00036_20</t>
-  </si>
-  <si>
-    <t>H-NS</t>
-  </si>
-  <si>
-    <t>macrolide antibiotic; fluoroquinolone antibiotic; cephalosporin; cephamycin; penam; tetracycline antibiotic</t>
-  </si>
-  <si>
-    <t>ATGAGCGAAGCACTTAAAATTCTGAACAACATCCGTACTCTTCGTGCGCAGGCAAGAGAATGTACACTTGAAACGCTGGAAGAAATGCTGGAAAAATTAGAAGTTGTTGTTAACGAACGTCGCGAAGAAGAAAGCGCGGCTGCTGCTGAAGTTGAAGAGCGCACTCGTAAACTGCAGCAATATCGCGAAATGCTGATCGCTGACGGTATTGACCCGAACGAGCTGCTGAATAGCCTTGCCGCCGTTAAATCTGGCACCAAAGCTAAACGTGCTCAGCGTCCGGCAAAATATAGCTACGTTGACGAAAACGGCGAAACTAAAACCTGGACTGGCCAGGGCCGTACTCCAGCTGTAATCAAAAAAGCAATGGATGAGCAAGGTAAATCCCTCGACGATTTCCTGATCAAGCAATAA</t>
-  </si>
-  <si>
-    <t>MSEALKILNNIRTLRAQARECTLETLEEMLEKLEVVVNERREEESAAAAEVEERTRKLQQYREMLIADGIDPNELLNSLAAVKSGTKAKRAQRPAKYSYVDENGETKTWTGQGRTPAVIKKAMDEQGKSLDDFLIKQ</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1145|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00046_7 # 7913 # 8590 # 1 # ID=46_7;partial=00;start_type=GTG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.566</t>
-  </si>
-  <si>
-    <t>contig00046_7</t>
-  </si>
-  <si>
-    <t>kdpE</t>
-  </si>
-  <si>
-    <t>kdpDE</t>
-  </si>
-  <si>
-    <t>GTGACAAACGTTCTGATTGTTGAAGATGAACAGGCTATTCGTCGCTTTCTGCGCACGGCGCTGGAGGGCGACGGGATGCGCGTCTATGAGGCCGAAACGCTGCAACGCGGCTTGCTGGAAGCGGCTACCCGTAAGCCAGATTTGATTATTCTCGATCTCGGCCTGCCCGATGGTGATGGGATTGAGTTTATCCGCGACCTGCGCCAGTGGAGCGCGGTGCCGGTGATTGTGCTTTCCGCACGCAGCGAAGAGAGCGACAAAATCGCCGCGCTGGATGCCGGAGCGGATGATTATCTAAGTAAGCCGTTTGGCATTGGCGAATTGCAGGCCCGTCTGCGCGTCGCTTTACGCCGCCACTCCGCCACCGCCGCGCCCGATCCGCTGGTGAAATTTTCCGATGTTACCGTCGATTTAGCCGCCCGCGTGATTCACCGGGGTGAGGAAGAGGTGCATCTCACCCCGATTGAGTTTCGCCTGCTGGCAGTGCTGCTCAACAACGCCGGAAAAGTGCTCACCCAGCGCCAACTCCTTAACCAGGTGTGGGGGCCAAACGCGGTCGAACACAGTCATTATTTGCGTATTTATATGGGACATCTGCGACAAAAACTGGAACAGGATCCCGCTCGCCCCAGCCATTTCATTACTGAAACCGGTATTGGTTATCGGTTTATGCTTTGA</t>
-  </si>
-  <si>
-    <t>MTNVLIVEDEQAIRRFLRTALEGDGMRVYEAETLQRGLLEAATRKPDLIILDLGLPDGDGIEFIRDLRQWSAVPVIVLSARSEESDKIAALDAGADDYLSKPFGIGELQARLRVALRRHSATAAPDPLVKFSDVTVDLAARVIHRGEEEVHLTPIEFRLLAVLLNNAGKVLTQRQLLNQVWGPNAVEHSHYLRIYMGHLRQKLEQDPARPSHFITETGIGYRFML</t>
-  </si>
-  <si>
-    <t>MTNVLIVEDEQAIRRFLRTALEGDGMRVFEAETLQRGLLEAATRKPDLIILDLGLPDGDGIEFIRDLRQWSAVPVIVLSARSEESDKIAALDAGADDYLSKPFGIGELQARLRVALRRHSATTAPDPLVKFSDVTVDLAARVIHRGEEEVHLTPIEFRLLAVLLNNAGKVLTQRQLLNQVWGPNAVEHSHYLRIYMGHLRQKLEQDPARPRHFITETGIGYRFML</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|2104|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00364_1 # 2 # 220 # 1 # ID=364_1;partial=11;start_type=Edge;rbs_motif=None;rbs_spacer=None;gc_cont=0.393</t>
-  </si>
-  <si>
-    <t>contig00364_1</t>
-  </si>
-  <si>
-    <t>qacJ</t>
-  </si>
-  <si>
-    <t>disinfecting agents and antiseptics</t>
-  </si>
-  <si>
-    <t>ATGAACCCTTATATTTATCTTGGTGGTGCAATACTTGCAGAGGTCATTGGTACAACCTTAATGAAGTTTTCAGAAGGTTTTACACGGTTATGGCCATCTGTTGGTACAATTATTTGTTATTGTGCATCATTCTGGTTATTAGCTCAGACGCTGGCTTATATTCCTACAGGGATTGCTTATGCTATCTGGTCAGGAGTCGGTATTGTCCTGATTAGCTTA</t>
-  </si>
-  <si>
-    <t>MNPYIYLGGAILAEVIGTTLMKFSEGFTRLWPSVGTIICYCASFWLLAQTLAYIPTGIAYAIWSGVGIVLISL</t>
-  </si>
-  <si>
-    <t>MPYLYLVIAIITEIIGTSFLKTAEGFTKLWPTLGTLISFGICFYFLSVTMKYLPLNVSYATWAGLGLVLTTIVSVVIFKESVNLISIFSIILIIIGVVLLNVFGSSH</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|4663|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00001_114 # 129239 # 131005 # -1 # ID=1_114;partial=00;start_type=ATG;rbs_motif=AGGA/GGAG/GAGG;rbs_spacer=11-12bp;gc_cont=0.537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contig00001_114 </t>
-  </si>
-  <si>
-    <t>Haemophilus influenzae PBP3 conferring resistance to beta-lactam antibiotics</t>
-  </si>
-  <si>
-    <t>protein variant model</t>
-  </si>
-  <si>
-    <t>D350N, S357N</t>
-  </si>
-  <si>
-    <t>cephalosporin; cephamycin; penam</t>
-  </si>
-  <si>
-    <t>Penicillin-binding protein mutations conferring resistance to beta-lactam antibiotics</t>
-  </si>
-  <si>
-    <t>ATGAAAGCAGCGGCGAAAACGCAGAAACCAAAACGTCAGGAAGAACATGCCAACTTTATCAGTTGGCGTTTTGCGTTGTTATGCGGCTGTATTCTCCTGGCGCTGGCTTTTCTGCTCGGACGCGTAGCGTGGTTACAAGTTATCTCCCCGGATATGCTGGTGAAAGAGGGCGACATGCGTTCTCTTCGCGTTCAGCAAGTTTCCACCTCCCGCGGCATGATTACTGACCGTTCTGGTCGCCCGTTAGCGGTGAGCGTGCCGGTAAAAGCGATTTGGGCTGACCCGAAAGAAGTGCATGACGCTGGCGGTATCAGCGTCGGTGACCGCTGGAAGGCGCTGGCTAACGCGCTCAATATTCCGCTGGATCAGCTTTCTGCCCGCATTAACGCCAACCCGAAAGGGCGCTTTATTTATCTGGCGCGTCAGGTAAACCCTGACATGGCGGACTACATCAAAAAACTGAAACTGCCGGGAATTCATCTGCGTGAAGAATCTCGCCGTTATTATCCATCCGGCGAAGTGACTGCTCACCTCATCGGCTTTACTAACGTCGATAGTCAAGGTATTGAGGGCGTTGAGAAGAGTTTCGATAAATGGCTTACCGGGCAGCCGGGTGAGCGCATTGTGCGTAAAGACCGCTATGGTCGCGTAATTGAAGATATTTCTTCTACTGACAGCCAGGCTGCGCACAACCTGGCGCTGAGTATTGATGAACGCCTGCAGGCGCTGGTTTATCGCGAACTGAACAACGCGGTGGCCTTTAACAAGGCTGAGTCCGGTAGCGCCGTGCTGGTGGATGTCAACACCGGTGAAGTGCTGGCGATGGCTAACAGCCCGTCATACAACCCTAACAATCTGAGCGGCACGCCGAAAGAGGCGATGCGTAACCGTACCATCACCGACGTGTTTGAACCGGGTTCAACGGTTAAACCGATGGTGGTGATGACCGCGTTGCAACGTGGCGTGGTGCGGGAAAACTCGGTACTCAATACCATTCCTTATCGAATTAACGGCCACGAAATCAAAGACGTGGCACGCTACAGCGAATTAACCCTGACCGGAGTATTACAGAAGTCGAGTAACGTCGGTGTTTCCAAGCTGGCGTTAGCGATGCCGTCCTCAGCGTTAGTAGATACTTACTCACGTTTTGGACTGGGAAAAGCGACCAATTTGGGGTTGGTCGGAGAACGCAGTGGCTTATATCCTCAAAAACAACGGTGGTCTGACATAGAGAGGGCCACCTTCTCTTTCGGCTACGGGCTAATGGTAACTCCGTTACAGTTAGCGCGAGTCTACGCAACTATCGGCAGCTACGGCATTTATCGCCCACTGTCGATTACCAAAGTTGACCCCCCGGTTCCCGGTGAACGTGTCTTCCCGGAATCTATTGTCCGCACTGTGGTGCATATGATGGAAAGCGTGGCGCTACCGGGTGGCGGCGGCGTGAAGGCGGCGATTAAAGGCTATCGTATTGCCATTAAAACCGGTACCGCGAAAAAGGTCGGGCCGGACGGTCGCTACATCAATAAATATATTGCTTACACCGCAGGTGTTGCGCCTGCGAGTCAGCCGCGCTTCGCGCTGGTTGTTGTTATCAACGATCCGCAGGCGGGTAAATACTACGGCGGCGCCGTTTCCGCGCCGGTCTTTGGTGCCATCATGGGCGGCGTATTGCGAACCATGAACATCGAGCCGGATGCGCTGACAACGGGCGATAAAAATGAATTTGTGATTAATCAAGGCGAGGGGACAGGTGGCAGATCGTAA</t>
-  </si>
-  <si>
-    <t>MKAAAKTQKPKRQEEHANFISWRFALLCGCILLALAFLLGRVAWLQVISPDMLVKEGDMRSLRVQQVSTSRGMITDRSGRPLAVSVPVKAIWADPKEVHDAGGISVGDRWKALANALNIPLDQLSARINANPKGRFIYLARQVNPDMADYIKKLKLPGIHLREESRRYYPSGEVTAHLIGFTNVDSQGIEGVEKSFDKWLTGQPGERIVRKDRYGRVIEDISSTDSQAAHNLALSIDERLQALVYRELNNAVAFNKAESGSAVLVDVNTGEVLAMANSPSYNPNNLSGTPKEAMRNRTITDVFEPGSTVKPMVVMTALQRGVVRENSVLNTIPYRINGHEIKDVARYSELTLTGVLQKSSNVGVSKLALAMPSSALVDTYSRFGLGKATNLGLVGERSGLYPQKQRWSDIERATFSFGYGLMVTPLQLARVYATIGSYGIYRPLSITKVDPPVPGERVFPESIVRTVVHMMESVALPGGGGVKAAIKGYRIAIKTGTAKKVGPDGRYINKYIAYTAGVAPASQPRFALVVVINDPQAGKYYGGAVSAPVFGAIMGGVLRTMNIEPDALTTGDKNEFVINQGEGTGGRS</t>
-  </si>
-  <si>
-    <t>MVKFNSSRKSGKSKKTIRKLTAPETVKQNKPQKVFEKCFMRGRYMLSTVLILLGLCALVARAAYVQSINADTLSNEADKRSLRKDEVLSVRGSILDRNGQLLSVSVPMSAIVADPKTMLKENSLADKERIAALAEELGMTENDLVKKIEKNSKSGYLYLARQVELSKANYIRRLKIKGIILETEHRRFYPRVEEAAHVVGYTDIDGNGIEGIEKSFNSLLVGKDGSRTVRKDKRGNIVAHISDEKKYDAQDVTLSIDEKLQSMVYREIKKAVSENNAESGTAVLVDVRTGEVLAMATAPSYNPNNRVGVKSELMRNRAITDTFEPGSTVKPFVVLTALQRGVVKRDEIIDTTSFKLSGKEIVDVAPRAQQTLDEILMNSSNRGVSRLALRMPPSALMETYQNAGLSKPTDLGLIGEQVGILNANRKRWADIERATVAYGYGITATPLQIARAYATLGSFGVYRPLSITKVDPPVIGKRVFSEKITKDIVGILEKVAIKNKRAMVEGYRVGVKTGTARKIENGHYVNKYVAFTAGIAPISDPRYALVVLINDPKAGEYYGGAVSAPVFSNIMGYALRANAIPQDAEAAENTTTKSAKRIVYIGEHKNQKVN</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|2498|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00012_104 # 122222 # 123580 # -1 # ID=12_104;partial=00;start_type=ATG;rbs_motif=GGAGG;rbs_spacer=5-10bp;gc_cont=0.531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contig00012_104 </t>
-  </si>
-  <si>
-    <t>Escherichia coli GlpT with mutation conferring resistance to fosfomycin</t>
-  </si>
-  <si>
-    <t>E448K</t>
-  </si>
-  <si>
-    <t>phosphonic acid antibiotic</t>
-  </si>
-  <si>
-    <t>antibiotic-resistant GlpT</t>
-  </si>
-  <si>
-    <t>ATGTTGAGTATTTTTAAACCAGCGCCACACAAAGCGCGCTTACCTGCCGCGGAGATCGATCCGACTTATCGTCGATTGCGCTGGCAAATTTTCCTGGGGATATTCTTTGGCTATGCTGCTTACTATTTGGTTCGTAAGAACTTTGCGCTCGCTATGCCTTACCTGGTGGAGCAGGGATTCTCACGCGGTGATTTAGGTTTTGCGCTTTCTGGGATCTCGATCGCCTATGGATTTTCGAAATTCATCATGGGTTCGGTATCGGATCGCTCGAATCCGCGCGTTTTCCTGCCCGCAGGTTTGATTCTGGCGGCGGCAGTGATGTTGTTTATGGGCTTTGTGCCATGGGCGACGTCGAGCATTGCGGTGATGTTTGTACTGTTGTTCCTCTGCGGTTGGTTCCAGGGGATGGGGTGGCCGCCATGCGGTCGTACTATGGTGCACTGGTGGTCGCAGAAAGAACGTGGCGGCATTGTGTCAGTGTGGAACTGTGCGCACAACGTCGGTGGTGGTATTCCGCCGCTGCTGTTCCTGCTGGGGATGGCCTGGTTCAATGACTGGCACGCGGCGCTCTATATGCCCGCTTTCTGCGCCATTCTGGTGGCATTATTCGCCTTTGCGATGATGCGCGATACCCCGCAATCCTGTGGCTTGCCGCCGATCGAAGAGTACAAAAATGATTATCCGGACGACTATAACGAAAAAGCGGAACAGGAGCTGACCGCGAAGCAAATCTTCATGCAGTACGTGCTGCCGAACAAACTGTTGTGGTATATCGCCATCGCCAACGTGTTCGTTTATCTGCTGCGTTACGGCATCCTCGACTGGTCACCGACTTATCTGAAAGAGGTTAAGCATTTCGCGCTGGATAAATCCTCCTGGGCCTACTTCTTCTATGAGTATGCGGGTATTCCGGGCACCCTGCTGTGCGGCTGGATGTCGGATAAAGTCTTCCGTGGCAACCGTGGGGCAACCGGCGTTTTCTTTATGACACTGGTGACCATCGCGACTATCGTTTACTGGATGAACCCGGCAGGTAACCCAACCGTCGATATGATTTGTATGATTGTTATCGGCTTCCTGATCTACGGCCCTGTGATGCTGATCGGTCTGCATGCGCTGGAACTGGCACCGAAAAAAGCGGCAGGAACGGCAGCGGGCTTTACCGGTCTGTTTGGTTACCTGGGCGGTTCGGTGGCGGCGAGCGCGATTGTTGGCTACACCGTGGACTTCTTCGGCTGGGATGGCGGCTTTATGGTAATGATTGGCGGCAGCATTCTAGCGGTTATCTTGTTGATTGTTGTGATGATTGGCGAAAAACGTCGCCATCAGGAATTACTGCAAAAACGCAACGGAGGCTAA</t>
-  </si>
-  <si>
-    <t>MLSIFKPAPHKARLPAAEIDPTYRRLRWQIFLGIFFGYAAYYLVRKNFALAMPYLVEQGFSRGDLGFALSGISIAYGFSKFIMGSVSDRSNPRVFLPAGLILAAAVMLFMGFVPWATSSIAVMFVLLFLCGWFQGMGWPPCGRTMVHWWSQKERGGIVSVWNCAHNVGGGIPPLLFLLGMAWFNDWHAALYMPAFCAILVALFAFAMMRDTPQSCGLPPIEEYKNDYPDDYNEKAEQELTAKQIFMQYVLPNKLLWYIAIANVFVYLLRYGILDWSPTYLKEVKHFALDKSSWAYFFYEYAGIPGTLLCGWMSDKVFRGNRGATGVFFMTLVTIATIVYWMNPAGNPTVDMICMIVIGFLIYGPVMLIGLHALELAPKKAAGTAAGFTGLFGYLGGSVAASAIVGYTVDFFGWDGGFMVMIGGSILAVILLIVVMIGEKRRHQELLQKRNGG</t>
-  </si>
-  <si>
-    <t>MLSIFKPAPHKARLPAAEIDPTYRRLRWQIFLGIFFGYAAYYLVRKNFALAMPYLVEQGFSRGDLGFALSGISIAYGFSKFIMGSVSDRSNPRVFLPAGLILAAAVMLFMGFVPWATSSIAVMFVLLFLCGWFQGMGWPPCGRTMVHWWSQKERGGIVSVWNCAHNVGGGIPPLLFLLGMAWFNDWHAALYMPAFCAILVALFAFAMMRDTPQSCGLPPIEEYKNDYPDDYNEKAEQELTAKQIFMQYVLPNKLLWYIAIANVFVYLLRYGILDWSPTYLKEVKHFALDKSSWAYFLYEYAGIPGTLLCGWMSDKVFRGNRGATGVFFMTLVTIATIVYWMNPAGNPTVDMICMIVIGFLIYGPVMLIGLHALELAPKKAAGTAAGFTGLFGYLGGSVAASAIVGYTVDFFGWDGGFMVMIGGSILAVILLIVVMIGEKRRHEQLLQERNGG</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|2131|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00004_132 # 140178 # 140825 # 1 # ID=4_132;partial=00;start_type=ATG;rbs_motif=None;rbs_spacer=None;gc_cont=0.451</t>
-  </si>
-  <si>
-    <t>contig00004_132</t>
-  </si>
-  <si>
-    <t>Escherichia coli AcrAB-TolC with AcrR mutation conferring resistance to ciprofloxacin, tetracycline, and ceftazidime</t>
-  </si>
-  <si>
-    <t>protein overexpression model</t>
-  </si>
-  <si>
-    <t>antibiotic target alteration; antibiotic efflux</t>
-  </si>
-  <si>
-    <t>ATGGCACGAAAAACCAAACAAGAAGCGCAAGAAACGCGCCAACACATCCTCGATGTGGCTCTACGTCTTTTCTCACAGCAGGGGGTATCATCCACCTCGCTGGGTGAGATTGCAAAAGCAGCTGGCGTTACGCGCGGTGCAATCTACTGGCATTTTAAAGACAAGTCGGATTTGTTCAGTGAGATCTGGGAACTATCAGAATCCAATATTGGTGAACTAGAGCTTGAGTATCAGGCAAAATTCCCTGGCGATCCACTCTCAGTATTAAGAGAGATATTAATTCATGTTCTTGAATCCACGGTGACAGAAGAACGGCGTCGATTATTGATGGAGATTATATTCCACAAATGCGAATTTGTCGGAGAAATGGCTGTTGTGCAACAGGCACAACGTAATCTCTGTTTGGAAAGTTATGACCGTATAGAACAAACGTTAAAACATTGTATTGAAGCGAAAATGTTGCCTGCGGATTTAATGACGCGTCGGGCAGCAATTATTATGCGCGGCTATATTTCCGGCCTGATGGAAAACTGGCTCTTTGCCCCGCAATCTTTTGATCTTAAAAAAGAAGCCCGCGATTACGTCGCCATCTTACTGGAGATGTATCTCCTGTGCCCCACGCTTCGTAATCCTGCCACTAACGAATAA</t>
-  </si>
-  <si>
-    <t>MARKTKQEAQETRQHILDVALRLFSQQGVSSTSLGEIAKAAGVTRGAIYWHFKDKSDLFSEIWELSESNIGELELEYQAKFPGDPLSVLREILIHVLESTVTEERRRLLMEIIFHKCEFVGEMAVVQQAQRNLCLESYDRIEQTLKHCIEAKMLPADLMTRRAAIIMRGYISGLMENWLFAPQSFDLKKEARDYVAILLEMYLLCPTLRNPATNE</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|2091|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00006_103 # 115073 # 115537 # -1 # ID=6_103;partial=00;start_type=ATG;rbs_motif=AGGA/GGAG/GAGG;rbs_spacer=11-12bp;gc_cont=0.520</t>
-  </si>
-  <si>
-    <t>contig00006_103</t>
-  </si>
-  <si>
-    <t>Escherichia coli soxR with mutation conferring antibiotic resistance</t>
-  </si>
-  <si>
-    <t>ATGGAAAAGAAATTACCCCGCATTAAAGCGCTGCTAACCCCCGGCGAAGTGGCGAAACGCAGCGGTGTGGCGGTATCGGCGCTGCATTTCTATGAAAGCAAAGGGTTGATTACCAGTATCCGTAACAGCGGCAATCAGCGGCGTTATAAACGTGATGTGTTGCGATATGTCGCAATTATCAAAATTGCTCAGCGTATTGGCATTCCTCTCGCGACCATTGGTGAAGCGTTTGGCGTGTTGCCCGAAGGGCATACGTTAAGTGCGAAAGAGTGGAAACAGCTTTCGTCCCAATGGCGAGAAGAGTTGGATCGGCGCATTCATACCTTAGTGGCGCTGCGTGACGAACTGGACGGATGTATTGGTTGTGGCTGCCTTTCGCGCAGTGATTGCCCGTTGCGTAACCCGGGCGACCGCTTAGGAGAAGAAGGTACCGGCGCACGCTTGCTGGAAGATGAACAAAACTAA</t>
-  </si>
-  <si>
-    <t>MEKKLPRIKALLTPGEVAKRSGVAVSALHFYESKGLITSIRNSGNQRRYKRDVLRYVAIIKIAQRIGIPLATIGEAFGVLPEGHTLSAKEWKQLSSQWREELDRRIHTLVALRDELDGCIGCGCLSRSDCPLRNPGDRLGEEGTGARLLEDEQN</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1974|hsp_num:0</t>
-  </si>
-  <si>
-    <t>contig00006_104 # 115623 # 115946 # 1 # ID=6_104;partial=00;start_type=ATG;rbs_motif=GGAG/GAGG;rbs_spacer=5-10bp;gc_cont=0.512</t>
-  </si>
-  <si>
-    <t>contig00006_104</t>
-  </si>
-  <si>
-    <t>Escherichia coli soxS with mutation conferring antibiotic resistance</t>
-  </si>
-  <si>
-    <t>antibiotic target alteration; antibiotic efflux; reduced permeability to antibiotic</t>
-  </si>
-  <si>
-    <t>ATP-binding cassette (ABC) antibiotic efflux pump; major facilitator superfamily (MFS) antibiotic efflux pump; resistance-nodulation-cell division (RND) antibiotic efflux pump; General Bacterial Porin with reduced permeability to beta-lactams</t>
-  </si>
-  <si>
-    <t>ATGTCCCATCAGAAAATTATTCAGGATCTTATCGCATGGATTGACGAGCATATTGACCAGCCGCTTAACATTGATGTCGTCGCAAAAAAATCAGGCTATTCAAAGTGGTACCTGCAACGGATGTTCCGCACGGTGACGCATCAGACGCTTGGCGATTACATTCGTCAACGCCGTCTGTTACTGGCCGCCGTTGAGTTGCGCACCACCGAGCGTCCGATTTTTGATATCGCAATGGACCTGGGTTATGTCTCTCAGCAGACCTTCTCCCGCGTTTTCCGTCGGCAGTTTGATCGCACTCCCAGCGATTATCGCCACCGCCTGTAG</t>
-  </si>
-  <si>
-    <t>MSHQKIIQDLIAWIDEHIDQPLNIDVVAKKSGYSKWYLQRMFRTVTHQTLGDYIRQRRLLLAAVELRTTERPIFDIAMDLGYVSQQTFSRVFRRQFDRTPSDYRHRL</t>
-  </si>
-  <si>
-    <t>gnl|BL_ORD_ID|1976|hsp_num:0</t>
+    <t>MTELPIDENTPRILIVEDEPKLGQLLIDYLRAASYAPSLISHGDQVLPYVRQTPPDLILLDLMLPGTDGLTLCREIRRFSDVPIVMVTAKIEEIDRLLGLEIGADDYICKPYSPREVVARVKTILRRCKPQRELQVLDAESPLIVDESRFQASWRSKLLDLTPAEFRLLKTLSHEPGKVFSREQLLNHLYDDYRVVTDRTIDSHIKNLRRKLEALDAEQSFIRAVYGVGYRWEADACRIA</t>
+  </si>
+  <si>
+    <t>gnl|BL_ORD_ID|1382|hsp_num:0</t>
   </si>
   <si>
     <t>contig00024_21 # 16909 # 17343 # -1 # ID=24_21;partial=00;start_type=GTG;rbs_motif=GGA/GAG/AGG;rbs_spacer=5-10bp;gc_cont=0.480</t>
@@ -1255,71 +1399,32 @@
     <t>MKSTSDLFNEIIPLGRLIHMVNQKKDRLLNEYLSPLDITAAQFKVLCSIRCAACITPVELKKVLSVDLGALTRMLDRLVCKGWVERLPNPNDKRGVLVKLTTGGAAICEQCHQLVGQDLHQELTKNLTADEVATLEYLLKKVLP</t>
   </si>
   <si>
-    <t>gnl|BL_ORD_ID|1985|hsp_num:0</t>
-  </si>
-  <si>
-    <t>ORF ID</t>
-  </si>
-  <si>
-    <t>Cut Off</t>
-  </si>
-  <si>
-    <t>Pass Bitscore</t>
-  </si>
-  <si>
-    <t>Best Hit Bitscore</t>
-  </si>
-  <si>
-    <t>Best Hit ARO</t>
-  </si>
-  <si>
-    <t>Best Identities</t>
-  </si>
-  <si>
-    <t>Model type</t>
-  </si>
-  <si>
-    <t>SNPs in Best Hit ARO</t>
-  </si>
-  <si>
-    <t>Other SNPs</t>
-  </si>
-  <si>
-    <t>Predicted DNA</t>
-  </si>
-  <si>
-    <t>Predicted Protein</t>
-  </si>
-  <si>
-    <t>CARD Protein Sequence</t>
-  </si>
-  <si>
-    <t>Model ID</t>
+    <t>gnl|BL_ORD_ID|1983|hsp_num:0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1327,7 +1432,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1335,7 +1440,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1343,35 +1448,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1379,7 +1484,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1387,14 +1492,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1402,14 +1507,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1417,7 +1522,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1425,15 +1530,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1778,19 +1890,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1861,39 +1967,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1945,7 +2051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2056,13 +2162,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2071,6 +2170,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2135,11 +2241,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2147,3166 +2273,3564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="A1:AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
     <col min="3" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="97.5" customWidth="1"/>
+    <col min="9" max="9" width="68.83203125" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="30.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="17" width="30.83203125" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="45.6640625" customWidth="1"/>
+    <col min="17" max="17" width="71.83203125" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="2"/>
-    <col min="22" max="22" width="10.83203125" style="4"/>
-    <col min="23" max="24" width="10.83203125" style="2"/>
-    <col min="25" max="25" width="10.83203125" style="4"/>
+    <col min="23" max="27" width="10.83203125" style="2"/>
+    <col min="28" max="28" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>415</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>417</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>418</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>420</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>422</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>424</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49966</v>
+      </c>
+      <c r="D2" s="2">
+        <v>51714</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1096.5999999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3003950</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="2">
-        <v>80198</v>
-      </c>
-      <c r="D2" s="2">
-        <v>81445</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2">
-        <v>725</v>
-      </c>
-      <c r="H2" s="2">
-        <v>774.2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J2" s="2">
-        <v>99.04</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3000792</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="S2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="T2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="U2" s="2">
         <v>100</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>205</v>
+      <c r="V2" t="s">
+        <v>220</v>
       </c>
       <c r="W2" s="2">
-        <v>387</v>
+        <v>2423</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1746</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2">
-        <v>81445</v>
+        <v>81793</v>
       </c>
       <c r="D3" s="2">
-        <v>84567</v>
+        <v>83436</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
-        <v>1800</v>
+        <v>1050</v>
       </c>
       <c r="H3" s="2">
-        <v>1905.6</v>
+        <v>1056.5999999999999</v>
       </c>
       <c r="I3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J3" s="2">
-        <v>99.62</v>
+        <v>99.45</v>
       </c>
       <c r="K3" s="2">
-        <v>3000793</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
+        <v>3003952</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
       </c>
       <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S3" t="s">
         <v>201</v>
       </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>209</v>
-      </c>
-      <c r="S3" t="s">
-        <v>210</v>
-      </c>
       <c r="T3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="U3" s="2">
         <v>100</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>212</v>
+      <c r="V3" t="s">
+        <v>203</v>
       </c>
       <c r="W3" s="2">
-        <v>820</v>
+        <v>2424</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1641</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2">
-        <v>84568</v>
+        <v>234315</v>
       </c>
       <c r="D4" s="2">
-        <v>87645</v>
+        <v>235796</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="H4" s="2">
-        <v>1912.9</v>
+        <v>922.9</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="J4" s="2">
-        <v>99.51</v>
+        <v>99.8</v>
       </c>
       <c r="K4" s="2">
-        <v>3000794</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
+        <v>3000237</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="R4" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="T4" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="U4" s="2">
-        <v>100</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>219</v>
+        <v>99.6</v>
+      </c>
+      <c r="V4" t="s">
+        <v>90</v>
       </c>
       <c r="W4" s="2">
-        <v>1315</v>
+        <v>826</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1485</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
       <c r="C5" s="2">
-        <v>139493</v>
+        <v>7913</v>
       </c>
       <c r="D5" s="2">
-        <v>142606</v>
+        <v>8590</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="H5" s="2">
-        <v>1979.5</v>
+        <v>444.9</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>381</v>
       </c>
       <c r="J5" s="2">
-        <v>99.9</v>
+        <v>98.67</v>
       </c>
       <c r="K5" s="2">
-        <v>3000491</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
+        <v>3003841</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>382</v>
       </c>
       <c r="R5" t="s">
-        <v>126</v>
+        <v>383</v>
       </c>
       <c r="S5" t="s">
-        <v>127</v>
+        <v>384</v>
       </c>
       <c r="T5" t="s">
-        <v>128</v>
+        <v>385</v>
       </c>
       <c r="U5" s="2">
         <v>100</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>129</v>
+      <c r="V5" t="s">
+        <v>386</v>
       </c>
       <c r="W5" s="2">
-        <v>1427</v>
+        <v>2331</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>675</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="C6" s="2">
-        <v>7913</v>
+        <v>42467</v>
       </c>
       <c r="D6" s="2">
-        <v>8590</v>
+        <v>43522</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H6" s="2">
-        <v>444.9</v>
+        <v>671</v>
       </c>
       <c r="I6" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="J6" s="2">
-        <v>98.67</v>
+        <v>100</v>
       </c>
       <c r="K6" s="2">
-        <v>3003841</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>18</v>
+        <v>3000206</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="R6" t="s">
+        <v>290</v>
+      </c>
+      <c r="S6" t="s">
+        <v>291</v>
+      </c>
+      <c r="T6" t="s">
+        <v>291</v>
+      </c>
+      <c r="U6" s="2">
+        <v>110.26</v>
+      </c>
+      <c r="V6" t="s">
+        <v>292</v>
+      </c>
+      <c r="W6" s="2">
+        <v>609</v>
+      </c>
+      <c r="X6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1053</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43057</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43587</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2">
+        <v>280</v>
+      </c>
+      <c r="H7" s="2">
         <v>349</v>
       </c>
-      <c r="S6" t="s">
-        <v>350</v>
-      </c>
-      <c r="T6" t="s">
-        <v>351</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="I7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="2">
         <v>100</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="W6" s="2">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="2">
-        <v>89058</v>
-      </c>
-      <c r="D7" s="2">
-        <v>90461</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>850</v>
-      </c>
-      <c r="H7" s="2">
-        <v>921.8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J7" s="2">
-        <v>99.36</v>
-      </c>
       <c r="K7" s="2">
-        <v>3000829</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
+        <v>3000516</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="S7" t="s">
-        <v>225</v>
+        <v>355</v>
       </c>
       <c r="T7" t="s">
-        <v>226</v>
+        <v>355</v>
       </c>
       <c r="U7" s="2">
         <v>100</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>227</v>
+      <c r="V7" t="s">
+        <v>356</v>
       </c>
       <c r="W7" s="2">
-        <v>986</v>
+        <v>1330</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>528</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>366</v>
       </c>
       <c r="C8" s="2">
-        <v>90458</v>
+        <v>44903</v>
       </c>
       <c r="D8" s="2">
-        <v>91180</v>
+        <v>46441</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="H8" s="2">
-        <v>481.9</v>
+        <v>996.1</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>367</v>
       </c>
       <c r="J8" s="2">
-        <v>99.58</v>
+        <v>100</v>
       </c>
       <c r="K8" s="2">
-        <v>3000828</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>18</v>
+        <v>3000074</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="S8" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
       <c r="T8" t="s">
-        <v>233</v>
+        <v>369</v>
       </c>
       <c r="U8" s="2">
         <v>100</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>234</v>
+      <c r="V8" t="s">
+        <v>370</v>
       </c>
       <c r="W8" s="2">
-        <v>1337</v>
+        <v>1847</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1536</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
-        <v>66793</v>
+        <v>137106</v>
       </c>
       <c r="D9" s="2">
-        <v>68166</v>
+        <v>138050</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2">
-        <v>890</v>
+        <v>500</v>
       </c>
       <c r="H9" s="2">
-        <v>891.3</v>
+        <v>622.1</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2">
-        <v>100</v>
+        <v>98.73</v>
       </c>
       <c r="K9" s="2">
-        <v>3000830</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>18</v>
+        <v>3003843</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s">
         <v>39</v>
       </c>
-      <c r="R9" t="s">
-        <v>246</v>
-      </c>
-      <c r="S9" t="s">
-        <v>247</v>
-      </c>
       <c r="T9" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="U9" s="2">
         <v>100</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>248</v>
+      <c r="V9" t="s">
+        <v>41</v>
       </c>
       <c r="W9" s="2">
-        <v>152</v>
+        <v>5921</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>942</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
-        <v>12928</v>
+        <v>293850</v>
       </c>
       <c r="D10" s="2">
-        <v>14061</v>
+        <v>295082</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="H10" s="2">
-        <v>767.7</v>
+        <v>769.6</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2">
-        <v>98.14</v>
+        <v>98.05</v>
       </c>
       <c r="K10" s="2">
-        <v>3006876</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>18</v>
+        <v>3001214</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="U10" s="2">
         <v>100</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>139</v>
+      <c r="V10" t="s">
+        <v>51</v>
       </c>
       <c r="W10" s="2">
-        <v>4590</v>
+        <v>1191</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1230</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>362</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2">
-        <v>129239</v>
+        <v>89358</v>
       </c>
       <c r="D11" s="2">
-        <v>131005</v>
+        <v>90389</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H11" s="2">
-        <v>572.4</v>
+        <v>639.4</v>
       </c>
       <c r="I11" t="s">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="J11" s="2">
-        <v>53.11</v>
+        <v>99.42</v>
       </c>
       <c r="K11" s="2">
-        <v>3004446</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>18</v>
+        <v>3003548</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>366</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="S11" t="s">
-        <v>369</v>
+        <v>179</v>
       </c>
       <c r="T11" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="U11" s="2">
-        <v>96.39</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>371</v>
+        <v>100</v>
+      </c>
+      <c r="V11" t="s">
+        <v>181</v>
       </c>
       <c r="W11" s="2">
-        <v>2886</v>
+        <v>1442</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1029</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>90389</v>
       </c>
       <c r="D12" s="2">
-        <v>220</v>
+        <v>92440</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2">
-        <v>75</v>
+        <v>1300</v>
       </c>
       <c r="H12" s="2">
-        <v>80.5</v>
+        <v>1325.8</v>
       </c>
       <c r="I12" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="J12" s="2">
-        <v>46.48</v>
+        <v>98.98</v>
       </c>
       <c r="K12" s="2">
-        <v>3007014</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>18</v>
+        <v>3003549</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>356</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="R12" t="s">
-        <v>357</v>
+        <v>185</v>
       </c>
       <c r="S12" t="s">
-        <v>358</v>
+        <v>186</v>
       </c>
       <c r="T12" t="s">
-        <v>359</v>
+        <v>187</v>
       </c>
       <c r="U12" s="2">
-        <v>68.22</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>360</v>
+        <v>100</v>
+      </c>
+      <c r="V12" t="s">
+        <v>188</v>
       </c>
       <c r="W12" s="2">
-        <v>5730</v>
+        <v>2056</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>2049</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2">
-        <v>58676</v>
+        <v>92437</v>
       </c>
       <c r="D13" s="2">
-        <v>59884</v>
+        <v>93903</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="H13" s="2">
-        <v>783.1</v>
+        <v>909.8</v>
       </c>
       <c r="I13" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="J13" s="2">
-        <v>99.75</v>
+        <v>97.95</v>
       </c>
       <c r="K13" s="2">
-        <v>3001216</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>18</v>
+        <v>3003550</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="S13" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="T13" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="U13" s="2">
         <v>100</v>
       </c>
-      <c r="V13" s="4" t="s">
-        <v>256</v>
+      <c r="V13" t="s">
+        <v>195</v>
       </c>
       <c r="W13" s="2">
-        <v>375</v>
+        <v>45</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1464</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="C14" s="2">
-        <v>43714</v>
+        <v>36056</v>
       </c>
       <c r="D14" s="2">
-        <v>44886</v>
+        <v>37288</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="H14" s="2">
-        <v>736.5</v>
+        <v>761.9</v>
       </c>
       <c r="I14" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="J14" s="2">
-        <v>99.49</v>
+        <v>97.07</v>
       </c>
       <c r="K14" s="2">
-        <v>3000027</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>18</v>
+        <v>3001328</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="R14" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="S14" t="s">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="T14" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="U14" s="2">
         <v>100</v>
       </c>
-      <c r="V14" s="4" t="s">
-        <v>331</v>
+      <c r="V14" t="s">
+        <v>212</v>
       </c>
       <c r="W14" s="2">
-        <v>1757</v>
+        <v>37</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1230</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C15" s="2">
-        <v>43057</v>
+        <v>58676</v>
       </c>
       <c r="D15" s="2">
-        <v>43587</v>
+        <v>59884</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2">
-        <v>280</v>
+        <v>750</v>
       </c>
       <c r="H15" s="2">
-        <v>349</v>
+        <v>783.1</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="J15" s="2">
-        <v>100</v>
+        <v>99.75</v>
       </c>
       <c r="K15" s="2">
-        <v>3000516</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>18</v>
+        <v>3001216</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="S15" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="T15" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="U15" s="2">
         <v>100</v>
       </c>
-      <c r="V15" s="4" t="s">
-        <v>324</v>
+      <c r="V15" t="s">
+        <v>276</v>
       </c>
       <c r="W15" s="2">
-        <v>1330</v>
+        <v>375</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>1206</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="C16" s="2">
-        <v>44903</v>
+        <v>40929</v>
       </c>
       <c r="D16" s="2">
-        <v>46441</v>
+        <v>42467</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2">
         <v>900</v>
       </c>
       <c r="H16" s="2">
-        <v>996.1</v>
+        <v>980.3</v>
       </c>
       <c r="I16" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="J16" s="2">
-        <v>100</v>
+        <v>99.22</v>
       </c>
       <c r="K16" s="2">
-        <v>3000074</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>18</v>
+        <v>3000254</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="R16" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="S16" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="T16" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="U16" s="2">
         <v>100</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>337</v>
+      <c r="V16" t="s">
+        <v>285</v>
       </c>
       <c r="W16" s="2">
-        <v>1847</v>
+        <v>540</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1536</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>358</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>359</v>
       </c>
       <c r="C17" s="2">
-        <v>11454</v>
+        <v>43714</v>
       </c>
       <c r="D17" s="2">
-        <v>12611</v>
+        <v>44886</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2">
         <v>675</v>
       </c>
       <c r="H17" s="2">
-        <v>733.8</v>
+        <v>736.5</v>
       </c>
       <c r="I17" t="s">
+        <v>360</v>
+      </c>
+      <c r="J17" s="2">
+        <v>99.49</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3000027</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="2">
-        <v>99.74</v>
-      </c>
-      <c r="K17" s="2">
-        <v>3000499</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>39</v>
-      </c>
       <c r="R17" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="S17" t="s">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="T17" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="U17" s="2">
         <v>100</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>43</v>
+      <c r="V17" t="s">
+        <v>364</v>
       </c>
       <c r="W17" s="2">
-        <v>1445</v>
+        <v>1757</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1170</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44046</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44660</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2">
-        <v>13010</v>
-      </c>
-      <c r="D18" s="2">
-        <v>13672</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H18" s="2">
-        <v>438.7</v>
+        <v>400.6</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="J18" s="2">
         <v>100</v>
       </c>
       <c r="K18" s="2">
-        <v>3000656</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>18</v>
+        <v>3000832</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="R18" t="s">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="U18" s="2">
         <v>100</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>51</v>
+      <c r="V18" t="s">
+        <v>301</v>
       </c>
       <c r="W18" s="2">
-        <v>520</v>
+        <v>1015</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>612</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="C19" s="2">
-        <v>135671</v>
+        <v>21791</v>
       </c>
       <c r="D19" s="2">
-        <v>138820</v>
+        <v>22204</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2">
-        <v>1900</v>
+        <v>240</v>
       </c>
       <c r="H19" s="2">
-        <v>1989.5</v>
+        <v>258.10000000000002</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>373</v>
       </c>
       <c r="J19" s="2">
-        <v>99.81</v>
+        <v>100</v>
       </c>
       <c r="K19" s="2">
-        <v>3000216</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>18</v>
+        <v>3000676</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
+        <v>374</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="R19" t="s">
-        <v>112</v>
+        <v>375</v>
       </c>
       <c r="S19" t="s">
-        <v>113</v>
+        <v>376</v>
       </c>
       <c r="T19" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="U19" s="2">
         <v>100</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>115</v>
+      <c r="V19" t="s">
+        <v>377</v>
       </c>
       <c r="W19" s="2">
-        <v>1104</v>
+        <v>1248</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>411</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="C20" s="2">
-        <v>138843</v>
+        <v>44665</v>
       </c>
       <c r="D20" s="2">
-        <v>140036</v>
+        <v>48258</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2">
-        <v>670</v>
+        <v>2300</v>
       </c>
       <c r="H20" s="2">
-        <v>751.1</v>
+        <v>2335.5</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
       <c r="J20" s="2">
-        <v>100</v>
+        <v>97.83</v>
       </c>
       <c r="K20" s="2">
-        <v>3004043</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>18</v>
+        <v>3000833</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="R20" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
       <c r="S20" t="s">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="T20" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="U20" s="2">
         <v>100</v>
       </c>
-      <c r="V20" s="4" t="s">
-        <v>121</v>
+      <c r="V20" t="s">
+        <v>309</v>
       </c>
       <c r="W20" s="2">
-        <v>2661</v>
+        <v>1318</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>3591</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>383</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2">
-        <v>140178</v>
+        <v>13010</v>
       </c>
       <c r="D21" s="2">
-        <v>140825</v>
+        <v>13672</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H21" s="2">
-        <v>426.8</v>
+        <v>438.7</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="J21" s="2">
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <v>3003807</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>18</v>
+        <v>3000656</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="P21" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>387</v>
+        <v>68</v>
       </c>
       <c r="S21" t="s">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="T21" t="s">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>100</v>
       </c>
-      <c r="V21" s="4" t="s">
-        <v>389</v>
+      <c r="V21" t="s">
+        <v>70</v>
       </c>
       <c r="W21" s="2">
-        <v>2306</v>
+        <v>520</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>660</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2">
-        <v>115073</v>
+        <v>138843</v>
       </c>
       <c r="D22" s="2">
-        <v>115537</v>
+        <v>140036</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2">
-        <v>300</v>
+        <v>670</v>
       </c>
       <c r="H22" s="2">
-        <v>311.2</v>
+        <v>751.1</v>
       </c>
       <c r="I22" t="s">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="J22" s="2">
         <v>100</v>
       </c>
       <c r="K22" s="2">
-        <v>3003381</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>18</v>
+        <v>3004043</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="P22" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>393</v>
+        <v>144</v>
       </c>
       <c r="S22" t="s">
-        <v>394</v>
+        <v>145</v>
       </c>
       <c r="T22" t="s">
-        <v>394</v>
+        <v>145</v>
       </c>
       <c r="U22" s="2">
         <v>100</v>
       </c>
-      <c r="V22" s="4" t="s">
-        <v>395</v>
+      <c r="V22" t="s">
+        <v>146</v>
       </c>
       <c r="W22" s="2">
-        <v>1005</v>
+        <v>2661</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1191</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>261</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>405</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2">
-        <v>16909</v>
+        <v>66793</v>
       </c>
       <c r="D23" s="2">
-        <v>17343</v>
+        <v>68166</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2">
-        <v>210</v>
+        <v>890</v>
       </c>
       <c r="H23" s="2">
-        <v>287</v>
+        <v>891.3</v>
       </c>
       <c r="I23" t="s">
-        <v>406</v>
+        <v>263</v>
       </c>
       <c r="J23" s="2">
-        <v>98.61</v>
+        <v>100</v>
       </c>
       <c r="K23" s="2">
-        <v>3003378</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>18</v>
+        <v>3000830</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
       </c>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="P23" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="Q23" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="S23" t="s">
-        <v>409</v>
+        <v>266</v>
       </c>
       <c r="T23" t="s">
-        <v>410</v>
+        <v>266</v>
       </c>
       <c r="U23" s="2">
         <v>100</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>411</v>
+      <c r="V23" t="s">
+        <v>267</v>
       </c>
       <c r="W23" s="2">
-        <v>431</v>
+        <v>152</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>1371</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>478</v>
+        <v>11454</v>
       </c>
       <c r="D24" s="2">
-        <v>663</v>
+        <v>12611</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G24" s="2">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="H24" s="2">
-        <v>102.4</v>
+        <v>733.8</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="J24" s="2">
-        <v>85.25</v>
+        <v>99.74</v>
       </c>
       <c r="K24" s="2">
-        <v>3005069</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>18</v>
+        <v>3000499</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="U24" s="2">
         <v>100</v>
       </c>
-      <c r="V24" s="4" t="s">
-        <v>242</v>
+      <c r="V24" t="s">
+        <v>61</v>
       </c>
       <c r="W24" s="2">
-        <v>3807</v>
+        <v>1445</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1155</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2">
-        <v>293850</v>
+        <v>493</v>
       </c>
       <c r="D25" s="2">
-        <v>295082</v>
+        <v>1317</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G25" s="2">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="H25" s="2">
-        <v>769.6</v>
+        <v>528.9</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="J25" s="2">
-        <v>98.05</v>
+        <v>98.18</v>
       </c>
       <c r="K25" s="2">
-        <v>3001214</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>18</v>
+        <v>3000508</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="T25" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="U25" s="2">
         <v>100</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>34</v>
+      <c r="V25" t="s">
+        <v>99</v>
       </c>
       <c r="W25" s="2">
-        <v>1191</v>
+        <v>91</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>822</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2">
-        <v>16506</v>
+        <v>2776</v>
       </c>
       <c r="D26" s="2">
-        <v>16889</v>
+        <v>5889</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G26" s="2">
-        <v>230</v>
+        <v>1850</v>
       </c>
       <c r="H26" s="2">
-        <v>261.5</v>
+        <v>1942.2</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="J26" s="2">
-        <v>100</v>
+        <v>99.81</v>
       </c>
       <c r="K26" s="2">
-        <v>3000263</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>18</v>
+        <v>3000796</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
       </c>
       <c r="O26" t="s">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s">
-        <v>292</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="S26" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="T26" t="s">
-        <v>294</v>
+        <v>106</v>
       </c>
       <c r="U26" s="2">
         <v>100</v>
       </c>
-      <c r="V26" s="4" t="s">
-        <v>295</v>
+      <c r="V26" t="s">
+        <v>107</v>
       </c>
       <c r="W26" s="2">
-        <v>1922</v>
+        <v>121</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>3111</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2">
-        <v>115623</v>
+        <v>5914</v>
       </c>
       <c r="D27" s="2">
-        <v>115946</v>
+        <v>7071</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G27" s="2">
-        <v>200</v>
+        <v>675</v>
       </c>
       <c r="H27" s="2">
-        <v>219.2</v>
+        <v>721.5</v>
       </c>
       <c r="I27" t="s">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="J27" s="2">
-        <v>100</v>
+        <v>99.48</v>
       </c>
       <c r="K27" s="2">
-        <v>3003511</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>18</v>
+        <v>3000795</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
       </c>
       <c r="O27" t="s">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="Q27" t="s">
-        <v>400</v>
+        <v>57</v>
       </c>
       <c r="R27" t="s">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="S27" t="s">
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="T27" t="s">
-        <v>402</v>
+        <v>113</v>
       </c>
       <c r="U27" s="2">
         <v>100</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>403</v>
+      <c r="V27" t="s">
+        <v>114</v>
       </c>
       <c r="W27" s="2">
-        <v>2066</v>
+        <v>1903</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>1155</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2">
+        <v>201418</v>
+      </c>
+      <c r="D28" s="2">
+        <v>202050</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="2">
+        <v>400</v>
+      </c>
+      <c r="H28" s="2">
+        <v>419.5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="2">
+        <v>99.52</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3000518</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>57</v>
+      </c>
+      <c r="R28" t="s">
+        <v>118</v>
+      </c>
+      <c r="S28" t="s">
+        <v>119</v>
+      </c>
+      <c r="T28" t="s">
+        <v>120</v>
+      </c>
+      <c r="U28" s="2">
         <v>100</v>
       </c>
-      <c r="C28" s="2">
-        <v>47959</v>
-      </c>
-      <c r="D28" s="2">
-        <v>49053</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="2">
-        <v>250</v>
-      </c>
-      <c r="H28" s="2">
-        <v>263.8</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="2">
-        <v>38.229999999999997</v>
-      </c>
-      <c r="K28" s="2">
-        <v>3002909</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>103</v>
-      </c>
-      <c r="R28" t="s">
-        <v>104</v>
-      </c>
-      <c r="S28" t="s">
-        <v>105</v>
-      </c>
-      <c r="T28" t="s">
-        <v>106</v>
-      </c>
-      <c r="U28" s="2">
-        <v>104.3</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>107</v>
+      <c r="V28" t="s">
+        <v>121</v>
       </c>
       <c r="W28" s="2">
-        <v>1157</v>
+        <v>869</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>630</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2">
-        <v>18893</v>
+        <v>135671</v>
       </c>
       <c r="D29" s="2">
-        <v>19222</v>
+        <v>138820</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G29" s="2">
-        <v>150</v>
+        <v>1900</v>
       </c>
       <c r="H29" s="2">
-        <v>189.5</v>
+        <v>1989.5</v>
       </c>
       <c r="I29" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="J29" s="2">
-        <v>84.4</v>
+        <v>99.81</v>
       </c>
       <c r="K29" s="2">
-        <v>3004583</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>18</v>
+        <v>3000216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
       </c>
       <c r="O29" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="s">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="S29" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="T29" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="U29" s="2">
         <v>100</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>311</v>
+      <c r="V29" t="s">
+        <v>139</v>
       </c>
       <c r="W29" s="2">
-        <v>3286</v>
+        <v>1104</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>3147</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2">
-        <v>19209</v>
+        <v>139493</v>
       </c>
       <c r="D30" s="2">
-        <v>19574</v>
+        <v>142606</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G30" s="2">
+        <v>1900</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1979.5</v>
+      </c>
+      <c r="I30" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="2">
-        <v>176.4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>314</v>
-      </c>
       <c r="J30" s="2">
-        <v>82.2</v>
+        <v>99.9</v>
       </c>
       <c r="K30" s="2">
-        <v>3004580</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>18</v>
+        <v>3000491</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
       </c>
       <c r="O30" t="s">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="P30" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="S30" t="s">
-        <v>316</v>
+        <v>153</v>
       </c>
       <c r="T30" t="s">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="U30" s="2">
-        <v>100.83</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>318</v>
+        <v>100</v>
+      </c>
+      <c r="V30" t="s">
+        <v>155</v>
       </c>
       <c r="W30" s="2">
-        <v>3283</v>
+        <v>1427</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>3111</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2">
-        <v>234315</v>
+        <v>80198</v>
       </c>
       <c r="D31" s="2">
-        <v>235796</v>
+        <v>81445</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2">
-        <v>900</v>
+        <v>725</v>
       </c>
       <c r="H31" s="2">
-        <v>922.9</v>
+        <v>774.2</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="J31" s="2">
-        <v>99.8</v>
+        <v>99.04</v>
       </c>
       <c r="K31" s="2">
-        <v>3000237</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>18</v>
+        <v>3000792</v>
+      </c>
+      <c r="L31" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
       </c>
       <c r="O31" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="P31" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q31" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="S31" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="T31" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="U31" s="2">
-        <v>99.6</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>69</v>
+        <v>100</v>
+      </c>
+      <c r="V31" t="s">
+        <v>236</v>
       </c>
       <c r="W31" s="2">
-        <v>826</v>
+        <v>387</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>1245</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2">
-        <v>21791</v>
+        <v>81445</v>
       </c>
       <c r="D32" s="2">
-        <v>22204</v>
+        <v>84567</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1905.6</v>
+      </c>
+      <c r="I32" t="s">
         <v>240</v>
       </c>
-      <c r="H32" s="2">
-        <v>258.10000000000002</v>
-      </c>
-      <c r="I32" t="s">
-        <v>340</v>
-      </c>
       <c r="J32" s="2">
-        <v>100</v>
+        <v>99.62</v>
       </c>
       <c r="K32" s="2">
-        <v>3000676</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>18</v>
+        <v>3000793</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
       </c>
       <c r="O32" t="s">
-        <v>341</v>
+        <v>232</v>
       </c>
       <c r="P32" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q32" t="s">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="S32" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="T32" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="U32" s="2">
         <v>100</v>
       </c>
-      <c r="V32" s="4" t="s">
-        <v>344</v>
+      <c r="V32" t="s">
+        <v>244</v>
       </c>
       <c r="W32" s="2">
-        <v>1248</v>
+        <v>820</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>3120</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2">
-        <v>493</v>
+        <v>84568</v>
       </c>
       <c r="D33" s="2">
-        <v>1317</v>
+        <v>87645</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G33" s="2">
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="H33" s="2">
-        <v>528.9</v>
+        <v>1912.9</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="J33" s="2">
-        <v>98.18</v>
+        <v>99.51</v>
       </c>
       <c r="K33" s="2">
-        <v>3000508</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>18</v>
+        <v>3000794</v>
+      </c>
+      <c r="L33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="P33" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="S33" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="T33" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="U33" s="2">
         <v>100</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>77</v>
+      <c r="V33" t="s">
+        <v>251</v>
       </c>
       <c r="W33" s="2">
-        <v>91</v>
+        <v>1315</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>3075</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2">
-        <v>2776</v>
+        <v>478</v>
       </c>
       <c r="D34" s="2">
-        <v>5889</v>
+        <v>663</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G34" s="2">
-        <v>1850</v>
+        <v>100</v>
       </c>
       <c r="H34" s="2">
-        <v>1942.2</v>
+        <v>102.4</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="J34" s="2">
-        <v>99.81</v>
+        <v>85.25</v>
       </c>
       <c r="K34" s="2">
-        <v>3000796</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>18</v>
+        <v>3005069</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="P34" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="S34" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="T34" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="U34" s="2">
         <v>100</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>84</v>
+      <c r="V34" t="s">
+        <v>259</v>
       </c>
       <c r="W34" s="2">
-        <v>121</v>
+        <v>3807</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>183</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>445</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="C35" s="2">
-        <v>5914</v>
+        <v>90458</v>
       </c>
       <c r="D35" s="2">
-        <v>7071</v>
+        <v>91180</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G35" s="2">
-        <v>675</v>
+        <v>450</v>
       </c>
       <c r="H35" s="2">
-        <v>721.5</v>
+        <v>465.7</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
+        <v>447</v>
       </c>
       <c r="J35" s="2">
-        <v>99.48</v>
+        <v>95.82</v>
       </c>
       <c r="K35" s="2">
-        <v>3000795</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>18</v>
+        <v>3000828</v>
+      </c>
+      <c r="L35" t="s">
+        <v>423</v>
+      </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" t="s">
+        <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="P35" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q35" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>88</v>
+        <v>448</v>
       </c>
       <c r="S35" t="s">
-        <v>89</v>
+        <v>449</v>
       </c>
       <c r="T35" t="s">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="U35" s="2">
         <v>100</v>
       </c>
-      <c r="V35" s="4" t="s">
-        <v>91</v>
+      <c r="V35" t="s">
+        <v>451</v>
       </c>
       <c r="W35" s="2">
-        <v>1903</v>
+        <v>1337</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>717</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2">
-        <v>201418</v>
+        <v>18893</v>
       </c>
       <c r="D36" s="2">
-        <v>202050</v>
+        <v>19222</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G36" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H36" s="2">
-        <v>419.5</v>
+        <v>189.5</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>336</v>
       </c>
       <c r="J36" s="2">
-        <v>99.52</v>
+        <v>84.4</v>
       </c>
       <c r="K36" s="2">
-        <v>3000518</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>18</v>
+        <v>3004583</v>
+      </c>
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="P36" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="R36" t="s">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="S36" t="s">
-        <v>96</v>
+        <v>340</v>
       </c>
       <c r="T36" t="s">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="U36" s="2">
         <v>100</v>
       </c>
-      <c r="V36" s="4" t="s">
-        <v>98</v>
+      <c r="V36" t="s">
+        <v>342</v>
       </c>
       <c r="W36" s="2">
-        <v>869</v>
+        <v>3286</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>327</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2">
-        <v>44665</v>
+        <v>19209</v>
       </c>
       <c r="D37" s="2">
-        <v>48258</v>
+        <v>19574</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G37" s="2">
-        <v>2300</v>
+        <v>150</v>
       </c>
       <c r="H37" s="2">
-        <v>2335.5</v>
+        <v>176.4</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="J37" s="2">
-        <v>97.83</v>
+        <v>82.2</v>
       </c>
       <c r="K37" s="2">
-        <v>3000833</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>18</v>
+        <v>3004580</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
       </c>
       <c r="O37" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="P37" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q37" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="R37" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="S37" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="T37" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="U37" s="2">
-        <v>100</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>286</v>
+        <v>100.83</v>
+      </c>
+      <c r="V37" t="s">
+        <v>350</v>
       </c>
       <c r="W37" s="2">
-        <v>1318</v>
+        <v>3283</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>360</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2">
-        <v>44046</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>44660</v>
+        <v>220</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G38" s="2">
+        <v>75</v>
+      </c>
+      <c r="H38" s="2">
+        <v>80.5</v>
+      </c>
+      <c r="I38" t="s">
         <v>390</v>
       </c>
-      <c r="H38" s="2">
-        <v>400.6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>274</v>
-      </c>
       <c r="J38" s="2">
-        <v>100</v>
+        <v>46.48</v>
       </c>
       <c r="K38" s="2">
-        <v>3000832</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>18</v>
+        <v>3007014</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>275</v>
+        <v>391</v>
       </c>
       <c r="P38" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q38" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="R38" t="s">
-        <v>277</v>
+        <v>392</v>
       </c>
       <c r="S38" t="s">
-        <v>278</v>
+        <v>393</v>
       </c>
       <c r="T38" t="s">
-        <v>278</v>
+        <v>394</v>
       </c>
       <c r="U38" s="2">
-        <v>100</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>279</v>
+        <v>68.22</v>
+      </c>
+      <c r="V38" t="s">
+        <v>395</v>
       </c>
       <c r="W38" s="2">
-        <v>1015</v>
+        <v>5730</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>216</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2">
-        <v>49966</v>
+        <v>16506</v>
       </c>
       <c r="D39" s="2">
-        <v>51714</v>
+        <v>16889</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G39" s="2">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="H39" s="2">
-        <v>1096.5999999999999</v>
+        <v>261.5</v>
       </c>
       <c r="I39" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="J39" s="2">
         <v>100</v>
       </c>
       <c r="K39" s="2">
-        <v>3003950</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>18</v>
+        <v>3000263</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" t="s">
+        <v>34</v>
       </c>
       <c r="O39" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P39" t="s">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="Q39" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="R39" t="s">
-        <v>188</v>
+        <v>316</v>
       </c>
       <c r="S39" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="T39" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="U39" s="2">
         <v>100</v>
       </c>
-      <c r="V39" s="4" t="s">
-        <v>190</v>
+      <c r="V39" t="s">
+        <v>318</v>
       </c>
       <c r="W39" s="2">
-        <v>2423</v>
+        <v>1922</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>381</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2">
-        <v>137106</v>
+        <v>12928</v>
       </c>
       <c r="D40" s="2">
-        <v>138050</v>
+        <v>14061</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G40" s="2">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="H40" s="2">
-        <v>622.1</v>
+        <v>767.7</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="J40" s="2">
-        <v>98.73</v>
+        <v>98.14</v>
       </c>
       <c r="K40" s="2">
-        <v>3003843</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>18</v>
+        <v>3006876</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" t="s">
+        <v>34</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="P40" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="Q40" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="R40" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="S40" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="T40" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="U40" s="2">
         <v>100</v>
       </c>
-      <c r="V40" s="4" t="s">
-        <v>25</v>
+      <c r="V40" t="s">
+        <v>166</v>
       </c>
       <c r="W40" s="2">
-        <v>5921</v>
+        <v>4590</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1131</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2">
-        <v>89358</v>
+        <v>122222</v>
       </c>
       <c r="D41" s="2">
-        <v>90389</v>
+        <v>123580</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G41" s="2">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="H41" s="2">
-        <v>639.4</v>
+        <v>916</v>
       </c>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>411</v>
       </c>
       <c r="J41" s="2">
-        <v>99.42</v>
+        <v>99.12</v>
       </c>
       <c r="K41" s="2">
-        <v>3003548</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>18</v>
+        <v>3003889</v>
+      </c>
+      <c r="L41" t="s">
+        <v>400</v>
+      </c>
+      <c r="M41" t="s">
+        <v>412</v>
+      </c>
+      <c r="N41" t="s">
+        <v>34</v>
       </c>
       <c r="O41" t="s">
-        <v>19</v>
+        <v>413</v>
       </c>
       <c r="P41" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q41" t="s">
-        <v>21</v>
+        <v>414</v>
       </c>
       <c r="R41" t="s">
-        <v>150</v>
+        <v>415</v>
       </c>
       <c r="S41" t="s">
-        <v>151</v>
+        <v>416</v>
       </c>
       <c r="T41" t="s">
-        <v>152</v>
+        <v>417</v>
       </c>
       <c r="U41" s="2">
         <v>100</v>
       </c>
-      <c r="V41" s="4" t="s">
-        <v>153</v>
+      <c r="V41" t="s">
+        <v>418</v>
       </c>
       <c r="W41" s="2">
-        <v>1442</v>
+        <v>2372</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1356</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2">
-        <v>90389</v>
+        <v>47959</v>
       </c>
       <c r="D42" s="2">
-        <v>92440</v>
+        <v>49053</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G42" s="2">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="H42" s="2">
-        <v>1325.8</v>
+        <v>263.8</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="J42" s="2">
-        <v>98.98</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="K42" s="2">
-        <v>3003549</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>18</v>
+        <v>3002909</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>34</v>
       </c>
       <c r="O42" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="P42" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="Q42" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="R42" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="S42" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="T42" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="U42" s="2">
+        <v>104.3</v>
+      </c>
+      <c r="V42" t="s">
+        <v>130</v>
+      </c>
+      <c r="W42" s="2">
+        <v>1157</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1047</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>397</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="2">
+        <v>129239</v>
+      </c>
+      <c r="D43" s="2">
+        <v>131005</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="2">
+        <v>500</v>
+      </c>
+      <c r="H43" s="2">
+        <v>572.4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>399</v>
+      </c>
+      <c r="J43" s="2">
+        <v>53.11</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3004446</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="s">
+        <v>401</v>
+      </c>
+      <c r="N43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" t="s">
+        <v>402</v>
+      </c>
+      <c r="P43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>403</v>
+      </c>
+      <c r="R43" t="s">
+        <v>404</v>
+      </c>
+      <c r="S43" t="s">
+        <v>405</v>
+      </c>
+      <c r="T43" t="s">
+        <v>406</v>
+      </c>
+      <c r="U43" s="2">
+        <v>96.39</v>
+      </c>
+      <c r="V43" t="s">
+        <v>407</v>
+      </c>
+      <c r="W43" s="2">
+        <v>2886</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>1752</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="2">
+        <v>56113</v>
+      </c>
+      <c r="D44" s="2">
+        <v>57756</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1089.3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" s="2">
         <v>100</v>
       </c>
-      <c r="V42" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="W42" s="2">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="2">
-        <v>92437</v>
-      </c>
-      <c r="D43" s="2">
-        <v>93903</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="2">
-        <v>875</v>
-      </c>
-      <c r="H43" s="2">
-        <v>909.8</v>
-      </c>
-      <c r="I43" t="s">
-        <v>163</v>
-      </c>
-      <c r="J43" s="2">
-        <v>97.95</v>
-      </c>
-      <c r="K43" s="2">
-        <v>3003550</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" t="s">
-        <v>19</v>
-      </c>
-      <c r="P43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" t="s">
-        <v>164</v>
-      </c>
-      <c r="S43" t="s">
-        <v>165</v>
-      </c>
-      <c r="T43" t="s">
-        <v>166</v>
-      </c>
-      <c r="U43" s="2">
-        <v>100</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="W43" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="2">
-        <v>81793</v>
-      </c>
-      <c r="D44" s="2">
-        <v>83436</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1050</v>
-      </c>
-      <c r="H44" s="2">
-        <v>1056.5999999999999</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="K44" s="2">
+        <v>3003576</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44" t="s">
         <v>170</v>
       </c>
-      <c r="J44" s="2">
-        <v>99.45</v>
-      </c>
-      <c r="K44" s="2">
-        <v>3003952</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>171</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>172</v>
       </c>
-      <c r="S44" t="s">
-        <v>173</v>
-      </c>
       <c r="T44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U44" s="2">
         <v>100</v>
       </c>
-      <c r="V44" s="4" t="s">
-        <v>175</v>
+      <c r="V44" t="s">
+        <v>173</v>
       </c>
       <c r="W44" s="2">
-        <v>2424</v>
+        <v>516</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>1641</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C45" s="2">
         <v>21259</v>
@@ -5315,10 +5839,10 @@
         <v>22425</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G45" s="2">
         <v>700</v>
@@ -5327,7 +5851,7 @@
         <v>755.4</v>
       </c>
       <c r="I45" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="J45" s="2">
         <v>99.23</v>
@@ -5335,550 +5859,617 @@
       <c r="K45" s="2">
         <v>3003577</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>18</v>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" t="s">
+        <v>34</v>
       </c>
       <c r="O45" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="P45" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Q45" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="R45" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="S45" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="T45" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="U45" s="2">
         <v>100</v>
       </c>
-      <c r="V45" s="4" t="s">
-        <v>197</v>
+      <c r="V45" t="s">
+        <v>228</v>
       </c>
       <c r="W45" s="2">
         <v>842</v>
       </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>1164</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2">
+        <v>54204</v>
+      </c>
+      <c r="D46" s="2">
+        <v>55856</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="2">
+        <v>400</v>
+      </c>
+      <c r="H46" s="2">
+        <v>745.3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" s="2">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3005053</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>170</v>
+      </c>
+      <c r="R46" t="s">
+        <v>322</v>
+      </c>
+      <c r="S46" t="s">
+        <v>323</v>
+      </c>
+      <c r="T46" t="s">
+        <v>324</v>
+      </c>
+      <c r="U46" s="2">
+        <v>99.82</v>
+      </c>
+      <c r="V46" t="s">
+        <v>325</v>
+      </c>
+      <c r="W46" s="2">
+        <v>3795</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1653</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C47" s="2">
         <v>58725</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D47" s="2">
         <v>59693</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="E47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="2">
         <v>550</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H47" s="2">
         <v>628.6</v>
       </c>
-      <c r="I46" t="s">
-        <v>298</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" s="2">
         <v>99.38</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K47" s="2">
         <v>3003578</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O46" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>143</v>
-      </c>
-      <c r="R46" t="s">
-        <v>299</v>
-      </c>
-      <c r="S46" t="s">
-        <v>300</v>
-      </c>
-      <c r="T46" t="s">
-        <v>301</v>
-      </c>
-      <c r="U46" s="2">
-        <v>100</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="W46" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="2">
-        <v>216346</v>
-      </c>
-      <c r="D47" s="2">
-        <v>217167</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" s="2">
-        <v>500</v>
-      </c>
-      <c r="H47" s="2">
-        <v>525.4</v>
-      </c>
-      <c r="I47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J47" s="2">
-        <v>100</v>
-      </c>
-      <c r="K47" s="2">
-        <v>3002986</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>18</v>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" t="s">
+        <v>34</v>
       </c>
       <c r="O47" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="P47" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Q47" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="R47" t="s">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="S47" t="s">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>332</v>
       </c>
       <c r="U47" s="2">
         <v>100</v>
       </c>
-      <c r="V47" s="4" t="s">
-        <v>60</v>
+      <c r="V47" t="s">
+        <v>333</v>
       </c>
       <c r="W47" s="2">
-        <v>1820</v>
+        <v>2014</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>966</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2">
-        <v>56113</v>
+        <v>216346</v>
       </c>
       <c r="D48" s="2">
-        <v>57756</v>
+        <v>217167</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G48" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H48" s="2">
-        <v>1089.3</v>
+        <v>525.4</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="J48" s="2">
         <v>100</v>
       </c>
       <c r="K48" s="2">
-        <v>3003576</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>18</v>
+        <v>3002986</v>
+      </c>
+      <c r="L48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" t="s">
+        <v>34</v>
       </c>
       <c r="O48" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="P48" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Q48" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="U48" s="2">
         <v>100</v>
       </c>
-      <c r="V48" s="4" t="s">
-        <v>146</v>
+      <c r="V48" t="s">
+        <v>80</v>
       </c>
       <c r="W48" s="2">
-        <v>516</v>
+        <v>1820</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>819</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2">
-        <v>122222</v>
+        <v>115073</v>
       </c>
       <c r="D49" s="2">
-        <v>123580</v>
+        <v>115537</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G49" s="2">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="H49" s="2">
-        <v>916</v>
+        <v>311.2</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="J49" s="2">
-        <v>99.12</v>
+        <v>100</v>
       </c>
       <c r="K49" s="2">
-        <v>3003889</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>18</v>
+        <v>3003381</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" t="s">
+        <v>34</v>
       </c>
       <c r="O49" t="s">
-        <v>376</v>
+        <v>135</v>
       </c>
       <c r="P49" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="Q49" t="s">
-        <v>377</v>
+        <v>86</v>
       </c>
       <c r="R49" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="S49" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="T49" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="U49" s="2">
         <v>100</v>
       </c>
-      <c r="V49" s="4" t="s">
-        <v>381</v>
+      <c r="V49" t="s">
+        <v>434</v>
       </c>
       <c r="W49" s="2">
-        <v>2372</v>
+        <v>1005</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>462</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>420</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="C50" s="2">
-        <v>40929</v>
+        <v>140178</v>
       </c>
       <c r="D50" s="2">
-        <v>42467</v>
+        <v>140825</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G50" s="2">
-        <v>900</v>
+        <v>375</v>
       </c>
       <c r="H50" s="2">
-        <v>980.3</v>
+        <v>426.8</v>
       </c>
       <c r="I50" t="s">
-        <v>259</v>
+        <v>422</v>
       </c>
       <c r="J50" s="2">
-        <v>99.22</v>
+        <v>100</v>
       </c>
       <c r="K50" s="2">
-        <v>3000254</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>18</v>
+        <v>3003807</v>
+      </c>
+      <c r="L50" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" t="s">
+        <v>34</v>
       </c>
       <c r="O50" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="P50" t="s">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="Q50" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>261</v>
+        <v>425</v>
       </c>
       <c r="S50" t="s">
-        <v>262</v>
+        <v>426</v>
       </c>
       <c r="T50" t="s">
-        <v>263</v>
+        <v>426</v>
       </c>
       <c r="U50" s="2">
         <v>100</v>
       </c>
-      <c r="V50" s="4" t="s">
-        <v>264</v>
+      <c r="V50" t="s">
+        <v>427</v>
       </c>
       <c r="W50" s="2">
-        <v>540</v>
+        <v>2306</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>645</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>452</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>266</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2">
-        <v>42467</v>
+        <v>16909</v>
       </c>
       <c r="D51" s="2">
-        <v>43522</v>
+        <v>17343</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G51" s="2">
-        <v>600</v>
+        <v>210</v>
       </c>
       <c r="H51" s="2">
-        <v>671</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="J51" s="2">
+        <v>98.61</v>
+      </c>
+      <c r="K51" s="2">
+        <v>3003378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>423</v>
+      </c>
+      <c r="M51" t="s">
+        <v>455</v>
+      </c>
+      <c r="N51" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" t="s">
+        <v>135</v>
+      </c>
+      <c r="P51" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>57</v>
+      </c>
+      <c r="R51" t="s">
+        <v>456</v>
+      </c>
+      <c r="S51" t="s">
+        <v>457</v>
+      </c>
+      <c r="T51" t="s">
+        <v>458</v>
+      </c>
+      <c r="U51" s="2">
         <v>100</v>
       </c>
-      <c r="K51" s="2">
-        <v>3000206</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O51" t="s">
-        <v>260</v>
-      </c>
-      <c r="P51" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" t="s">
-        <v>268</v>
-      </c>
-      <c r="S51" t="s">
-        <v>269</v>
-      </c>
-      <c r="T51" t="s">
-        <v>269</v>
-      </c>
-      <c r="U51" s="2">
-        <v>110.26</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>270</v>
+      <c r="V51" t="s">
+        <v>459</v>
       </c>
       <c r="W51" s="2">
-        <v>609</v>
-      </c>
-      <c r="X51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>271</v>
+        <v>431</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>432</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>177</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2">
-        <v>36056</v>
+        <v>115623</v>
       </c>
       <c r="D52" s="2">
-        <v>37288</v>
+        <v>115946</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G52" s="2">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="H52" s="2">
-        <v>761.9</v>
+        <v>219.2</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>438</v>
       </c>
       <c r="J52" s="2">
-        <v>97.07</v>
+        <v>100</v>
       </c>
       <c r="K52" s="2">
-        <v>3001328</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>18</v>
+        <v>3003511</v>
+      </c>
+      <c r="L52" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" t="s">
+        <v>34</v>
       </c>
       <c r="O52" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="P52" t="s">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="Q52" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="R52" t="s">
-        <v>180</v>
+        <v>441</v>
       </c>
       <c r="S52" t="s">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="T52" t="s">
-        <v>182</v>
+        <v>442</v>
       </c>
       <c r="U52" s="2">
         <v>100</v>
       </c>
-      <c r="V52" s="4" t="s">
-        <v>183</v>
+      <c r="V52" t="s">
+        <v>443</v>
       </c>
       <c r="W52" s="2">
-        <v>37</v>
+        <v>2066</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>321</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y52">
-    <sortCondition ref="O2:O52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB52">
+    <sortCondition ref="P2:P52"/>
+    <sortCondition ref="Q2:Q52"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/module7/rgi_main_results/ED010.xlsx
+++ b/module7/rgi_main_results/ED010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcarthur/Downloads/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcarthur/GIT/IDE_2024/module7/rgi_main_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{39543933-8433-C34E-85BE-980B7BDDBCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E451134-EDEE-9643-A3AF-08644BE03A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED010" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="460">
   <si>
-    <t>ORF_ID</t>
-  </si>
-  <si>
     <t>Contig</t>
   </si>
   <si>
@@ -37,33 +34,9 @@
     <t>Orientation</t>
   </si>
   <si>
-    <t>Cut_Off</t>
-  </si>
-  <si>
-    <t>Pass_Bitscore</t>
-  </si>
-  <si>
-    <t>Best_Hit_Bitscore</t>
-  </si>
-  <si>
-    <t>Best_Hit_ARO</t>
-  </si>
-  <si>
-    <t>Best_Identities</t>
-  </si>
-  <si>
     <t>ARO</t>
   </si>
   <si>
-    <t>Model_type</t>
-  </si>
-  <si>
-    <t>SNPs_in_Best_Hit_ARO</t>
-  </si>
-  <si>
-    <t>Other_SNPs</t>
-  </si>
-  <si>
     <t>Drug Class</t>
   </si>
   <si>
@@ -73,36 +46,18 @@
     <t>AMR Gene Family</t>
   </si>
   <si>
-    <t>Predicted_DNA</t>
-  </si>
-  <si>
-    <t>Predicted_Protein</t>
-  </si>
-  <si>
-    <t>CARD_Protein_Sequence</t>
-  </si>
-  <si>
     <t>Percentage Length of Reference Sequence</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Model_ID</t>
-  </si>
-  <si>
     <t>Nudged</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Hit_Start</t>
-  </si>
-  <si>
-    <t>Hit_End</t>
-  </si>
-  <si>
     <t>Antibiotic</t>
   </si>
   <si>
@@ -1400,12 +1355,57 @@
   </si>
   <si>
     <t>gnl|BL_ORD_ID|1983|hsp_num:0</t>
+  </si>
+  <si>
+    <t>ORF ID</t>
+  </si>
+  <si>
+    <t>Cut Off</t>
+  </si>
+  <si>
+    <t>Pass Bitscore</t>
+  </si>
+  <si>
+    <t>Best Hit Bitscore</t>
+  </si>
+  <si>
+    <t>Best Hit ARO</t>
+  </si>
+  <si>
+    <t>Best Identities</t>
+  </si>
+  <si>
+    <t>Model type</t>
+  </si>
+  <si>
+    <t>SNPs in Best Hit ARO</t>
+  </si>
+  <si>
+    <t>Other SNPs</t>
+  </si>
+  <si>
+    <t>Predicted DNA</t>
+  </si>
+  <si>
+    <t>Predicted Protein</t>
+  </si>
+  <si>
+    <t>CARD Protein Sequence</t>
+  </si>
+  <si>
+    <t>Model ID</t>
+  </si>
+  <si>
+    <t>Hit Start</t>
+  </si>
+  <si>
+    <t>Hit End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1892,11 +1892,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2272,4197 +2272,4197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="A1:AB52"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="68.83203125" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="2"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="31.83203125" customWidth="1"/>
     <col min="15" max="15" width="51.33203125" customWidth="1"/>
     <col min="16" max="16" width="45.6640625" customWidth="1"/>
     <col min="17" max="17" width="71.83203125" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="2"/>
-    <col min="23" max="27" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="23" max="27" width="10.83203125" style="1"/>
     <col min="28" max="28" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="2">
+        <v>199</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1">
         <v>49966</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>51714</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
         <v>1000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1096.5999999999999</v>
       </c>
       <c r="I2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="2">
+        <v>201</v>
+      </c>
+      <c r="J2" s="1">
         <v>100</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>3003950</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="S2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="T2" t="s">
-        <v>219</v>
-      </c>
-      <c r="U2" s="2">
+        <v>204</v>
+      </c>
+      <c r="U2" s="1">
         <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>220</v>
-      </c>
-      <c r="W2" s="2">
+        <v>205</v>
+      </c>
+      <c r="W2" s="1">
         <v>2423</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>0</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>1746</v>
       </c>
       <c r="AB2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="2">
+        <v>181</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1">
         <v>81793</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>83436</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
         <v>1050</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1056.5999999999999</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="2">
+        <v>183</v>
+      </c>
+      <c r="J3" s="1">
         <v>99.45</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>3003952</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="S3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="T3" t="s">
-        <v>202</v>
-      </c>
-      <c r="U3" s="2">
+        <v>187</v>
+      </c>
+      <c r="U3" s="1">
         <v>100</v>
       </c>
       <c r="V3" t="s">
-        <v>203</v>
-      </c>
-      <c r="W3" s="2">
+        <v>188</v>
+      </c>
+      <c r="W3" s="1">
         <v>2424</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>0</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>1641</v>
       </c>
       <c r="AB3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="2">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1">
         <v>234315</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>235796</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
         <v>900</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>922.9</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="2">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1">
         <v>99.8</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>3000237</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U4" s="2">
+        <v>74</v>
+      </c>
+      <c r="U4" s="1">
         <v>99.6</v>
       </c>
       <c r="V4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W4" s="2">
+        <v>75</v>
+      </c>
+      <c r="W4" s="1">
         <v>826</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>6</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>1485</v>
       </c>
       <c r="AB4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="2">
+        <v>364</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="1">
         <v>7913</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8590</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
         <v>400</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>444.9</v>
       </c>
       <c r="I5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J5" s="2">
+        <v>366</v>
+      </c>
+      <c r="J5" s="1">
         <v>98.67</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>3003841</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="R5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="S5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="T5" t="s">
-        <v>385</v>
-      </c>
-      <c r="U5" s="2">
+        <v>370</v>
+      </c>
+      <c r="U5" s="1">
         <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>386</v>
-      </c>
-      <c r="W5" s="2">
+        <v>371</v>
+      </c>
+      <c r="W5" s="1">
         <v>2331</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>0</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>675</v>
       </c>
       <c r="AB5" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="2">
+        <v>272</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="1">
         <v>42467</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>43522</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
         <v>600</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>671</v>
       </c>
       <c r="I6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="2">
+        <v>274</v>
+      </c>
+      <c r="J6" s="1">
         <v>100</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>3000206</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="S6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="T6" t="s">
-        <v>291</v>
-      </c>
-      <c r="U6" s="2">
+        <v>276</v>
+      </c>
+      <c r="U6" s="1">
         <v>110.26</v>
       </c>
       <c r="V6" t="s">
-        <v>292</v>
-      </c>
-      <c r="W6" s="2">
+        <v>277</v>
+      </c>
+      <c r="W6" s="1">
         <v>609</v>
       </c>
-      <c r="X6" s="2" t="b">
+      <c r="X6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z6" s="2">
+      <c r="Y6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>1053</v>
       </c>
       <c r="AB6" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="2">
+        <v>336</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="1">
         <v>43057</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>43587</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
         <v>280</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>353</v>
-      </c>
-      <c r="J7" s="2">
+        <v>338</v>
+      </c>
+      <c r="J7" s="1">
         <v>100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>3000516</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="S7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="T7" t="s">
-        <v>355</v>
-      </c>
-      <c r="U7" s="2">
+        <v>340</v>
+      </c>
+      <c r="U7" s="1">
         <v>100</v>
       </c>
       <c r="V7" t="s">
-        <v>356</v>
-      </c>
-      <c r="W7" s="2">
+        <v>341</v>
+      </c>
+      <c r="W7" s="1">
         <v>1330</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>0</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>528</v>
       </c>
       <c r="AB7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" s="2">
+        <v>350</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="1">
         <v>44903</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>46441</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
         <v>900</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>996.1</v>
       </c>
       <c r="I8" t="s">
-        <v>367</v>
-      </c>
-      <c r="J8" s="2">
+        <v>352</v>
+      </c>
+      <c r="J8" s="1">
         <v>100</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>3000074</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O8" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="S8" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="T8" t="s">
-        <v>369</v>
-      </c>
-      <c r="U8" s="2">
+        <v>354</v>
+      </c>
+      <c r="U8" s="1">
         <v>100</v>
       </c>
       <c r="V8" t="s">
-        <v>370</v>
-      </c>
-      <c r="W8" s="2">
+        <v>355</v>
+      </c>
+      <c r="W8" s="1">
         <v>1847</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="1">
         <v>0</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="1">
         <v>1536</v>
       </c>
       <c r="AB8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
         <v>137106</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>138050</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
         <v>500</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>622.1</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
         <v>98.73</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>3003843</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="2">
+        <v>25</v>
+      </c>
+      <c r="U9" s="1">
         <v>100</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="2">
+        <v>26</v>
+      </c>
+      <c r="W9" s="1">
         <v>5921</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="1">
         <v>0</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="1">
         <v>942</v>
       </c>
       <c r="AB9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
         <v>293850</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>295082</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <v>700</v>
+      </c>
+      <c r="H10" s="1">
+        <v>769.6</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="2">
-        <v>700</v>
-      </c>
-      <c r="H10" s="2">
-        <v>769.6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>98.05</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>3001214</v>
       </c>
       <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
         <v>33</v>
       </c>
-      <c r="M10" t="s">
+      <c r="S10" t="s">
         <v>34</v>
       </c>
-      <c r="N10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="T10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="1">
+        <v>100</v>
+      </c>
+      <c r="V10" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="W10" s="1">
+        <v>1191</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1230</v>
+      </c>
+      <c r="AB10" t="s">
         <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" t="s">
-        <v>49</v>
-      </c>
-      <c r="T10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="2">
-        <v>100</v>
-      </c>
-      <c r="V10" t="s">
-        <v>51</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1191</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1230</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="2">
+        <v>160</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="1">
         <v>89358</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>90389</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
         <v>600</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>639.4</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="2">
+        <v>162</v>
+      </c>
+      <c r="J11" s="1">
         <v>99.42</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>3003548</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="S11" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="T11" t="s">
-        <v>180</v>
-      </c>
-      <c r="U11" s="2">
+        <v>165</v>
+      </c>
+      <c r="U11" s="1">
         <v>100</v>
       </c>
       <c r="V11" t="s">
-        <v>181</v>
-      </c>
-      <c r="W11" s="2">
+        <v>166</v>
+      </c>
+      <c r="W11" s="1">
         <v>1442</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="1">
         <v>0</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="1">
         <v>1029</v>
       </c>
       <c r="AB11" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="2">
+        <v>167</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="1">
         <v>90389</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>92440</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
         <v>1300</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1325.8</v>
       </c>
       <c r="I12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" s="2">
+        <v>169</v>
+      </c>
+      <c r="J12" s="1">
         <v>98.98</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>3003549</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R12" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="S12" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="T12" t="s">
-        <v>187</v>
-      </c>
-      <c r="U12" s="2">
+        <v>172</v>
+      </c>
+      <c r="U12" s="1">
         <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>188</v>
-      </c>
-      <c r="W12" s="2">
+        <v>173</v>
+      </c>
+      <c r="W12" s="1">
         <v>2056</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="1">
         <v>0</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="1">
         <v>2049</v>
       </c>
       <c r="AB12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="2">
+        <v>174</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1">
         <v>92437</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>93903</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>875</v>
+      </c>
+      <c r="H13" s="1">
+        <v>909.8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="1">
+        <v>97.95</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3003550</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>177</v>
+      </c>
+      <c r="S13" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="1">
+        <v>100</v>
+      </c>
+      <c r="V13" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" s="1">
         <v>45</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="2">
-        <v>875</v>
-      </c>
-      <c r="H13" s="2">
-        <v>909.8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>191</v>
-      </c>
-      <c r="J13" s="2">
-        <v>97.95</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3003550</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" t="s">
-        <v>192</v>
-      </c>
-      <c r="S13" t="s">
-        <v>193</v>
-      </c>
-      <c r="T13" t="s">
-        <v>194</v>
-      </c>
-      <c r="U13" s="2">
-        <v>100</v>
-      </c>
-      <c r="V13" t="s">
-        <v>195</v>
-      </c>
-      <c r="W13" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="1">
         <v>0</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="1">
         <v>1464</v>
       </c>
       <c r="AB13" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="2">
+        <v>190</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="1">
         <v>36056</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>37288</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
         <v>700</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>761.9</v>
       </c>
       <c r="I14" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="2">
+        <v>192</v>
+      </c>
+      <c r="J14" s="1">
         <v>97.07</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>3001328</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O14" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="P14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>194</v>
+      </c>
+      <c r="S14" t="s">
+        <v>195</v>
+      </c>
+      <c r="T14" t="s">
+        <v>196</v>
+      </c>
+      <c r="U14" s="1">
+        <v>100</v>
+      </c>
+      <c r="V14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W14" s="1">
         <v>37</v>
       </c>
-      <c r="R14" t="s">
-        <v>209</v>
-      </c>
-      <c r="S14" t="s">
-        <v>210</v>
-      </c>
-      <c r="T14" t="s">
-        <v>211</v>
-      </c>
-      <c r="U14" s="2">
-        <v>100</v>
-      </c>
-      <c r="V14" t="s">
-        <v>212</v>
-      </c>
-      <c r="W14" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="1">
         <v>0</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="1">
         <v>1230</v>
       </c>
       <c r="AB14" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="2">
+        <v>254</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="1">
         <v>58676</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>59884</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
         <v>750</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>783.1</v>
       </c>
       <c r="I15" t="s">
-        <v>271</v>
-      </c>
-      <c r="J15" s="2">
+        <v>256</v>
+      </c>
+      <c r="J15" s="1">
         <v>99.75</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>3001216</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="S15" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="T15" t="s">
-        <v>275</v>
-      </c>
-      <c r="U15" s="2">
+        <v>260</v>
+      </c>
+      <c r="U15" s="1">
         <v>100</v>
       </c>
       <c r="V15" t="s">
-        <v>276</v>
-      </c>
-      <c r="W15" s="2">
+        <v>261</v>
+      </c>
+      <c r="W15" s="1">
         <v>375</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="1">
         <v>0</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="1">
         <v>1206</v>
       </c>
       <c r="AB15" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="2">
+        <v>263</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="1">
         <v>40929</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>42467</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
         <v>900</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>980.3</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
-      </c>
-      <c r="J16" s="2">
+        <v>265</v>
+      </c>
+      <c r="J16" s="1">
         <v>99.22</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>3000254</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="P16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="S16" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="T16" t="s">
-        <v>284</v>
-      </c>
-      <c r="U16" s="2">
+        <v>269</v>
+      </c>
+      <c r="U16" s="1">
         <v>100</v>
       </c>
       <c r="V16" t="s">
-        <v>285</v>
-      </c>
-      <c r="W16" s="2">
+        <v>270</v>
+      </c>
+      <c r="W16" s="1">
         <v>540</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="1">
         <v>0</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="1">
         <v>1536</v>
       </c>
       <c r="AB16" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="2">
+        <v>343</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="1">
         <v>43714</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>44886</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
         <v>675</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>736.5</v>
       </c>
       <c r="I17" t="s">
-        <v>360</v>
-      </c>
-      <c r="J17" s="2">
+        <v>345</v>
+      </c>
+      <c r="J17" s="1">
         <v>99.49</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>3000027</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="P17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="S17" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="T17" t="s">
-        <v>363</v>
-      </c>
-      <c r="U17" s="2">
+        <v>348</v>
+      </c>
+      <c r="U17" s="1">
         <v>100</v>
       </c>
       <c r="V17" t="s">
-        <v>364</v>
-      </c>
-      <c r="W17" s="2">
+        <v>349</v>
+      </c>
+      <c r="W17" s="1">
         <v>1757</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="1">
         <v>0</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="1">
         <v>1170</v>
       </c>
       <c r="AB17" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="2">
+        <v>279</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="1">
         <v>44046</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>44660</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
         <v>390</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>400.6</v>
       </c>
       <c r="I18" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" s="2">
+        <v>281</v>
+      </c>
+      <c r="J18" s="1">
         <v>100</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>3000832</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="R18" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="S18" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="T18" t="s">
-        <v>300</v>
-      </c>
-      <c r="U18" s="2">
+        <v>285</v>
+      </c>
+      <c r="U18" s="1">
         <v>100</v>
       </c>
       <c r="V18" t="s">
-        <v>301</v>
-      </c>
-      <c r="W18" s="2">
+        <v>286</v>
+      </c>
+      <c r="W18" s="1">
         <v>1015</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="1">
         <v>0</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18" s="1">
         <v>612</v>
       </c>
       <c r="AB18" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>371</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="2">
+        <v>356</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="1">
         <v>21791</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>22204</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
         <v>240</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>258.10000000000002</v>
       </c>
       <c r="I19" t="s">
-        <v>373</v>
-      </c>
-      <c r="J19" s="2">
+        <v>358</v>
+      </c>
+      <c r="J19" s="1">
         <v>100</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>3000676</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O19" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="P19" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="R19" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="S19" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="T19" t="s">
-        <v>376</v>
-      </c>
-      <c r="U19" s="2">
+        <v>361</v>
+      </c>
+      <c r="U19" s="1">
         <v>100</v>
       </c>
       <c r="V19" t="s">
-        <v>377</v>
-      </c>
-      <c r="W19" s="2">
+        <v>362</v>
+      </c>
+      <c r="W19" s="1">
         <v>1248</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="1">
         <v>0</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="1">
         <v>411</v>
       </c>
       <c r="AB19" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C20" s="2">
+        <v>288</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="1">
         <v>44665</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>48258</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
         <v>2300</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>2335.5</v>
       </c>
       <c r="I20" t="s">
-        <v>305</v>
-      </c>
-      <c r="J20" s="2">
+        <v>290</v>
+      </c>
+      <c r="J20" s="1">
         <v>97.83</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>3000833</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="P20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="R20" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="S20" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="T20" t="s">
-        <v>308</v>
-      </c>
-      <c r="U20" s="2">
+        <v>293</v>
+      </c>
+      <c r="U20" s="1">
         <v>100</v>
       </c>
       <c r="V20" t="s">
-        <v>309</v>
-      </c>
-      <c r="W20" s="2">
+        <v>294</v>
+      </c>
+      <c r="W20" s="1">
         <v>1318</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="1">
         <v>0</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="1">
         <v>3591</v>
       </c>
       <c r="AB20" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1">
         <v>13010</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>13672</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
         <v>380</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>438.7</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="2">
+        <v>51</v>
+      </c>
+      <c r="J21" s="1">
         <v>100</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>3000656</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="S21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
-      </c>
-      <c r="U21" s="2">
+        <v>54</v>
+      </c>
+      <c r="U21" s="1">
         <v>100</v>
       </c>
       <c r="V21" t="s">
-        <v>70</v>
-      </c>
-      <c r="W21" s="2">
+        <v>55</v>
+      </c>
+      <c r="W21" s="1">
         <v>520</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="1">
         <v>0</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21" s="1">
         <v>660</v>
       </c>
       <c r="AB21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="2">
+        <v>126</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1">
         <v>138843</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>140036</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="1">
         <v>670</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>751.1</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" s="2">
+        <v>128</v>
+      </c>
+      <c r="J22" s="1">
         <v>100</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>3004043</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="S22" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="T22" t="s">
-        <v>145</v>
-      </c>
-      <c r="U22" s="2">
+        <v>130</v>
+      </c>
+      <c r="U22" s="1">
         <v>100</v>
       </c>
       <c r="V22" t="s">
-        <v>146</v>
-      </c>
-      <c r="W22" s="2">
+        <v>131</v>
+      </c>
+      <c r="W22" s="1">
         <v>2661</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22" s="1">
         <v>0</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22" s="1">
         <v>1191</v>
       </c>
       <c r="AB22" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="1">
         <v>66793</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>68166</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1">
         <v>890</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>891.3</v>
       </c>
       <c r="I23" t="s">
-        <v>263</v>
-      </c>
-      <c r="J23" s="2">
+        <v>248</v>
+      </c>
+      <c r="J23" s="1">
         <v>100</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>3000830</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="P23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R23" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="S23" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="T23" t="s">
-        <v>266</v>
-      </c>
-      <c r="U23" s="2">
+        <v>251</v>
+      </c>
+      <c r="U23" s="1">
         <v>100</v>
       </c>
       <c r="V23" t="s">
-        <v>267</v>
-      </c>
-      <c r="W23" s="2">
+        <v>252</v>
+      </c>
+      <c r="W23" s="1">
         <v>152</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z23" s="1">
         <v>0</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23" s="1">
         <v>1371</v>
       </c>
       <c r="AB23" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1">
         <v>11454</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>12611</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1">
         <v>675</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>733.8</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="2">
+        <v>40</v>
+      </c>
+      <c r="J24" s="1">
         <v>99.74</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>3000499</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O24" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>60</v>
-      </c>
-      <c r="U24" s="2">
+        <v>45</v>
+      </c>
+      <c r="U24" s="1">
         <v>100</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
-      </c>
-      <c r="W24" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" s="1">
         <v>1445</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="1">
         <v>0</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24" s="1">
         <v>1155</v>
       </c>
       <c r="AB24" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="2">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1">
         <v>493</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>1317</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1">
         <v>450</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>528.9</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="2">
+        <v>79</v>
+      </c>
+      <c r="J25" s="1">
         <v>98.18</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>3000508</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N25" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s">
-        <v>98</v>
-      </c>
-      <c r="U25" s="2">
+        <v>83</v>
+      </c>
+      <c r="U25" s="1">
         <v>100</v>
       </c>
       <c r="V25" t="s">
-        <v>99</v>
-      </c>
-      <c r="W25" s="2">
+        <v>84</v>
+      </c>
+      <c r="W25" s="1">
         <v>91</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25" s="1">
         <v>0</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25" s="1">
         <v>822</v>
       </c>
       <c r="AB25" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="2">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1">
         <v>2776</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>5889</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1">
         <v>1850</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>1942.2</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="2">
+        <v>88</v>
+      </c>
+      <c r="J26" s="1">
         <v>99.81</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>3000796</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P26" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="S26" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="T26" t="s">
-        <v>106</v>
-      </c>
-      <c r="U26" s="2">
+        <v>91</v>
+      </c>
+      <c r="U26" s="1">
         <v>100</v>
       </c>
       <c r="V26" t="s">
-        <v>107</v>
-      </c>
-      <c r="W26" s="2">
+        <v>92</v>
+      </c>
+      <c r="W26" s="1">
         <v>121</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z26" s="1">
         <v>0</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26" s="1">
         <v>3111</v>
       </c>
       <c r="AB26" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="2">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1">
         <v>5914</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>7071</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1">
         <v>675</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>721.5</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="2">
+        <v>95</v>
+      </c>
+      <c r="J27" s="1">
         <v>99.48</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>3000795</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R27" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="S27" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="T27" t="s">
-        <v>113</v>
-      </c>
-      <c r="U27" s="2">
+        <v>98</v>
+      </c>
+      <c r="U27" s="1">
         <v>100</v>
       </c>
       <c r="V27" t="s">
-        <v>114</v>
-      </c>
-      <c r="W27" s="2">
+        <v>99</v>
+      </c>
+      <c r="W27" s="1">
         <v>1903</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="1">
         <v>1155</v>
       </c>
       <c r="AB27" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="2">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1">
         <v>201418</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>202050</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1">
         <v>400</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>419.5</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="2">
+        <v>102</v>
+      </c>
+      <c r="J28" s="1">
         <v>99.52</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>3000518</v>
       </c>
       <c r="L28" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="S28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="T28" t="s">
-        <v>120</v>
-      </c>
-      <c r="U28" s="2">
+        <v>105</v>
+      </c>
+      <c r="U28" s="1">
         <v>100</v>
       </c>
       <c r="V28" t="s">
-        <v>121</v>
-      </c>
-      <c r="W28" s="2">
+        <v>106</v>
+      </c>
+      <c r="W28" s="1">
         <v>869</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28" s="1">
         <v>0</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="1">
         <v>630</v>
       </c>
       <c r="AB28" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="2">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1">
         <v>135671</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>138820</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1">
         <v>1900</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>1989.5</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="2">
+        <v>119</v>
+      </c>
+      <c r="J29" s="1">
         <v>99.81</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>3000216</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O29" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P29" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="S29" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="T29" t="s">
-        <v>138</v>
-      </c>
-      <c r="U29" s="2">
+        <v>123</v>
+      </c>
+      <c r="U29" s="1">
         <v>100</v>
       </c>
       <c r="V29" t="s">
-        <v>139</v>
-      </c>
-      <c r="W29" s="2">
+        <v>124</v>
+      </c>
+      <c r="W29" s="1">
         <v>1104</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="Z29" s="1">
         <v>0</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29" s="1">
         <v>3147</v>
       </c>
       <c r="AB29" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="2">
+        <v>133</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="1">
         <v>139493</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>142606</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1">
         <v>1900</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>1979.5</v>
       </c>
       <c r="I30" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="2">
+        <v>135</v>
+      </c>
+      <c r="J30" s="1">
         <v>99.9</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>3000491</v>
       </c>
       <c r="L30" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N30" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O30" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="P30" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="S30" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="T30" t="s">
-        <v>154</v>
-      </c>
-      <c r="U30" s="2">
+        <v>139</v>
+      </c>
+      <c r="U30" s="1">
         <v>100</v>
       </c>
       <c r="V30" t="s">
-        <v>155</v>
-      </c>
-      <c r="W30" s="2">
+        <v>140</v>
+      </c>
+      <c r="W30" s="1">
         <v>1427</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="Z30" s="1">
         <v>0</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30" s="1">
         <v>3111</v>
       </c>
       <c r="AB30" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="2">
+        <v>214</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="1">
         <v>80198</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>81445</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1">
         <v>725</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>774.2</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="2">
+        <v>216</v>
+      </c>
+      <c r="J31" s="1">
         <v>99.04</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>3000792</v>
       </c>
       <c r="L31" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O31" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="P31" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R31" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="S31" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="T31" t="s">
-        <v>235</v>
-      </c>
-      <c r="U31" s="2">
+        <v>220</v>
+      </c>
+      <c r="U31" s="1">
         <v>100</v>
       </c>
       <c r="V31" t="s">
-        <v>236</v>
-      </c>
-      <c r="W31" s="2">
+        <v>221</v>
+      </c>
+      <c r="W31" s="1">
         <v>387</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31" s="1">
         <v>0</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="1">
         <v>1245</v>
       </c>
       <c r="AB31" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="2">
+        <v>223</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="1">
         <v>81445</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>84567</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1">
         <v>1800</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>1905.6</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
-      </c>
-      <c r="J32" s="2">
+        <v>225</v>
+      </c>
+      <c r="J32" s="1">
         <v>99.62</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>3000793</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="P32" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R32" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="S32" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="T32" t="s">
-        <v>243</v>
-      </c>
-      <c r="U32" s="2">
+        <v>228</v>
+      </c>
+      <c r="U32" s="1">
         <v>100</v>
       </c>
       <c r="V32" t="s">
-        <v>244</v>
-      </c>
-      <c r="W32" s="2">
+        <v>229</v>
+      </c>
+      <c r="W32" s="1">
         <v>820</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="Z32" s="1">
         <v>0</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AA32" s="1">
         <v>3120</v>
       </c>
       <c r="AB32" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="2">
+        <v>230</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="1">
         <v>84568</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>87645</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="E33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1">
         <v>1800</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>1912.9</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
-      </c>
-      <c r="J33" s="2">
+        <v>232</v>
+      </c>
+      <c r="J33" s="1">
         <v>99.51</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>3000794</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N33" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R33" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="S33" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="T33" t="s">
-        <v>250</v>
-      </c>
-      <c r="U33" s="2">
+        <v>235</v>
+      </c>
+      <c r="U33" s="1">
         <v>100</v>
       </c>
       <c r="V33" t="s">
-        <v>251</v>
-      </c>
-      <c r="W33" s="2">
+        <v>236</v>
+      </c>
+      <c r="W33" s="1">
         <v>1315</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="1">
         <v>0</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33" s="1">
         <v>3075</v>
       </c>
       <c r="AB33" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>252</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="2">
+        <v>237</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="1">
         <v>478</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>663</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1">
         <v>100</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>102.4</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
-      </c>
-      <c r="J34" s="2">
+        <v>239</v>
+      </c>
+      <c r="J34" s="1">
         <v>85.25</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>3005069</v>
       </c>
       <c r="L34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O34" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="P34" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="S34" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="T34" t="s">
-        <v>258</v>
-      </c>
-      <c r="U34" s="2">
+        <v>243</v>
+      </c>
+      <c r="U34" s="1">
         <v>100</v>
       </c>
       <c r="V34" t="s">
-        <v>259</v>
-      </c>
-      <c r="W34" s="2">
+        <v>244</v>
+      </c>
+      <c r="W34" s="1">
         <v>3807</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34" s="1">
         <v>0</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34" s="1">
         <v>183</v>
       </c>
       <c r="AB34" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>445</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C35" s="2">
+        <v>430</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="1">
         <v>90458</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>91180</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="E35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1">
         <v>450</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>465.7</v>
       </c>
       <c r="I35" t="s">
-        <v>447</v>
-      </c>
-      <c r="J35" s="2">
+        <v>432</v>
+      </c>
+      <c r="J35" s="1">
         <v>95.82</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>3000828</v>
       </c>
       <c r="L35" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N35" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O35" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="P35" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q35" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R35" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="S35" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="T35" t="s">
-        <v>450</v>
-      </c>
-      <c r="U35" s="2">
+        <v>435</v>
+      </c>
+      <c r="U35" s="1">
         <v>100</v>
       </c>
       <c r="V35" t="s">
-        <v>451</v>
-      </c>
-      <c r="W35" s="2">
+        <v>436</v>
+      </c>
+      <c r="W35" s="1">
         <v>1337</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="Z35" s="1">
         <v>0</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AA35" s="1">
         <v>717</v>
       </c>
       <c r="AB35" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>334</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C36" s="2">
+        <v>319</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" s="1">
         <v>18893</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>19222</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1">
         <v>150</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>189.5</v>
       </c>
       <c r="I36" t="s">
-        <v>336</v>
-      </c>
-      <c r="J36" s="2">
+        <v>321</v>
+      </c>
+      <c r="J36" s="1">
         <v>84.4</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>3004583</v>
       </c>
       <c r="L36" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O36" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="P36" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q36" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="R36" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="S36" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="T36" t="s">
-        <v>341</v>
-      </c>
-      <c r="U36" s="2">
+        <v>326</v>
+      </c>
+      <c r="U36" s="1">
         <v>100</v>
       </c>
       <c r="V36" t="s">
-        <v>342</v>
-      </c>
-      <c r="W36" s="2">
+        <v>327</v>
+      </c>
+      <c r="W36" s="1">
         <v>3286</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z36" s="1">
         <v>0</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA36" s="1">
         <v>327</v>
       </c>
       <c r="AB36" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>344</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="2">
+        <v>329</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C37" s="1">
         <v>19209</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>19574</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
         <v>150</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>176.4</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
-      </c>
-      <c r="J37" s="2">
+        <v>331</v>
+      </c>
+      <c r="J37" s="1">
         <v>82.2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>3004580</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O37" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="P37" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="R37" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="S37" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="T37" t="s">
-        <v>349</v>
-      </c>
-      <c r="U37" s="2">
+        <v>334</v>
+      </c>
+      <c r="U37" s="1">
         <v>100.83</v>
       </c>
       <c r="V37" t="s">
-        <v>350</v>
-      </c>
-      <c r="W37" s="2">
+        <v>335</v>
+      </c>
+      <c r="W37" s="1">
         <v>3283</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="Z37" s="1">
         <v>6</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AA37" s="1">
         <v>360</v>
       </c>
       <c r="AB37" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>388</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C38" s="2">
+        <v>373</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>220</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="E38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1">
         <v>75</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>80.5</v>
       </c>
       <c r="I38" t="s">
-        <v>390</v>
-      </c>
-      <c r="J38" s="2">
+        <v>375</v>
+      </c>
+      <c r="J38" s="1">
         <v>46.48</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>3007014</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N38" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O38" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="P38" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q38" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="R38" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="S38" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="T38" t="s">
-        <v>394</v>
-      </c>
-      <c r="U38" s="2">
+        <v>379</v>
+      </c>
+      <c r="U38" s="1">
         <v>68.22</v>
       </c>
       <c r="V38" t="s">
-        <v>395</v>
-      </c>
-      <c r="W38" s="2">
+        <v>380</v>
+      </c>
+      <c r="W38" s="1">
         <v>5730</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="1">
         <v>3</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AA38" s="1">
         <v>216</v>
       </c>
       <c r="AB38" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>310</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C39" s="2">
+        <v>295</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="1">
         <v>16506</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>16889</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1">
         <v>230</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>261.5</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
-      </c>
-      <c r="J39" s="2">
+        <v>297</v>
+      </c>
+      <c r="J39" s="1">
         <v>100</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>3000263</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N39" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O39" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="P39" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="Q39" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="R39" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="S39" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="T39" t="s">
-        <v>317</v>
-      </c>
-      <c r="U39" s="2">
+        <v>302</v>
+      </c>
+      <c r="U39" s="1">
         <v>100</v>
       </c>
       <c r="V39" t="s">
-        <v>318</v>
-      </c>
-      <c r="W39" s="2">
+        <v>303</v>
+      </c>
+      <c r="W39" s="1">
         <v>1922</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="Z39" s="1">
         <v>0</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AA39" s="1">
         <v>381</v>
       </c>
       <c r="AB39" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="2">
+        <v>142</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="1">
         <v>12928</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>14061</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="E40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1">
         <v>725</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>767.7</v>
       </c>
       <c r="I40" t="s">
-        <v>159</v>
-      </c>
-      <c r="J40" s="2">
+        <v>144</v>
+      </c>
+      <c r="J40" s="1">
         <v>98.14</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>3006876</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O40" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="Q40" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="R40" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="S40" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="T40" t="s">
-        <v>165</v>
-      </c>
-      <c r="U40" s="2">
+        <v>150</v>
+      </c>
+      <c r="U40" s="1">
         <v>100</v>
       </c>
       <c r="V40" t="s">
-        <v>166</v>
-      </c>
-      <c r="W40" s="2">
+        <v>151</v>
+      </c>
+      <c r="W40" s="1">
         <v>4590</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="1">
         <v>0</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40" s="1">
         <v>1131</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>409</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C41" s="2">
+        <v>394</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="1">
         <v>122222</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>123580</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1">
         <v>850</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>916</v>
       </c>
       <c r="I41" t="s">
-        <v>411</v>
-      </c>
-      <c r="J41" s="2">
+        <v>396</v>
+      </c>
+      <c r="J41" s="1">
         <v>99.12</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>3003889</v>
       </c>
       <c r="L41" t="s">
+        <v>385</v>
+      </c>
+      <c r="M41" t="s">
+        <v>397</v>
+      </c>
+      <c r="N41" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" t="s">
+        <v>398</v>
+      </c>
+      <c r="P41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>399</v>
+      </c>
+      <c r="R41" t="s">
         <v>400</v>
       </c>
-      <c r="M41" t="s">
-        <v>412</v>
-      </c>
-      <c r="N41" t="s">
-        <v>34</v>
-      </c>
-      <c r="O41" t="s">
-        <v>413</v>
-      </c>
-      <c r="P41" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>414</v>
-      </c>
-      <c r="R41" t="s">
-        <v>415</v>
-      </c>
       <c r="S41" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="T41" t="s">
-        <v>417</v>
-      </c>
-      <c r="U41" s="2">
+        <v>402</v>
+      </c>
+      <c r="U41" s="1">
         <v>100</v>
       </c>
       <c r="V41" t="s">
-        <v>418</v>
-      </c>
-      <c r="W41" s="2">
+        <v>403</v>
+      </c>
+      <c r="W41" s="1">
         <v>2372</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41" s="1">
         <v>0</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41" s="1">
         <v>1356</v>
       </c>
       <c r="AB41" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="2">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="1">
         <v>47959</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>49053</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1">
         <v>250</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>263.8</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J42" s="2">
+        <v>109</v>
+      </c>
+      <c r="J42" s="1">
         <v>38.229999999999997</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>3002909</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N42" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O42" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q42" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="R42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="S42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="T42" t="s">
-        <v>129</v>
-      </c>
-      <c r="U42" s="2">
+        <v>114</v>
+      </c>
+      <c r="U42" s="1">
         <v>104.3</v>
       </c>
       <c r="V42" t="s">
-        <v>130</v>
-      </c>
-      <c r="W42" s="2">
+        <v>115</v>
+      </c>
+      <c r="W42" s="1">
         <v>1157</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="1">
         <v>0</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42" s="1">
         <v>1047</v>
       </c>
       <c r="AB42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>397</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C43" s="2">
+        <v>382</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="1">
         <v>129239</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>131005</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1">
         <v>500</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>572.4</v>
       </c>
       <c r="I43" t="s">
-        <v>399</v>
-      </c>
-      <c r="J43" s="2">
+        <v>384</v>
+      </c>
+      <c r="J43" s="1">
         <v>53.11</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>3004446</v>
       </c>
       <c r="L43" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="N43" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O43" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="P43" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q43" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="R43" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="S43" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="T43" t="s">
-        <v>406</v>
-      </c>
-      <c r="U43" s="2">
+        <v>391</v>
+      </c>
+      <c r="U43" s="1">
         <v>96.39</v>
       </c>
       <c r="V43" t="s">
-        <v>407</v>
-      </c>
-      <c r="W43" s="2">
+        <v>392</v>
+      </c>
+      <c r="W43" s="1">
         <v>2886</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="Z43" s="1">
         <v>78</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43" s="1">
         <v>1752</v>
       </c>
       <c r="AB43" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="2">
+        <v>152</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="1">
         <v>56113</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>57756</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="2">
+      <c r="E44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="1">
         <v>1000</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>1089.3</v>
       </c>
       <c r="I44" t="s">
-        <v>169</v>
-      </c>
-      <c r="J44" s="2">
+        <v>154</v>
+      </c>
+      <c r="J44" s="1">
         <v>100</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>3003576</v>
       </c>
       <c r="L44" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N44" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O44" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q44" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="R44" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="S44" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="T44" t="s">
-        <v>172</v>
-      </c>
-      <c r="U44" s="2">
+        <v>157</v>
+      </c>
+      <c r="U44" s="1">
         <v>100</v>
       </c>
       <c r="V44" t="s">
-        <v>173</v>
-      </c>
-      <c r="W44" s="2">
+        <v>158</v>
+      </c>
+      <c r="W44" s="1">
         <v>516</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="Z44" s="1">
         <v>0</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AA44" s="1">
         <v>1641</v>
       </c>
       <c r="AB44" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="2">
+        <v>207</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="1">
         <v>21259</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>22425</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1">
         <v>700</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>755.4</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
-      </c>
-      <c r="J45" s="2">
+        <v>209</v>
+      </c>
+      <c r="J45" s="1">
         <v>99.23</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>3003577</v>
       </c>
       <c r="L45" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N45" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O45" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q45" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="R45" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="S45" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="T45" t="s">
-        <v>227</v>
-      </c>
-      <c r="U45" s="2">
+        <v>212</v>
+      </c>
+      <c r="U45" s="1">
         <v>100</v>
       </c>
       <c r="V45" t="s">
-        <v>228</v>
-      </c>
-      <c r="W45" s="2">
+        <v>213</v>
+      </c>
+      <c r="W45" s="1">
         <v>842</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="Z45" s="1">
         <v>0</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AA45" s="1">
         <v>1164</v>
       </c>
       <c r="AB45" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>319</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="2">
+        <v>304</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="1">
         <v>54204</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>55856</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1">
         <v>400</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>745.3</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
-      </c>
-      <c r="J46" s="2">
+        <v>306</v>
+      </c>
+      <c r="J46" s="1">
         <v>64.069999999999993</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>3005053</v>
       </c>
       <c r="L46" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N46" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P46" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q46" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="R46" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="S46" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="T46" t="s">
-        <v>324</v>
-      </c>
-      <c r="U46" s="2">
+        <v>309</v>
+      </c>
+      <c r="U46" s="1">
         <v>99.82</v>
       </c>
       <c r="V46" t="s">
-        <v>325</v>
-      </c>
-      <c r="W46" s="2">
+        <v>310</v>
+      </c>
+      <c r="W46" s="1">
         <v>3795</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="Z46" s="1">
         <v>0</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AA46" s="1">
         <v>1653</v>
       </c>
       <c r="AB46" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>327</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="2">
+        <v>312</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="1">
         <v>58725</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>59693</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="2">
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1">
         <v>550</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>628.6</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
-      </c>
-      <c r="J47" s="2">
+        <v>314</v>
+      </c>
+      <c r="J47" s="1">
         <v>99.38</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>3003578</v>
       </c>
       <c r="L47" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N47" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O47" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P47" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q47" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="R47" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="S47" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="T47" t="s">
-        <v>332</v>
-      </c>
-      <c r="U47" s="2">
+        <v>317</v>
+      </c>
+      <c r="U47" s="1">
         <v>100</v>
       </c>
       <c r="V47" t="s">
-        <v>333</v>
-      </c>
-      <c r="W47" s="2">
+        <v>318</v>
+      </c>
+      <c r="W47" s="1">
         <v>2014</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="Z47" s="1">
         <v>0</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA47" s="1">
         <v>966</v>
       </c>
       <c r="AB47" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="2">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1">
         <v>216346</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>217167</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="1">
+        <v>500</v>
+      </c>
+      <c r="H48" s="1">
+        <v>525.4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="1">
+        <v>100</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3002986</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>62</v>
+      </c>
+      <c r="R48" t="s">
+        <v>63</v>
+      </c>
+      <c r="S48" t="s">
+        <v>64</v>
+      </c>
+      <c r="T48" t="s">
+        <v>64</v>
+      </c>
+      <c r="U48" s="1">
+        <v>100</v>
+      </c>
+      <c r="V48" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="2">
-        <v>500</v>
-      </c>
-      <c r="H48" s="2">
-        <v>525.4</v>
-      </c>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-      <c r="J48" s="2">
-        <v>100</v>
-      </c>
-      <c r="K48" s="2">
-        <v>3002986</v>
-      </c>
-      <c r="L48" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" t="s">
-        <v>34</v>
-      </c>
-      <c r="N48" t="s">
-        <v>34</v>
-      </c>
-      <c r="O48" t="s">
-        <v>75</v>
-      </c>
-      <c r="P48" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>77</v>
-      </c>
-      <c r="R48" t="s">
-        <v>78</v>
-      </c>
-      <c r="S48" t="s">
-        <v>79</v>
-      </c>
-      <c r="T48" t="s">
-        <v>79</v>
-      </c>
-      <c r="U48" s="2">
-        <v>100</v>
-      </c>
-      <c r="V48" t="s">
-        <v>80</v>
-      </c>
-      <c r="W48" s="2">
+      <c r="W48" s="1">
         <v>1820</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="Z48" s="1">
         <v>0</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AA48" s="1">
         <v>819</v>
       </c>
       <c r="AB48" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>429</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C49" s="2">
+        <v>414</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="1">
         <v>115073</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>115537</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="2">
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="1">
         <v>300</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>311.2</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
-      </c>
-      <c r="J49" s="2">
+        <v>416</v>
+      </c>
+      <c r="J49" s="1">
         <v>100</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>3003381</v>
       </c>
       <c r="L49" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N49" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O49" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="Q49" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="R49" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="S49" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="T49" t="s">
-        <v>433</v>
-      </c>
-      <c r="U49" s="2">
+        <v>418</v>
+      </c>
+      <c r="U49" s="1">
         <v>100</v>
       </c>
       <c r="V49" t="s">
-        <v>434</v>
-      </c>
-      <c r="W49" s="2">
+        <v>419</v>
+      </c>
+      <c r="W49" s="1">
         <v>1005</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="Z49" s="1">
         <v>0</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA49" s="1">
         <v>462</v>
       </c>
       <c r="AB49" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>420</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" s="2">
+        <v>405</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C50" s="1">
         <v>140178</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>140825</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="2">
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1">
         <v>375</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>426.8</v>
       </c>
       <c r="I50" t="s">
-        <v>422</v>
-      </c>
-      <c r="J50" s="2">
+        <v>407</v>
+      </c>
+      <c r="J50" s="1">
         <v>100</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>3003807</v>
       </c>
       <c r="L50" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M50" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N50" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O50" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="Q50" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R50" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="S50" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="T50" t="s">
-        <v>426</v>
-      </c>
-      <c r="U50" s="2">
+        <v>411</v>
+      </c>
+      <c r="U50" s="1">
         <v>100</v>
       </c>
       <c r="V50" t="s">
-        <v>427</v>
-      </c>
-      <c r="W50" s="2">
+        <v>412</v>
+      </c>
+      <c r="W50" s="1">
         <v>2306</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="Z50" s="1">
         <v>0</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA50" s="1">
         <v>645</v>
       </c>
       <c r="AB50" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>452</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C51" s="2">
+        <v>437</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C51" s="1">
         <v>16909</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>17343</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1">
         <v>210</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>287</v>
       </c>
       <c r="I51" t="s">
-        <v>454</v>
-      </c>
-      <c r="J51" s="2">
+        <v>439</v>
+      </c>
+      <c r="J51" s="1">
         <v>98.61</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>3003378</v>
       </c>
       <c r="L51" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="N51" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O51" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="Q51" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R51" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="S51" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="T51" t="s">
-        <v>458</v>
-      </c>
-      <c r="U51" s="2">
+        <v>443</v>
+      </c>
+      <c r="U51" s="1">
         <v>100</v>
       </c>
       <c r="V51" t="s">
-        <v>459</v>
-      </c>
-      <c r="W51" s="2">
+        <v>444</v>
+      </c>
+      <c r="W51" s="1">
         <v>431</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="Z51" s="1">
         <v>0</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AA51" s="1">
         <v>432</v>
       </c>
       <c r="AB51" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>436</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C52" s="2">
+        <v>421</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" s="1">
         <v>115623</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>115946</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="2">
+      <c r="E52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1">
         <v>200</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>219.2</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
-      </c>
-      <c r="J52" s="2">
+        <v>423</v>
+      </c>
+      <c r="J52" s="1">
         <v>100</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>3003511</v>
       </c>
       <c r="L52" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N52" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O52" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="P52" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="Q52" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="R52" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="S52" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="T52" t="s">
-        <v>442</v>
-      </c>
-      <c r="U52" s="2">
+        <v>427</v>
+      </c>
+      <c r="U52" s="1">
         <v>100</v>
       </c>
       <c r="V52" t="s">
-        <v>443</v>
-      </c>
-      <c r="W52" s="2">
+        <v>428</v>
+      </c>
+      <c r="W52" s="1">
         <v>2066</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="Z52" s="1">
         <v>0</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AA52" s="1">
         <v>321</v>
       </c>
       <c r="AB52" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
